--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1609E2B-18EF-4559-B455-BD2CD8289AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF7C42-1446-4934-8C10-F0BE84CDD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
+    <sheet name="Maps in Javascript" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
   <si>
     <t>構成</t>
   </si>
@@ -661,6 +662,99 @@
   </si>
   <si>
     <t>Clear all value from Set</t>
+  </si>
+  <si>
+    <t>2.js-map</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\Year-2021-Updates\2.js-map\index.html</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\Year-2021-Updates\2.js-map\app.js</t>
+  </si>
+  <si>
+    <t>// Maps in JS</t>
+  </si>
+  <si>
+    <t>const sections = new Map([["A2001", ["John"]]]);</t>
+  </si>
+  <si>
+    <t>console.log(sections);</t>
+  </si>
+  <si>
+    <t>const students = sections.get("A2001");</t>
+  </si>
+  <si>
+    <t>students.push("Aragorn");</t>
+  </si>
+  <si>
+    <t>students.push("Ron");</t>
+  </si>
+  <si>
+    <t>sections.set("B2001", ["Gimli", "Harry", "Ron"]);</t>
+  </si>
+  <si>
+    <t>console.log(sections.keys());</t>
+  </si>
+  <si>
+    <t>console.log(sections.values());</t>
+  </si>
+  <si>
+    <t>console.log(sections.entries());</t>
+  </si>
+  <si>
+    <t>console.log(sections.has("A2001"));</t>
+  </si>
+  <si>
+    <t>!sections.has("A2001") &amp;&amp; sections.set("A2001", []);</t>
+  </si>
+  <si>
+    <t>will bring all the key value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In order to avoid overwriting a key we can simply check if that key exists in the Map or not, if not exist the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the map we are going to add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A2001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> key</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -789,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -801,6 +895,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H222" sqref="H222"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,4 +2822,1757 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B11C2-F9B2-4180-A346-009BFC6A8E1C}">
+  <dimension ref="A4:N233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="D7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="G13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="G14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="G15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="G16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="G19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="G20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="G21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="F22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="H24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="H25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="G26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="H27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="H28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="G29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="H30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="H31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="H32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="F33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="H35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="H36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="H37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="H38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="G39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="H40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="H41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="H42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="G43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="H44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="H45" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="H46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="G47" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="H48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="H49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="H50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="G51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="H52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="H53" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="G54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="H55" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="H56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="G57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="H58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="G59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="H60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="H61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+      <c r="H62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+      <c r="G63" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="H64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+      <c r="H65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="16"/>
+      <c r="H66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+      <c r="G67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+      <c r="H68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="H69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+      <c r="H70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+      <c r="G71" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="H72" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="H73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+      <c r="G74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+      <c r="H75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="H76" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+      <c r="G77" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+      <c r="H78" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="H79" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+      <c r="H80" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+      <c r="G81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+      <c r="H82" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
+      <c r="H83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
+      <c r="H84" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
+      <c r="G85" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="16"/>
+      <c r="H86" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+      <c r="H87" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="16"/>
+      <c r="H88" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+      <c r="G89" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="16"/>
+      <c r="H90" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
+      <c r="H91" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+      <c r="G92" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+      <c r="H93" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="16"/>
+      <c r="H94" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="16"/>
+      <c r="H95" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="16"/>
+      <c r="G96" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="16"/>
+      <c r="H97" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="16"/>
+      <c r="H98" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="16"/>
+      <c r="H99" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="16"/>
+      <c r="G100" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="16"/>
+      <c r="H101" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="16"/>
+      <c r="H102" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="16"/>
+      <c r="H103" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="16"/>
+      <c r="H104" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="16"/>
+      <c r="G105" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="16"/>
+      <c r="H106" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="16"/>
+      <c r="H107" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+      <c r="H108" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="16"/>
+      <c r="G109" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
+      <c r="H110" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+      <c r="H111" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
+      <c r="H112" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
+      <c r="G113" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="16"/>
+      <c r="H114" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="16"/>
+      <c r="I115" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="16"/>
+      <c r="H116" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
+      <c r="H117" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+      <c r="G118" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+      <c r="H119" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
+      <c r="H120" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="16"/>
+      <c r="H121" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="16"/>
+      <c r="H122" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="16"/>
+      <c r="G123" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="16"/>
+      <c r="H124" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="16"/>
+      <c r="H125" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="16"/>
+      <c r="H126" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="16"/>
+      <c r="G127" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="16"/>
+      <c r="H128" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="16"/>
+      <c r="H129" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="16"/>
+      <c r="H130" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="16"/>
+      <c r="H131" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="16"/>
+      <c r="G132" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="16"/>
+      <c r="H133" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="16"/>
+      <c r="H134" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="16"/>
+      <c r="H135" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="16"/>
+      <c r="H136" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="16"/>
+      <c r="G137" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="16"/>
+      <c r="H138" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="16"/>
+      <c r="H139" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="16"/>
+      <c r="G140" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="16"/>
+      <c r="G141" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="16"/>
+      <c r="H142" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="16"/>
+      <c r="H143" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="16"/>
+      <c r="G144" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="16"/>
+      <c r="H145" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="16"/>
+      <c r="H146" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="16"/>
+      <c r="H147" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="16"/>
+      <c r="G148" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="16"/>
+      <c r="H149" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="16"/>
+      <c r="H150" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="16"/>
+      <c r="H151" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
+      <c r="G152" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="16"/>
+      <c r="H153" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="16"/>
+      <c r="H154" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="16"/>
+      <c r="H155" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="16"/>
+      <c r="H156" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="16"/>
+      <c r="F157" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="16"/>
+      <c r="G158" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="16"/>
+      <c r="F159" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="16"/>
+      <c r="G160" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="16"/>
+      <c r="G161" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="16"/>
+      <c r="G162" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="16"/>
+      <c r="F163" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="16"/>
+      <c r="G164" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="16"/>
+      <c r="H165" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="16"/>
+      <c r="H166" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="16"/>
+      <c r="H167" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="16"/>
+      <c r="H168" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="16"/>
+      <c r="G169" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="16"/>
+      <c r="H170" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="16"/>
+      <c r="H171" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="16"/>
+      <c r="H172" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="16"/>
+      <c r="H173" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="16"/>
+      <c r="H174" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="16"/>
+      <c r="H175" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="16"/>
+      <c r="F176" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177" s="16"/>
+      <c r="G177" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B178" s="16"/>
+      <c r="G178" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B179" s="16"/>
+      <c r="G179" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B180" s="16"/>
+      <c r="D180" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" s="16"/>
+      <c r="C181" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B182" s="16"/>
+      <c r="D182" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B183" s="16"/>
+      <c r="E183" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B184" s="16"/>
+      <c r="E184" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B185" s="16"/>
+      <c r="D185" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L185" s="17"/>
+      <c r="M185" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N185" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="16"/>
+      <c r="E186" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B187" s="16"/>
+      <c r="E187" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L187" s="17"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B188" s="18"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="20"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="15"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="17"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="16"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="17"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="17"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="17"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="17"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="17"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="17"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="17"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="16"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="17"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="17"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="17"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="17"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="17"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="16"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="17"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="20"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="15"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="17"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="17"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="16"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="17"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="17"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="17"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="17"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="17"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="16"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="17"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="17"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="17"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="16"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="17"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="17"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="16"/>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="17"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="17"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="17"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I227" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="16"/>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="17"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="17"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="16"/>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="17"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I231" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="20"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF7C42-1446-4934-8C10-F0BE84CDD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC749542-3189-4603-8026-1D3B297DC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
     <sheet name="Maps in Javascript" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateMarkupOfLWC-VSF project" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
   <si>
     <t>構成</t>
   </si>
@@ -755,6 +756,232 @@
       </rPr>
       <t xml:space="preserve"> key</t>
     </r>
+  </si>
+  <si>
+    <t>Create Markup of LWC Component - VSF project</t>
+  </si>
+  <si>
+    <t>vaccineSlotFinder</t>
+  </si>
+  <si>
+    <t>vaccineSlotFinder.html</t>
+  </si>
+  <si>
+    <t>vaccineSlotFinder.js</t>
+  </si>
+  <si>
+    <t>vaccineSlotFinder.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\vaccineSlotFinder\vaccineSlotFinder.js-meta.xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LightningComponentBundle xmlns="http://soap.sforce.com/2006/04/metadata"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;apiVersion&gt;56.0&lt;/apiVersion&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;targets&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__AppPage&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__HomePage&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__UtilityBar&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__Tab&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/targets&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/LightningComponentBundle&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;isExposed&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/isExposed&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\vaccineSlotFinder\vaccineSlotFinder.html</t>
+  </si>
+  <si>
+    <t>&lt;!--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @description       : </t>
+  </si>
+  <si>
+    <t>  @author            : ChangeMeIn@UserSettingsUnder.SFDoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @group             : </t>
+  </si>
+  <si>
+    <t>  @last modified on  : 05-23-2021</t>
+  </si>
+  <si>
+    <t>  @last modified by  : ChangeMeIn@UserSettingsUnder.SFDoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Modifications Log </t>
+  </si>
+  <si>
+    <t>  Ver   Date         Author                               Modification</t>
+  </si>
+  <si>
+    <t>  1.0   05-23-2021   ChangeMeIn@UserSettingsUnder.SFDoc   Initial Version</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;template&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Vaccine Slot Finder"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;lightning-input</t>
+  </si>
+  <si>
+    <t>        type="search"</t>
+  </si>
+  <si>
+    <t>        placeholder="Pincode"</t>
+  </si>
+  <si>
+    <t>        slot="actions"</t>
+  </si>
+  <si>
+    <t>      &gt;&lt;/lightning-input&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>      &lt;lightning-datatable</t>
+  </si>
+  <si>
+    <t>        data={centers}</t>
+  </si>
+  <si>
+    <t>        columns={dates}</t>
+  </si>
+  <si>
+    <t>        key-field="id"</t>
+  </si>
+  <si>
+    <t>        show-row-number-column</t>
+  </si>
+  <si>
+    <t>        hide-checkbox-column</t>
+  </si>
+  <si>
+    <t>        if:true={hideMessage}</t>
+  </si>
+  <si>
+    <t>      &gt;&lt;/lightning-datatable&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div</t>
+  </si>
+  <si>
+    <t>        if:false={hideMessage}</t>
+  </si>
+  <si>
+    <t>        class="slds-text-align_center slds-text-heading_medium"</t>
+  </si>
+  <si>
+    <t>      &gt;</t>
+  </si>
+  <si>
+    <t>        No Slots!! Please make a different search.</t>
+  </si>
+  <si>
+    <t>      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/lightning-card&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\vaccineSlotFinder\vaccineSlotFinder.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class VaccineSlotFinder extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    centers = [];</t>
+  </si>
+  <si>
+    <t>    dates = [];</t>
+  </si>
+  <si>
+    <t>    get hideMessage() {</t>
+  </si>
+  <si>
+    <t>        return false;</t>
+  </si>
+  <si>
+    <t>      }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search for particular Pin code </t>
+  </si>
+  <si>
+    <t>table to show slots availability</t>
+  </si>
+  <si>
+    <t>show the row number</t>
+  </si>
+  <si>
+    <t>hide the checkbox column</t>
+  </si>
+  <si>
+    <t>If there are no slots available or if the user has not searched for a zip code or Pin code</t>
+  </si>
+  <si>
+    <t>Deployment Status</t>
+  </si>
+  <si>
+    <t>Check browser</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -905,7 +1132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,6 +1239,105 @@
         <a:xfrm>
           <a:off x="714375" y="43338749"/>
           <a:ext cx="8591550" cy="4591383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348CA4AC-9AC1-18D0-64F5-41420FD47B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="49949099"/>
+          <a:ext cx="11068050" cy="8179321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>91738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B62852-A19B-B757-AE99-CCD644B54998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="58931735"/>
+          <a:ext cx="11060205" cy="3263003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:N227"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L185"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="P179" sqref="P179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,1406 +3155,4652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B11C2-F9B2-4180-A346-009BFC6A8E1C}">
   <dimension ref="A4:N233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="12"/>
-  </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="F11" s="12" t="s">
+      <c r="B11" s="5"/>
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="G12" s="12" t="s">
+      <c r="B12" s="5"/>
+      <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="G13" s="12" t="s">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="G14" s="12" t="s">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="G15" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="G16" s="12" t="s">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="G17" s="12" t="s">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="G18" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="G19" s="12" t="s">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="G20" s="12" t="s">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="G21" s="12" t="s">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="F22" s="12" t="s">
+      <c r="B22" s="5"/>
+      <c r="F22" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="G23" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="17"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="H24" s="12" t="s">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="17"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="H25" s="12" t="s">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="G26" s="12" t="s">
+      <c r="B26" s="5"/>
+      <c r="G26" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="H27" s="12" t="s">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="H28" s="12" t="s">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="17"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="G29" s="12" t="s">
+      <c r="B29" s="5"/>
+      <c r="G29" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="17"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="H30" s="12" t="s">
+      <c r="B30" s="5"/>
+      <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="17"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="H31" s="12" t="s">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="H32" s="12" t="s">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="F33" s="12" t="s">
+      <c r="B33" s="5"/>
+      <c r="F33" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="G34" s="12" t="s">
+      <c r="B34" s="5"/>
+      <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="17"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="H35" s="12" t="s">
+      <c r="B35" s="5"/>
+      <c r="H35" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="17"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="H36" s="12" t="s">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="H37" s="12" t="s">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="17"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="H38" s="12" t="s">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="G39" s="12" t="s">
+      <c r="B39" s="5"/>
+      <c r="G39" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="17"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="H40" s="12" t="s">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="H41" s="12" t="s">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
         <v>37</v>
       </c>
-      <c r="L41" s="17"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="H42" s="12" t="s">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="17"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="G43" s="12" t="s">
+      <c r="B43" s="5"/>
+      <c r="G43" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="17"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="H44" s="12" t="s">
+      <c r="B44" s="5"/>
+      <c r="H44" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="17"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="H45" s="12" t="s">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="L45" s="17"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="H46" s="12" t="s">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="17"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="G47" s="12" t="s">
+      <c r="B47" s="5"/>
+      <c r="G47" t="s">
         <v>43</v>
       </c>
-      <c r="L47" s="17"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="H48" s="12" t="s">
+      <c r="B48" s="5"/>
+      <c r="H48" t="s">
         <v>44</v>
       </c>
-      <c r="L48" s="17"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="H49" s="12" t="s">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
         <v>45</v>
       </c>
-      <c r="L49" s="17"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="H50" s="12" t="s">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
         <v>46</v>
       </c>
-      <c r="L50" s="17"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="G51" s="12" t="s">
+      <c r="B51" s="5"/>
+      <c r="G51" t="s">
         <v>47</v>
       </c>
-      <c r="L51" s="17"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="H52" s="12" t="s">
+      <c r="B52" s="5"/>
+      <c r="H52" t="s">
         <v>48</v>
       </c>
-      <c r="L52" s="17"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="H53" s="12" t="s">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
         <v>49</v>
       </c>
-      <c r="L53" s="17"/>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="G54" s="12" t="s">
+      <c r="B54" s="5"/>
+      <c r="G54" t="s">
         <v>50</v>
       </c>
-      <c r="L54" s="17"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="H55" s="12" t="s">
+      <c r="B55" s="5"/>
+      <c r="H55" t="s">
         <v>51</v>
       </c>
-      <c r="L55" s="17"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="H56" s="12" t="s">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
         <v>52</v>
       </c>
-      <c r="L56" s="17"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="G57" s="12" t="s">
+      <c r="B57" s="5"/>
+      <c r="G57" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="17"/>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="H58" s="12" t="s">
+      <c r="B58" s="5"/>
+      <c r="H58" t="s">
         <v>54</v>
       </c>
-      <c r="L58" s="17"/>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="G59" s="12" t="s">
+      <c r="B59" s="5"/>
+      <c r="G59" t="s">
         <v>55</v>
       </c>
-      <c r="L59" s="17"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="H60" s="12" t="s">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
         <v>56</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="H61" s="12" t="s">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
         <v>57</v>
       </c>
-      <c r="L61" s="17"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="H62" s="12" t="s">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
         <v>58</v>
       </c>
-      <c r="L62" s="17"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="G63" s="12" t="s">
+      <c r="B63" s="5"/>
+      <c r="G63" t="s">
         <v>59</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="H64" s="12" t="s">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
         <v>60</v>
       </c>
-      <c r="L64" s="17"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-      <c r="H65" s="12" t="s">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
         <v>61</v>
       </c>
-      <c r="L65" s="17"/>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="H66" s="12" t="s">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
         <v>62</v>
       </c>
-      <c r="L66" s="17"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="G67" s="12" t="s">
+      <c r="B67" s="5"/>
+      <c r="G67" t="s">
         <v>63</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="16"/>
-      <c r="H68" s="12" t="s">
+      <c r="B68" s="5"/>
+      <c r="H68" t="s">
         <v>64</v>
       </c>
-      <c r="L68" s="17"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="H69" s="12" t="s">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
         <v>65</v>
       </c>
-      <c r="L69" s="17"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="H70" s="12" t="s">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
         <v>66</v>
       </c>
-      <c r="L70" s="17"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="G71" s="12" t="s">
+      <c r="B71" s="5"/>
+      <c r="G71" t="s">
         <v>67</v>
       </c>
-      <c r="L71" s="17"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="16"/>
-      <c r="H72" s="12" t="s">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
         <v>68</v>
       </c>
-      <c r="L72" s="17"/>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="16"/>
-      <c r="H73" s="12" t="s">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
         <v>69</v>
       </c>
-      <c r="L73" s="17"/>
+      <c r="L73" s="6"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="16"/>
-      <c r="G74" s="12" t="s">
+      <c r="B74" s="5"/>
+      <c r="G74" t="s">
         <v>70</v>
       </c>
-      <c r="L74" s="17"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="H75" s="12" t="s">
+      <c r="B75" s="5"/>
+      <c r="H75" t="s">
         <v>71</v>
       </c>
-      <c r="L75" s="17"/>
+      <c r="L75" s="6"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="16"/>
-      <c r="H76" s="12" t="s">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="17"/>
+      <c r="L76" s="6"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="16"/>
-      <c r="G77" s="12" t="s">
+      <c r="B77" s="5"/>
+      <c r="G77" t="s">
         <v>73</v>
       </c>
-      <c r="L77" s="17"/>
+      <c r="L77" s="6"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="16"/>
-      <c r="H78" s="12" t="s">
+      <c r="B78" s="5"/>
+      <c r="H78" t="s">
         <v>74</v>
       </c>
-      <c r="L78" s="17"/>
+      <c r="L78" s="6"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="H79" s="12" t="s">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
         <v>75</v>
       </c>
-      <c r="L79" s="17"/>
+      <c r="L79" s="6"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="H80" s="12" t="s">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
         <v>76</v>
       </c>
-      <c r="L80" s="17"/>
+      <c r="L80" s="6"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="16"/>
-      <c r="G81" s="12" t="s">
+      <c r="B81" s="5"/>
+      <c r="G81" t="s">
         <v>77</v>
       </c>
-      <c r="L81" s="17"/>
+      <c r="L81" s="6"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="16"/>
-      <c r="H82" s="12" t="s">
+      <c r="B82" s="5"/>
+      <c r="H82" t="s">
         <v>78</v>
       </c>
-      <c r="L82" s="17"/>
+      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="16"/>
-      <c r="H83" s="12" t="s">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
         <v>79</v>
       </c>
-      <c r="L83" s="17"/>
+      <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="16"/>
-      <c r="H84" s="12" t="s">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
         <v>80</v>
       </c>
-      <c r="L84" s="17"/>
+      <c r="L84" s="6"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="16"/>
-      <c r="G85" s="12" t="s">
+      <c r="B85" s="5"/>
+      <c r="G85" t="s">
         <v>81</v>
       </c>
-      <c r="L85" s="17"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
-      <c r="H86" s="12" t="s">
+      <c r="B86" s="5"/>
+      <c r="H86" t="s">
         <v>82</v>
       </c>
-      <c r="L86" s="17"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
-      <c r="H87" s="12" t="s">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
         <v>83</v>
       </c>
-      <c r="L87" s="17"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="16"/>
-      <c r="H88" s="12" t="s">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
         <v>84</v>
       </c>
-      <c r="L88" s="17"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="16"/>
-      <c r="G89" s="12" t="s">
+      <c r="B89" s="5"/>
+      <c r="G89" t="s">
         <v>85</v>
       </c>
-      <c r="L89" s="17"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="16"/>
-      <c r="H90" s="12" t="s">
+      <c r="B90" s="5"/>
+      <c r="H90" t="s">
         <v>86</v>
       </c>
-      <c r="L90" s="17"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="16"/>
-      <c r="H91" s="12" t="s">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
         <v>87</v>
       </c>
-      <c r="L91" s="17"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="G92" s="12" t="s">
+      <c r="B92" s="5"/>
+      <c r="G92" t="s">
         <v>88</v>
       </c>
-      <c r="L92" s="17"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="16"/>
-      <c r="H93" s="12" t="s">
+      <c r="B93" s="5"/>
+      <c r="H93" t="s">
         <v>89</v>
       </c>
-      <c r="L93" s="17"/>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="16"/>
-      <c r="H94" s="12" t="s">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
         <v>90</v>
       </c>
-      <c r="L94" s="17"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="H95" s="12" t="s">
+      <c r="B95" s="5"/>
+      <c r="H95" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="17"/>
+      <c r="L95" s="6"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="G96" s="12" t="s">
+      <c r="B96" s="5"/>
+      <c r="G96" t="s">
         <v>92</v>
       </c>
-      <c r="L96" s="17"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="16"/>
-      <c r="H97" s="12" t="s">
+      <c r="B97" s="5"/>
+      <c r="H97" t="s">
         <v>93</v>
       </c>
-      <c r="L97" s="17"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="16"/>
-      <c r="H98" s="12" t="s">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
         <v>94</v>
       </c>
-      <c r="L98" s="17"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="H99" s="12" t="s">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
         <v>95</v>
       </c>
-      <c r="L99" s="17"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="G100" s="12" t="s">
+      <c r="B100" s="5"/>
+      <c r="G100" t="s">
         <v>96</v>
       </c>
-      <c r="L100" s="17"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
-      <c r="H101" s="12" t="s">
+      <c r="B101" s="5"/>
+      <c r="H101" t="s">
         <v>97</v>
       </c>
-      <c r="L101" s="17"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
-      <c r="H102" s="12" t="s">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
         <v>98</v>
       </c>
-      <c r="L102" s="17"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="H103" s="12" t="s">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
         <v>99</v>
       </c>
-      <c r="L103" s="17"/>
+      <c r="L103" s="6"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="H104" s="12" t="s">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
         <v>100</v>
       </c>
-      <c r="L104" s="17"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="16"/>
-      <c r="G105" s="12" t="s">
+      <c r="B105" s="5"/>
+      <c r="G105" t="s">
         <v>101</v>
       </c>
-      <c r="L105" s="17"/>
+      <c r="L105" s="6"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="16"/>
-      <c r="H106" s="12" t="s">
+      <c r="B106" s="5"/>
+      <c r="H106" t="s">
         <v>102</v>
       </c>
-      <c r="L106" s="17"/>
+      <c r="L106" s="6"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
-      <c r="H107" s="12" t="s">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
         <v>103</v>
       </c>
-      <c r="L107" s="17"/>
+      <c r="L107" s="6"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
-      <c r="H108" s="12" t="s">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
         <v>104</v>
       </c>
-      <c r="L108" s="17"/>
+      <c r="L108" s="6"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="16"/>
-      <c r="G109" s="12" t="s">
+      <c r="B109" s="5"/>
+      <c r="G109" t="s">
         <v>105</v>
       </c>
-      <c r="L109" s="17"/>
+      <c r="L109" s="6"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="16"/>
-      <c r="H110" s="12" t="s">
+      <c r="B110" s="5"/>
+      <c r="H110" t="s">
         <v>106</v>
       </c>
-      <c r="L110" s="17"/>
+      <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="H111" s="12" t="s">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
         <v>107</v>
       </c>
-      <c r="L111" s="17"/>
+      <c r="L111" s="6"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="H112" s="12" t="s">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
         <v>108</v>
       </c>
-      <c r="L112" s="17"/>
+      <c r="L112" s="6"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="16"/>
-      <c r="G113" s="12" t="s">
+      <c r="B113" s="5"/>
+      <c r="G113" t="s">
         <v>109</v>
       </c>
-      <c r="L113" s="17"/>
+      <c r="L113" s="6"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="16"/>
-      <c r="H114" s="12" t="s">
+      <c r="B114" s="5"/>
+      <c r="H114" t="s">
         <v>110</v>
       </c>
-      <c r="L114" s="17"/>
+      <c r="L114" s="6"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="I115" s="12" t="s">
+      <c r="B115" s="5"/>
+      <c r="I115" t="s">
         <v>111</v>
       </c>
-      <c r="L115" s="17"/>
+      <c r="L115" s="6"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="H116" s="12" t="s">
+      <c r="B116" s="5"/>
+      <c r="H116" t="s">
         <v>112</v>
       </c>
-      <c r="L116" s="17"/>
+      <c r="L116" s="6"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B117" s="16"/>
-      <c r="H117" s="12" t="s">
+      <c r="B117" s="5"/>
+      <c r="H117" t="s">
         <v>113</v>
       </c>
-      <c r="L117" s="17"/>
+      <c r="L117" s="6"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
-      <c r="G118" s="12" t="s">
+      <c r="B118" s="5"/>
+      <c r="G118" t="s">
         <v>114</v>
       </c>
-      <c r="L118" s="17"/>
+      <c r="L118" s="6"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="H119" s="12" t="s">
+      <c r="B119" s="5"/>
+      <c r="H119" t="s">
         <v>115</v>
       </c>
-      <c r="L119" s="17"/>
+      <c r="L119" s="6"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
-      <c r="H120" s="12" t="s">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
         <v>116</v>
       </c>
-      <c r="L120" s="17"/>
+      <c r="L120" s="6"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="16"/>
-      <c r="H121" s="12" t="s">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
         <v>117</v>
       </c>
-      <c r="L121" s="17"/>
+      <c r="L121" s="6"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="16"/>
-      <c r="H122" s="12" t="s">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
         <v>118</v>
       </c>
-      <c r="L122" s="17"/>
+      <c r="L122" s="6"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
-      <c r="G123" s="12" t="s">
+      <c r="B123" s="5"/>
+      <c r="G123" t="s">
         <v>119</v>
       </c>
-      <c r="L123" s="17"/>
+      <c r="L123" s="6"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
-      <c r="H124" s="12" t="s">
+      <c r="B124" s="5"/>
+      <c r="H124" t="s">
         <v>120</v>
       </c>
-      <c r="L124" s="17"/>
+      <c r="L124" s="6"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="16"/>
-      <c r="H125" s="12" t="s">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
         <v>121</v>
       </c>
-      <c r="L125" s="17"/>
+      <c r="L125" s="6"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="16"/>
-      <c r="H126" s="12" t="s">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
         <v>122</v>
       </c>
-      <c r="L126" s="17"/>
+      <c r="L126" s="6"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="16"/>
-      <c r="G127" s="12" t="s">
+      <c r="B127" s="5"/>
+      <c r="G127" t="s">
         <v>123</v>
       </c>
-      <c r="L127" s="17"/>
+      <c r="L127" s="6"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="16"/>
-      <c r="H128" s="12" t="s">
+      <c r="B128" s="5"/>
+      <c r="H128" t="s">
         <v>124</v>
       </c>
-      <c r="L128" s="17"/>
+      <c r="L128" s="6"/>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="16"/>
-      <c r="H129" s="12" t="s">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
         <v>125</v>
       </c>
-      <c r="L129" s="17"/>
+      <c r="L129" s="6"/>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="16"/>
-      <c r="H130" s="12" t="s">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
         <v>126</v>
       </c>
-      <c r="L130" s="17"/>
+      <c r="L130" s="6"/>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B131" s="16"/>
-      <c r="H131" s="12" t="s">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
         <v>127</v>
       </c>
-      <c r="L131" s="17"/>
+      <c r="L131" s="6"/>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B132" s="16"/>
-      <c r="G132" s="12" t="s">
+      <c r="B132" s="5"/>
+      <c r="G132" t="s">
         <v>128</v>
       </c>
-      <c r="L132" s="17"/>
+      <c r="L132" s="6"/>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B133" s="16"/>
-      <c r="H133" s="12" t="s">
+      <c r="B133" s="5"/>
+      <c r="H133" t="s">
         <v>129</v>
       </c>
-      <c r="L133" s="17"/>
+      <c r="L133" s="6"/>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="16"/>
-      <c r="H134" s="12" t="s">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
         <v>130</v>
       </c>
-      <c r="L134" s="17"/>
+      <c r="L134" s="6"/>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="16"/>
-      <c r="H135" s="12" t="s">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
         <v>131</v>
       </c>
-      <c r="L135" s="17"/>
+      <c r="L135" s="6"/>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B136" s="16"/>
-      <c r="H136" s="12" t="s">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
         <v>132</v>
       </c>
-      <c r="L136" s="17"/>
+      <c r="L136" s="6"/>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="16"/>
-      <c r="G137" s="12" t="s">
+      <c r="B137" s="5"/>
+      <c r="G137" t="s">
         <v>133</v>
       </c>
-      <c r="L137" s="17"/>
+      <c r="L137" s="6"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B138" s="16"/>
-      <c r="H138" s="12" t="s">
+      <c r="B138" s="5"/>
+      <c r="H138" t="s">
         <v>134</v>
       </c>
-      <c r="L138" s="17"/>
+      <c r="L138" s="6"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B139" s="16"/>
-      <c r="H139" s="12" t="s">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
         <v>135</v>
       </c>
-      <c r="L139" s="17"/>
+      <c r="L139" s="6"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="16"/>
-      <c r="G140" s="12" t="s">
+      <c r="B140" s="5"/>
+      <c r="G140" t="s">
         <v>136</v>
       </c>
-      <c r="L140" s="17"/>
+      <c r="L140" s="6"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="16"/>
-      <c r="G141" s="12" t="s">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
         <v>137</v>
       </c>
-      <c r="L141" s="17"/>
+      <c r="L141" s="6"/>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="16"/>
-      <c r="H142" s="12" t="s">
+      <c r="B142" s="5"/>
+      <c r="H142" t="s">
         <v>138</v>
       </c>
-      <c r="L142" s="17"/>
+      <c r="L142" s="6"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="16"/>
-      <c r="H143" s="12" t="s">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
         <v>139</v>
       </c>
-      <c r="L143" s="17"/>
+      <c r="L143" s="6"/>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B144" s="16"/>
-      <c r="G144" s="12" t="s">
+      <c r="B144" s="5"/>
+      <c r="G144" t="s">
         <v>140</v>
       </c>
-      <c r="L144" s="17"/>
+      <c r="L144" s="6"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B145" s="16"/>
-      <c r="H145" s="12" t="s">
+      <c r="B145" s="5"/>
+      <c r="H145" t="s">
         <v>141</v>
       </c>
-      <c r="L145" s="17"/>
+      <c r="L145" s="6"/>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B146" s="16"/>
-      <c r="H146" s="12" t="s">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
         <v>142</v>
       </c>
-      <c r="L146" s="17"/>
+      <c r="L146" s="6"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B147" s="16"/>
-      <c r="H147" s="12" t="s">
+      <c r="B147" s="5"/>
+      <c r="H147" t="s">
         <v>143</v>
       </c>
-      <c r="L147" s="17"/>
+      <c r="L147" s="6"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B148" s="16"/>
-      <c r="G148" s="12" t="s">
+      <c r="B148" s="5"/>
+      <c r="G148" t="s">
         <v>144</v>
       </c>
-      <c r="L148" s="17"/>
+      <c r="L148" s="6"/>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B149" s="16"/>
-      <c r="H149" s="12" t="s">
+      <c r="B149" s="5"/>
+      <c r="H149" t="s">
         <v>145</v>
       </c>
-      <c r="L149" s="17"/>
+      <c r="L149" s="6"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B150" s="16"/>
-      <c r="H150" s="12" t="s">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
         <v>146</v>
       </c>
-      <c r="L150" s="17"/>
+      <c r="L150" s="6"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B151" s="16"/>
-      <c r="H151" s="12" t="s">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
         <v>147</v>
       </c>
-      <c r="L151" s="17"/>
+      <c r="L151" s="6"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B152" s="16"/>
-      <c r="G152" s="12" t="s">
+      <c r="B152" s="5"/>
+      <c r="G152" t="s">
         <v>148</v>
       </c>
-      <c r="L152" s="17"/>
+      <c r="L152" s="6"/>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B153" s="16"/>
-      <c r="H153" s="12" t="s">
+      <c r="B153" s="5"/>
+      <c r="H153" t="s">
         <v>149</v>
       </c>
-      <c r="L153" s="17"/>
+      <c r="L153" s="6"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B154" s="16"/>
-      <c r="H154" s="12" t="s">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
         <v>150</v>
       </c>
-      <c r="L154" s="17"/>
+      <c r="L154" s="6"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B155" s="16"/>
-      <c r="H155" s="12" t="s">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
         <v>151</v>
       </c>
-      <c r="L155" s="17"/>
+      <c r="L155" s="6"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B156" s="16"/>
-      <c r="H156" s="12" t="s">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
         <v>152</v>
       </c>
-      <c r="L156" s="17"/>
+      <c r="L156" s="6"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B157" s="16"/>
-      <c r="F157" s="12" t="s">
+      <c r="B157" s="5"/>
+      <c r="F157" t="s">
         <v>153</v>
       </c>
-      <c r="L157" s="17"/>
+      <c r="L157" s="6"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B158" s="16"/>
-      <c r="G158" s="12" t="s">
+      <c r="B158" s="5"/>
+      <c r="G158" t="s">
         <v>154</v>
       </c>
-      <c r="L158" s="17"/>
+      <c r="L158" s="6"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B159" s="16"/>
-      <c r="F159" s="12" t="s">
+      <c r="B159" s="5"/>
+      <c r="F159" t="s">
         <v>155</v>
       </c>
-      <c r="L159" s="17"/>
+      <c r="L159" s="6"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B160" s="16"/>
-      <c r="G160" s="12" t="s">
+      <c r="B160" s="5"/>
+      <c r="G160" t="s">
         <v>156</v>
       </c>
-      <c r="L160" s="17"/>
+      <c r="L160" s="6"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B161" s="16"/>
-      <c r="G161" s="12" t="s">
+      <c r="B161" s="5"/>
+      <c r="G161" t="s">
         <v>157</v>
       </c>
-      <c r="L161" s="17"/>
+      <c r="L161" s="6"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="16"/>
-      <c r="G162" s="12" t="s">
+      <c r="B162" s="5"/>
+      <c r="G162" t="s">
         <v>158</v>
       </c>
-      <c r="L162" s="17"/>
+      <c r="L162" s="6"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="16"/>
-      <c r="F163" s="12" t="s">
+      <c r="B163" s="5"/>
+      <c r="F163" t="s">
         <v>159</v>
       </c>
-      <c r="L163" s="17"/>
+      <c r="L163" s="6"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B164" s="16"/>
-      <c r="G164" s="12" t="s">
+      <c r="B164" s="5"/>
+      <c r="G164" t="s">
         <v>160</v>
       </c>
-      <c r="L164" s="17"/>
+      <c r="L164" s="6"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B165" s="16"/>
-      <c r="H165" s="12" t="s">
+      <c r="B165" s="5"/>
+      <c r="H165" t="s">
         <v>161</v>
       </c>
-      <c r="L165" s="17"/>
+      <c r="L165" s="6"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B166" s="16"/>
-      <c r="H166" s="12" t="s">
+      <c r="B166" s="5"/>
+      <c r="H166" t="s">
         <v>162</v>
       </c>
-      <c r="L166" s="17"/>
+      <c r="L166" s="6"/>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B167" s="16"/>
-      <c r="H167" s="12" t="s">
+      <c r="B167" s="5"/>
+      <c r="H167" t="s">
         <v>163</v>
       </c>
-      <c r="L167" s="17"/>
+      <c r="L167" s="6"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B168" s="16"/>
-      <c r="H168" s="12" t="s">
+      <c r="B168" s="5"/>
+      <c r="H168" t="s">
         <v>164</v>
       </c>
-      <c r="L168" s="17"/>
+      <c r="L168" s="6"/>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B169" s="16"/>
-      <c r="G169" s="12" t="s">
+      <c r="B169" s="5"/>
+      <c r="G169" t="s">
         <v>165</v>
       </c>
-      <c r="L169" s="17"/>
+      <c r="L169" s="6"/>
     </row>
     <row r="170" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B170" s="16"/>
-      <c r="H170" s="12" t="s">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
         <v>166</v>
       </c>
-      <c r="L170" s="17"/>
+      <c r="L170" s="6"/>
     </row>
     <row r="171" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B171" s="16"/>
-      <c r="H171" s="12" t="s">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
         <v>167</v>
       </c>
-      <c r="L171" s="17"/>
+      <c r="L171" s="6"/>
     </row>
     <row r="172" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B172" s="16"/>
-      <c r="H172" s="12" t="s">
+      <c r="B172" s="5"/>
+      <c r="H172" t="s">
         <v>168</v>
       </c>
-      <c r="L172" s="17"/>
+      <c r="L172" s="6"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B173" s="16"/>
-      <c r="H173" s="12" t="s">
+      <c r="B173" s="5"/>
+      <c r="H173" t="s">
         <v>169</v>
       </c>
-      <c r="L173" s="17"/>
+      <c r="L173" s="6"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B174" s="16"/>
-      <c r="H174" s="12" t="s">
+      <c r="B174" s="5"/>
+      <c r="H174" t="s">
         <v>170</v>
       </c>
-      <c r="L174" s="17"/>
+      <c r="L174" s="6"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B175" s="16"/>
-      <c r="H175" s="12" t="s">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
         <v>171</v>
       </c>
-      <c r="L175" s="17"/>
+      <c r="L175" s="6"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B176" s="16"/>
-      <c r="F176" s="12" t="s">
+      <c r="B176" s="5"/>
+      <c r="F176" t="s">
         <v>172</v>
       </c>
-      <c r="L176" s="17"/>
+      <c r="L176" s="6"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B177" s="16"/>
-      <c r="G177" s="12" t="s">
+      <c r="B177" s="5"/>
+      <c r="G177" t="s">
         <v>173</v>
       </c>
-      <c r="L177" s="17"/>
+      <c r="L177" s="6"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B178" s="16"/>
-      <c r="G178" s="12" t="s">
+      <c r="B178" s="5"/>
+      <c r="G178" t="s">
         <v>174</v>
       </c>
-      <c r="L178" s="17"/>
+      <c r="L178" s="6"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B179" s="16"/>
-      <c r="G179" s="12" t="s">
+      <c r="B179" s="5"/>
+      <c r="G179" t="s">
         <v>175</v>
       </c>
-      <c r="L179" s="17"/>
+      <c r="L179" s="6"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B180" s="16"/>
-      <c r="D180" s="12" t="s">
+      <c r="B180" s="5"/>
+      <c r="D180" t="s">
         <v>176</v>
       </c>
-      <c r="L180" s="17"/>
+      <c r="L180" s="6"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B181" s="16"/>
-      <c r="C181" s="12" t="s">
+      <c r="B181" s="5"/>
+      <c r="C181" t="s">
         <v>177</v>
       </c>
-      <c r="L181" s="17"/>
+      <c r="L181" s="6"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B182" s="16"/>
-      <c r="D182" s="12" t="s">
+      <c r="B182" s="5"/>
+      <c r="D182" t="s">
         <v>207</v>
       </c>
-      <c r="L182" s="17"/>
+      <c r="L182" s="6"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B183" s="16"/>
-      <c r="E183" s="12" t="s">
+      <c r="B183" s="5"/>
+      <c r="E183" t="s">
         <v>178</v>
       </c>
-      <c r="L183" s="17"/>
+      <c r="L183" s="6"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B184" s="16"/>
-      <c r="E184" s="12" t="s">
+      <c r="B184" s="5"/>
+      <c r="E184" t="s">
         <v>179</v>
       </c>
-      <c r="L184" s="17"/>
+      <c r="L184" s="6"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B185" s="16"/>
+      <c r="B185" s="5"/>
       <c r="D185" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L185" s="17"/>
-      <c r="M185" s="12" t="s">
+      <c r="L185" s="6"/>
+      <c r="M185" t="s">
         <v>181</v>
       </c>
-      <c r="N185" s="12" t="s">
+      <c r="N185" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B186" s="16"/>
+      <c r="B186" s="5"/>
       <c r="E186" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L186" s="17"/>
+      <c r="L186" s="6"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B187" s="16"/>
+      <c r="B187" s="5"/>
       <c r="E187" s="7" t="s">
         <v>179</v>
       </c>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B188" s="8"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="10"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="10"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G227" s="6"/>
+      <c r="H227" t="s">
+        <v>181</v>
+      </c>
+      <c r="I227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G231" s="6"/>
+      <c r="H231" t="s">
+        <v>181</v>
+      </c>
+      <c r="I231" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F4AD97-B8AE-4971-A661-26B3E324654E}">
+  <dimension ref="A2:N309"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T309" sqref="T309"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I147" s="12"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="17"/>
+      <c r="M158" t="s">
+        <v>181</v>
+      </c>
+      <c r="N158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="17"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
       <c r="L187" s="17"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B188" s="18"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="20"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B192" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="15"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="17"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="16"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="17"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="21"/>
-      <c r="H195" s="21"/>
-      <c r="I195" s="17"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="17"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="21"/>
-      <c r="H197" s="21"/>
-      <c r="I197" s="17"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" s="16" t="s">
-        <v>187</v>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="17"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="17"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="17"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="17"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="17"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="20"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
@@ -4235,11 +7808,12 @@
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
-      <c r="I198" s="17"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="16" t="s">
-        <v>188</v>
+      <c r="I198" s="21"/>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
@@ -4247,11 +7821,12 @@
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
       <c r="H199" s="21"/>
-      <c r="I199" s="17"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="16" t="s">
-        <v>189</v>
+      <c r="I199" s="21"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
@@ -4259,21 +7834,23 @@
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
       <c r="H200" s="21"/>
-      <c r="I200" s="17"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="16"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
       <c r="H201" s="21"/>
-      <c r="I201" s="17"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="16" t="s">
-        <v>190</v>
+      <c r="I201" s="21"/>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
@@ -4281,11 +7858,12 @@
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
       <c r="H202" s="21"/>
-      <c r="I202" s="17"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="16" t="s">
-        <v>191</v>
+      <c r="I202" s="21"/>
+      <c r="J202" s="6"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
@@ -4293,11 +7871,12 @@
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
       <c r="H203" s="21"/>
-      <c r="I203" s="17"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="16" t="s">
-        <v>192</v>
+      <c r="I203" s="21"/>
+      <c r="J203" s="6"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
@@ -4305,11 +7884,12 @@
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
       <c r="H204" s="21"/>
-      <c r="I204" s="17"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="16" t="s">
-        <v>193</v>
+      <c r="I204" s="21"/>
+      <c r="J204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
@@ -4317,262 +7897,689 @@
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
       <c r="H205" s="21"/>
-      <c r="I205" s="17"/>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B206" s="16"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="C206" s="21"/>
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
       <c r="H206" s="21"/>
-      <c r="I206" s="17"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="20"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B211" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="15"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B212" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="21"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="17"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B213" s="16" t="s">
-        <v>217</v>
+      <c r="I206" s="21"/>
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="10"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="4"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
-      <c r="G213" s="17"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B214" s="16"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="C214" s="21"/>
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
-      <c r="G214" s="17"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B215" s="16" t="s">
-        <v>218</v>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="6"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C215" s="21"/>
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
-      <c r="G215" s="17"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B216" s="16" t="s">
-        <v>219</v>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
-      <c r="G216" s="17"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B217" s="16" t="s">
-        <v>220</v>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
-      <c r="G217" s="17"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="16" t="s">
-        <v>217</v>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+      <c r="J217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
-      <c r="G218" s="17"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B219" s="16"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="6"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="C219" s="21"/>
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
-      <c r="G219" s="17"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B220" s="16" t="s">
-        <v>221</v>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+      <c r="J219" s="6"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="C220" s="21"/>
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
-      <c r="G220" s="17"/>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B221" s="16" t="s">
-        <v>217</v>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+      <c r="J220" s="6"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C221" s="21"/>
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
-      <c r="G221" s="17"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B222" s="16"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+      <c r="J221" s="6"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="C222" s="21"/>
       <c r="D222" s="21"/>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
-      <c r="G222" s="17"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B223" s="16" t="s">
-        <v>217</v>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="21"/>
+      <c r="J222" s="6"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="21"/>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
-      <c r="G223" s="17"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B224" s="16"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="6"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="C224" s="21"/>
       <c r="D224" s="21"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
-      <c r="G224" s="17"/>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="16" t="s">
-        <v>222</v>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="21"/>
+      <c r="J224" s="6"/>
+      <c r="K224" t="s">
+        <v>181</v>
+      </c>
+      <c r="L224" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C225" s="21"/>
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
-      <c r="G225" s="17"/>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="16" t="s">
-        <v>223</v>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="21"/>
+      <c r="J225" s="6"/>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="C226" s="21"/>
       <c r="D226" s="21"/>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
-      <c r="G226" s="17"/>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="16" t="s">
-        <v>224</v>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="6"/>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C227" s="21"/>
       <c r="D227" s="21"/>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I227" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="16"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="6"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="C228" s="21"/>
       <c r="D228" s="21"/>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
-      <c r="G228" s="17"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="16" t="s">
-        <v>225</v>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="6"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="21"/>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
-      <c r="G229" s="17"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="16"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
+      <c r="J229" s="6"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="C230" s="21"/>
       <c r="D230" s="21"/>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
-      <c r="G230" s="17"/>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="16" t="s">
-        <v>226</v>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+      <c r="J230" s="6"/>
+      <c r="K230" t="s">
+        <v>181</v>
+      </c>
+      <c r="L230" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C231" s="21"/>
       <c r="D231" s="21"/>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="12" t="s">
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
+      <c r="J231" s="6"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="6"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
+      <c r="I233" s="21"/>
+      <c r="J233" s="6"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+      <c r="J234" s="6"/>
+      <c r="K234" t="s">
         <v>181</v>
       </c>
-      <c r="I231" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="20"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="12" t="s">
+      <c r="L234" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="6"/>
+      <c r="K235" t="s">
+        <v>181</v>
+      </c>
+      <c r="L235" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
+      <c r="I236" s="21"/>
+      <c r="J236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
+      <c r="I237" s="21"/>
+      <c r="J237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="6"/>
+      <c r="K239" t="s">
+        <v>181</v>
+      </c>
+      <c r="L239" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="6"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="6"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="6"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="6"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="6"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="6"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B246" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="4"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="6"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="6"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="6"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B259" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC749542-3189-4603-8026-1D3B297DC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D1C00-356E-4CDB-B417-769DB3088929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
     <sheet name="Maps in Javascript" sheetId="2" r:id="rId2"/>
     <sheet name="CreateMarkupOfLWC-VSF project" sheetId="3" r:id="rId3"/>
+    <sheet name="Making a CalloutFromLWC-VSF Pj" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="311">
   <si>
     <t>構成</t>
   </si>
@@ -982,6 +983,70 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>Making a Callout from LWC - VSF Project</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>    connectedCallback() {</t>
+  </si>
+  <si>
+    <t>      const endpoint = `https://choudharymanish8585.github.io/cowin-api-sample-response/db.json`;</t>
+  </si>
+  <si>
+    <t>      this.fetchVaccineSlots(endpoint);</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    async fetchVaccineSlots(endpoint) {</t>
+  </si>
+  <si>
+    <t>      const vaccineSlotRes = await fetch(endpoint);</t>
+  </si>
+  <si>
+    <t>      const slotsData = await vaccineSlotRes.json();</t>
+  </si>
+  <si>
+    <t>      console.log(slotsData);</t>
+  </si>
+  <si>
+    <t>Later we will remove it but for now we just want to make a call out as soon as out component render here</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">make an API call out from javascript. We need to use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to make sure fire is asynchronously.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Check console browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an error that we are most likely to get when we are going to make call out from our javascript code </t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1122,18 +1187,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,6 +1394,114 @@
         <a:xfrm>
           <a:off x="728383" y="58931735"/>
           <a:ext cx="11060205" cy="3263003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856309CA-ADC3-0F8E-5A32-E1DF5E5FDEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1047750" y="39614475"/>
+          <a:ext cx="771525" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDCDF44-C7CA-7146-EFDD-188F15F3BFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714374" y="42205275"/>
+          <a:ext cx="10106025" cy="1331686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4741,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F4AD97-B8AE-4971-A661-26B3E324654E}">
   <dimension ref="A2:N309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T309" sqref="T309"/>
+    <sheetView topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P199" sqref="P199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,2468 +4917,1088 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="B12" s="5"/>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="F23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="s">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12" t="s">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="s">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12" t="s">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12" t="s">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="F34" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12" t="s">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12" t="s">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="G48" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12" t="s">
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12" t="s">
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="H51" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12" t="s">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12" t="s">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
         <v>49</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12" t="s">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" t="s">
         <v>50</v>
       </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12" t="s">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
         <v>51</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12" t="s">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
         <v>52</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12" t="s">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12" t="s">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
         <v>54</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12" t="s">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="G60" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="17"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12" t="s">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
         <v>57</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12" t="s">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
         <v>58</v>
       </c>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12" t="s">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="G64" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12" t="s">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12" t="s">
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12" t="s">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12" t="s">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="G68" t="s">
         <v>63</v>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12" t="s">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
         <v>64</v>
       </c>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12" t="s">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
         <v>65</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12" t="s">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
         <v>66</v>
       </c>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12" t="s">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="G72" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12" t="s">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
         <v>68</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12" t="s">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12" t="s">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="G75" t="s">
         <v>70</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12" t="s">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
         <v>71</v>
       </c>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12" t="s">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
         <v>72</v>
       </c>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12" t="s">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="G78" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12" t="s">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
         <v>74</v>
       </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12" t="s">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
         <v>75</v>
       </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12" t="s">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
         <v>76</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12" t="s">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12" t="s">
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
         <v>78</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12" t="s">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
         <v>79</v>
       </c>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12" t="s">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
         <v>80</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="G86" t="s">
         <v>81</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12" t="s">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
         <v>82</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12" t="s">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
         <v>83</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12" t="s">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="H89" t="s">
         <v>84</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12" t="s">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="G90" t="s">
         <v>85</v>
       </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12" t="s">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
         <v>86</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12" t="s">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
         <v>87</v>
       </c>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="G93" t="s">
         <v>88</v>
       </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12" t="s">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
         <v>89</v>
       </c>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12" t="s">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="H95" t="s">
         <v>90</v>
       </c>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12" t="s">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" t="s">
         <v>91</v>
       </c>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12" t="s">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="G97" t="s">
         <v>92</v>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12" t="s">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
         <v>93</v>
       </c>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12" t="s">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12" t="s">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="H100" t="s">
         <v>95</v>
       </c>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12" t="s">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="G101" t="s">
         <v>96</v>
       </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12" t="s">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
         <v>97</v>
       </c>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12" t="s">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
         <v>98</v>
       </c>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12" t="s">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
         <v>99</v>
       </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12" t="s">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="H105" t="s">
         <v>100</v>
       </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12" t="s">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="G106" t="s">
         <v>101</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12" t="s">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
         <v>102</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12" t="s">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
         <v>103</v>
       </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12" t="s">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="H109" t="s">
         <v>104</v>
       </c>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12" t="s">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="G110" t="s">
         <v>105</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12" t="s">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
         <v>106</v>
       </c>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
         <v>107</v>
       </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12" t="s">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="H113" t="s">
         <v>108</v>
       </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12" t="s">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="G114" t="s">
         <v>109</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12" t="s">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="H115" t="s">
         <v>110</v>
       </c>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12" t="s">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="I116" t="s">
         <v>111</v>
       </c>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12" t="s">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="H117" t="s">
         <v>112</v>
       </c>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12" t="s">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="H118" t="s">
         <v>113</v>
       </c>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12" t="s">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="G119" t="s">
         <v>114</v>
       </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12" t="s">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
         <v>115</v>
       </c>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12" t="s">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
         <v>116</v>
       </c>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12" t="s">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
         <v>117</v>
       </c>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12" t="s">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="H123" t="s">
         <v>118</v>
       </c>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12" t="s">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="G124" t="s">
         <v>119</v>
       </c>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="17"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12" t="s">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
         <v>120</v>
       </c>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="17"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12" t="s">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
         <v>121</v>
       </c>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="17"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12" t="s">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="H127" t="s">
         <v>122</v>
       </c>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="17"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12" t="s">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="G128" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="17"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12" t="s">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
         <v>124</v>
       </c>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="17"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12" t="s">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
         <v>125</v>
       </c>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="17"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12" t="s">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
         <v>126</v>
       </c>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="17"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12" t="s">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="H132" t="s">
         <v>127</v>
       </c>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12" t="s">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="G133" t="s">
         <v>128</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="17"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12" t="s">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
         <v>129</v>
       </c>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="17"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12" t="s">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
         <v>130</v>
       </c>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="17"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12" t="s">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
         <v>131</v>
       </c>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="17"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12" t="s">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="H137" t="s">
         <v>132</v>
       </c>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="17"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12" t="s">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="G138" t="s">
         <v>133</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="17"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12" t="s">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
         <v>134</v>
       </c>
-      <c r="I139" s="12"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="17"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12" t="s">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="H140" t="s">
         <v>135</v>
       </c>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="17"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12" t="s">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
         <v>136</v>
       </c>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="17"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12" t="s">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="G142" t="s">
         <v>137</v>
       </c>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="17"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12" t="s">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
         <v>138</v>
       </c>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="17"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12" t="s">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="H144" t="s">
         <v>139</v>
       </c>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="17"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12" t="s">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="G145" t="s">
         <v>140</v>
       </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="17"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12" t="s">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
         <v>141</v>
       </c>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="17"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="H147" t="s">
         <v>142</v>
       </c>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="17"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12" t="s">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="H148" t="s">
         <v>143</v>
       </c>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12" t="s">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="G149" t="s">
         <v>144</v>
       </c>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12" t="s">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
         <v>145</v>
       </c>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="17"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12" t="s">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
         <v>146</v>
       </c>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12" t="s">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="H152" t="s">
         <v>147</v>
       </c>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="17"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12" t="s">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="G153" t="s">
         <v>148</v>
       </c>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="17"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12" t="s">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
         <v>149</v>
       </c>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="17"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12" t="s">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
         <v>150</v>
       </c>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="17"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12" t="s">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
         <v>151</v>
       </c>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="17"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12" t="s">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="H157" t="s">
         <v>152</v>
       </c>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="17"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
       <c r="G158" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="17"/>
+      <c r="L158" s="6"/>
       <c r="M158" t="s">
         <v>181</v>
       </c>
@@ -7222,563 +6006,257 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="17"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
       <c r="H160" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
       <c r="H161" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="17"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12" t="s">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="F162" t="s">
         <v>153</v>
       </c>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="17"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12" t="s">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="G163" t="s">
         <v>154</v>
       </c>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="17"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12" t="s">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="F164" t="s">
         <v>155</v>
       </c>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="17"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12" t="s">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="G165" t="s">
         <v>156</v>
       </c>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="17"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12" t="s">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="G166" t="s">
         <v>157</v>
       </c>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="17"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12" t="s">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="G167" t="s">
         <v>158</v>
       </c>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="17"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12" t="s">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="F168" t="s">
         <v>159</v>
       </c>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="17"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12" t="s">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="G169" t="s">
         <v>160</v>
       </c>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="17"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12" t="s">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
         <v>161</v>
       </c>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="17"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12" t="s">
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
         <v>162</v>
       </c>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="17"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12" t="s">
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="H172" t="s">
         <v>163</v>
       </c>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="17"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12" t="s">
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="H173" t="s">
         <v>164</v>
       </c>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="17"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12" t="s">
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="G174" t="s">
         <v>165</v>
       </c>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="17"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12" t="s">
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
         <v>166</v>
       </c>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="17"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12" t="s">
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="H176" t="s">
         <v>167</v>
       </c>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="17"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12" t="s">
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
         <v>168</v>
       </c>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="17"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12" t="s">
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
         <v>169</v>
       </c>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="17"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12" t="s">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="H179" t="s">
         <v>170</v>
       </c>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="17"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="16"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12" t="s">
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="H180" t="s">
         <v>171</v>
       </c>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="17"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12" t="s">
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="F181" t="s">
         <v>172</v>
       </c>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="17"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="16"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12" t="s">
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="G182" t="s">
         <v>173</v>
       </c>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="17"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12" t="s">
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="G183" t="s">
         <v>174</v>
       </c>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="17"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="16"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12" t="s">
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="G184" t="s">
         <v>175</v>
       </c>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="17"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12" t="s">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="D185" t="s">
         <v>176</v>
       </c>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="17"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
-      <c r="B186" s="16"/>
-      <c r="C186" s="12" t="s">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" t="s">
         <v>177</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="17"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12" t="s">
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="D187" t="s">
         <v>207</v>
       </c>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="17"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
-      <c r="B188" s="16"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12" t="s">
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="E188" t="s">
         <v>178</v>
       </c>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="17"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="16"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12" t="s">
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="E189" t="s">
         <v>179</v>
       </c>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="17"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="16"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12" t="s">
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="D190" t="s">
         <v>212</v>
       </c>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="17"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="16"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12" t="s">
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="E191" t="s">
         <v>178</v>
       </c>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="17"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="16"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12" t="s">
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="E192" t="s">
         <v>179</v>
       </c>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="17"/>
+      <c r="L192" s="6"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="20"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -7802,128 +6280,58 @@
       <c r="B198" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="21"/>
       <c r="J198" s="6"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="21"/>
-      <c r="I199" s="21"/>
       <c r="J199" s="6"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C200" s="21"/>
-      <c r="D200" s="21"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="21"/>
       <c r="J200" s="6"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
       <c r="J201" s="6"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="21"/>
       <c r="J202" s="6"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="21"/>
       <c r="J203" s="6"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21"/>
-      <c r="E204" s="21"/>
-      <c r="F204" s="21"/>
-      <c r="G204" s="21"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
       <c r="J204" s="6"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
       <c r="J205" s="6"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B206" s="22" t="s">
+      <c r="B206" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="21"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
-      <c r="I206" s="21"/>
       <c r="J206" s="6"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="21"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
       <c r="J207" s="6"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -7961,156 +6369,72 @@
       <c r="B213" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C213" s="21"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="21"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="21"/>
       <c r="J213" s="6"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B214" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C214" s="21"/>
-      <c r="D214" s="21"/>
-      <c r="E214" s="21"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="21"/>
-      <c r="H214" s="21"/>
-      <c r="I214" s="21"/>
       <c r="J214" s="6"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C215" s="21"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="21"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
-      <c r="I215" s="21"/>
       <c r="J215" s="6"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B216" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C216" s="21"/>
-      <c r="D216" s="21"/>
-      <c r="E216" s="21"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
-      <c r="I216" s="21"/>
       <c r="J216" s="6"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B217" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C217" s="21"/>
-      <c r="D217" s="21"/>
-      <c r="E217" s="21"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
       <c r="J217" s="6"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C218" s="21"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="21"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
-      <c r="I218" s="21"/>
       <c r="J218" s="6"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B219" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="21"/>
-      <c r="H219" s="21"/>
-      <c r="I219" s="21"/>
       <c r="J219" s="6"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B220" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C220" s="21"/>
-      <c r="D220" s="21"/>
-      <c r="E220" s="21"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="21"/>
-      <c r="H220" s="21"/>
-      <c r="I220" s="21"/>
       <c r="J220" s="6"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C221" s="21"/>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
       <c r="J221" s="6"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B222" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C222" s="21"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="21"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="21"/>
-      <c r="H222" s="21"/>
-      <c r="I222" s="21"/>
       <c r="J222" s="6"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C223" s="21"/>
-      <c r="D223" s="21"/>
-      <c r="E223" s="21"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="21"/>
-      <c r="H223" s="21"/>
-      <c r="I223" s="21"/>
       <c r="J223" s="6"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B224" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C224" s="21"/>
-      <c r="D224" s="21"/>
-      <c r="E224" s="21"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="21"/>
-      <c r="H224" s="21"/>
-      <c r="I224" s="21"/>
       <c r="J224" s="6"/>
       <c r="K224" t="s">
         <v>181</v>
@@ -8123,78 +6447,36 @@
       <c r="B225" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C225" s="21"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="21"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="21"/>
       <c r="J225" s="6"/>
     </row>
     <row r="226" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B226" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="21"/>
-      <c r="D226" s="21"/>
-      <c r="E226" s="21"/>
-      <c r="F226" s="21"/>
-      <c r="G226" s="21"/>
-      <c r="H226" s="21"/>
-      <c r="I226" s="21"/>
       <c r="J226" s="6"/>
     </row>
     <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="21"/>
-      <c r="I227" s="21"/>
       <c r="J227" s="6"/>
     </row>
     <row r="228" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B228" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
-      <c r="H228" s="21"/>
-      <c r="I228" s="21"/>
       <c r="J228" s="6"/>
     </row>
     <row r="229" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B229" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
-      <c r="H229" s="21"/>
-      <c r="I229" s="21"/>
       <c r="J229" s="6"/>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B230" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C230" s="21"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
-      <c r="I230" s="21"/>
       <c r="J230" s="6"/>
       <c r="K230" t="s">
         <v>181</v>
@@ -8207,52 +6489,24 @@
       <c r="B231" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C231" s="21"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="21"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="21"/>
       <c r="J231" s="6"/>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="21"/>
-      <c r="G232" s="21"/>
-      <c r="H232" s="21"/>
-      <c r="I232" s="21"/>
       <c r="J232" s="6"/>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="21"/>
-      <c r="H233" s="21"/>
-      <c r="I233" s="21"/>
       <c r="J233" s="6"/>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C234" s="21"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
       <c r="J234" s="6"/>
       <c r="K234" t="s">
         <v>181</v>
@@ -8265,13 +6519,6 @@
       <c r="B235" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21"/>
-      <c r="I235" s="21"/>
       <c r="J235" s="6"/>
       <c r="K235" t="s">
         <v>181</v>
@@ -8284,52 +6531,24 @@
       <c r="B236" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
-      <c r="G236" s="21"/>
-      <c r="H236" s="21"/>
-      <c r="I236" s="21"/>
       <c r="J236" s="6"/>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="21"/>
-      <c r="H237" s="21"/>
-      <c r="I237" s="21"/>
       <c r="J237" s="6"/>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
-      <c r="G238" s="21"/>
-      <c r="H238" s="21"/>
-      <c r="I238" s="21"/>
       <c r="J238" s="6"/>
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
       <c r="J239" s="6"/>
       <c r="K239" t="s">
         <v>181</v>
@@ -8342,78 +6561,36 @@
       <c r="B240" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C240" s="21"/>
-      <c r="D240" s="21"/>
-      <c r="E240" s="21"/>
-      <c r="F240" s="21"/>
-      <c r="G240" s="21"/>
-      <c r="H240" s="21"/>
-      <c r="I240" s="21"/>
       <c r="J240" s="6"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B241" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C241" s="21"/>
-      <c r="D241" s="21"/>
-      <c r="E241" s="21"/>
-      <c r="F241" s="21"/>
-      <c r="G241" s="21"/>
-      <c r="H241" s="21"/>
-      <c r="I241" s="21"/>
       <c r="J241" s="6"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C242" s="21"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="21"/>
-      <c r="F242" s="21"/>
-      <c r="G242" s="21"/>
-      <c r="H242" s="21"/>
-      <c r="I242" s="21"/>
       <c r="J242" s="6"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B243" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C243" s="21"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="21"/>
-      <c r="F243" s="21"/>
-      <c r="G243" s="21"/>
-      <c r="H243" s="21"/>
-      <c r="I243" s="21"/>
       <c r="J243" s="6"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B244" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C244" s="21"/>
-      <c r="D244" s="21"/>
-      <c r="E244" s="21"/>
-      <c r="F244" s="21"/>
-      <c r="G244" s="21"/>
-      <c r="H244" s="21"/>
-      <c r="I244" s="21"/>
       <c r="J244" s="6"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B245" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C245" s="21"/>
-      <c r="D245" s="21"/>
-      <c r="E245" s="21"/>
-      <c r="F245" s="21"/>
-      <c r="G245" s="21"/>
-      <c r="H245" s="21"/>
-      <c r="I245" s="21"/>
       <c r="J245" s="6"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8454,104 +6631,48 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
-      <c r="C251" s="21"/>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21"/>
-      <c r="F251" s="21"/>
-      <c r="G251" s="21"/>
-      <c r="H251" s="21"/>
-      <c r="I251" s="21"/>
       <c r="J251" s="6"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C252" s="21"/>
-      <c r="D252" s="21"/>
-      <c r="E252" s="21"/>
-      <c r="F252" s="21"/>
-      <c r="G252" s="21"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="21"/>
       <c r="J252" s="6"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B253" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="21"/>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21"/>
-      <c r="F253" s="21"/>
-      <c r="G253" s="21"/>
-      <c r="H253" s="21"/>
-      <c r="I253" s="21"/>
       <c r="J253" s="6"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B254" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C254" s="21"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="21"/>
-      <c r="H254" s="21"/>
-      <c r="I254" s="21"/>
       <c r="J254" s="6"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B255" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C255" s="21"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="21"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="21"/>
-      <c r="H255" s="21"/>
-      <c r="I255" s="21"/>
       <c r="J255" s="6"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B256" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C256" s="21"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="21"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="21"/>
-      <c r="H256" s="21"/>
-      <c r="I256" s="21"/>
       <c r="J256" s="6"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B257" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21"/>
-      <c r="I257" s="21"/>
       <c r="J257" s="6"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B258" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21"/>
-      <c r="F258" s="21"/>
-      <c r="G258" s="21"/>
-      <c r="H258" s="21"/>
-      <c r="I258" s="21"/>
       <c r="J258" s="6"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -8582,4 +6703,1685 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67357BF7-6643-493F-B16E-6641B4CEB2D9}">
+  <dimension ref="A2:N221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="Q213" sqref="Q213"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="G64" t="s">
+        <v>59</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
+        <v>82</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
+        <v>83</v>
+      </c>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="G90" t="s">
+        <v>85</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
+        <v>86</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
+        <v>89</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="H95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" t="s">
+        <v>91</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="G97" t="s">
+        <v>92</v>
+      </c>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
+        <v>94</v>
+      </c>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="H100" t="s">
+        <v>95</v>
+      </c>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="G101" t="s">
+        <v>96</v>
+      </c>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
+        <v>97</v>
+      </c>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
+        <v>98</v>
+      </c>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
+        <v>99</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="H105" t="s">
+        <v>100</v>
+      </c>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
+        <v>102</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
+        <v>103</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="H109" t="s">
+        <v>104</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
+        <v>106</v>
+      </c>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
+        <v>107</v>
+      </c>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="H113" t="s">
+        <v>108</v>
+      </c>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="G114" t="s">
+        <v>109</v>
+      </c>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="H115" t="s">
+        <v>110</v>
+      </c>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="I116" t="s">
+        <v>111</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="H117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="H118" t="s">
+        <v>113</v>
+      </c>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="G119" t="s">
+        <v>114</v>
+      </c>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
+        <v>115</v>
+      </c>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
+        <v>116</v>
+      </c>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
+        <v>117</v>
+      </c>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="H123" t="s">
+        <v>118</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="G124" t="s">
+        <v>119</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
+        <v>120</v>
+      </c>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
+        <v>121</v>
+      </c>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="H127" t="s">
+        <v>122</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="G128" t="s">
+        <v>123</v>
+      </c>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
+        <v>124</v>
+      </c>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
+        <v>125</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
+        <v>126</v>
+      </c>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="H132" t="s">
+        <v>127</v>
+      </c>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="G133" t="s">
+        <v>128</v>
+      </c>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
+        <v>129</v>
+      </c>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
+        <v>130</v>
+      </c>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
+        <v>131</v>
+      </c>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="H137" t="s">
+        <v>132</v>
+      </c>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="G138" t="s">
+        <v>133</v>
+      </c>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
+        <v>134</v>
+      </c>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="H140" t="s">
+        <v>135</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
+        <v>136</v>
+      </c>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="G142" t="s">
+        <v>137</v>
+      </c>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
+        <v>138</v>
+      </c>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="H144" t="s">
+        <v>139</v>
+      </c>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="G145" t="s">
+        <v>140</v>
+      </c>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
+        <v>141</v>
+      </c>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="H147" t="s">
+        <v>142</v>
+      </c>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="H148" t="s">
+        <v>143</v>
+      </c>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="G149" t="s">
+        <v>144</v>
+      </c>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
+        <v>145</v>
+      </c>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
+        <v>146</v>
+      </c>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="H152" t="s">
+        <v>147</v>
+      </c>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="G153" t="s">
+        <v>148</v>
+      </c>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
+        <v>149</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
+        <v>150</v>
+      </c>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
+        <v>151</v>
+      </c>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="H157" t="s">
+        <v>152</v>
+      </c>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="G158" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H158" s="12"/>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="H160" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L160" s="6"/>
+      <c r="M160" t="s">
+        <v>181</v>
+      </c>
+      <c r="N160" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="H161" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="F162" t="s">
+        <v>153</v>
+      </c>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="G163" t="s">
+        <v>154</v>
+      </c>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="F164" t="s">
+        <v>155</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="G165" t="s">
+        <v>156</v>
+      </c>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="G166" t="s">
+        <v>157</v>
+      </c>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="G167" t="s">
+        <v>158</v>
+      </c>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="F168" t="s">
+        <v>159</v>
+      </c>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="G169" t="s">
+        <v>160</v>
+      </c>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
+        <v>161</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
+        <v>162</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="H172" t="s">
+        <v>163</v>
+      </c>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="H173" t="s">
+        <v>164</v>
+      </c>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="G174" t="s">
+        <v>165</v>
+      </c>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
+        <v>166</v>
+      </c>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="H176" t="s">
+        <v>167</v>
+      </c>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
+        <v>168</v>
+      </c>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
+        <v>169</v>
+      </c>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="H179" t="s">
+        <v>170</v>
+      </c>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="H180" t="s">
+        <v>171</v>
+      </c>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="F181" t="s">
+        <v>172</v>
+      </c>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="G182" t="s">
+        <v>173</v>
+      </c>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="G183" t="s">
+        <v>174</v>
+      </c>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="G184" t="s">
+        <v>175</v>
+      </c>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="D185" t="s">
+        <v>176</v>
+      </c>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" t="s">
+        <v>177</v>
+      </c>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="D187" t="s">
+        <v>207</v>
+      </c>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="E188" t="s">
+        <v>178</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="E189" t="s">
+        <v>179</v>
+      </c>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="D190" t="s">
+        <v>212</v>
+      </c>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="E191" t="s">
+        <v>178</v>
+      </c>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="E192" t="s">
+        <v>179</v>
+      </c>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="8"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="6"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="6"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="6"/>
+      <c r="L203" t="s">
+        <v>181</v>
+      </c>
+      <c r="M203" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B209" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="6"/>
+      <c r="L209" t="s">
+        <v>181</v>
+      </c>
+      <c r="M209" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B210" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B211" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B212" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B217" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="10"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D1C00-356E-4CDB-B417-769DB3088929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8152A-4A90-4A4E-BE15-404A1A4B25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="316">
   <si>
     <t>構成</t>
   </si>
@@ -1047,6 +1047,21 @@
   </si>
   <si>
     <t xml:space="preserve">This is an error that we are most likely to get when we are going to make call out from our javascript code </t>
+  </si>
+  <si>
+    <t>Resolve error</t>
+  </si>
+  <si>
+    <t>3.VSF-Project</t>
+  </si>
+  <si>
+    <t>cowin-api-sample-response</t>
+  </si>
+  <si>
+    <t>db.json</t>
+  </si>
+  <si>
+    <t>backup</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1188,8 +1203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,13 +1424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1464,13 +1477,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>102961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1508,6 +1521,241 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85164</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>45555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59383C2-4AF3-B2E1-47A2-58B06C0DDC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690282" y="44131006"/>
+          <a:ext cx="11075894" cy="4492049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>51649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D8F2EC-A775-395A-A0C5-195283C81198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="49081765"/>
+          <a:ext cx="11172264" cy="5643384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>113668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6092E73F-8A34-54E4-6787-B71B41CB3430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739588" y="54964854"/>
+          <a:ext cx="11205883" cy="5537314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>53634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CF0D35-1379-D7DE-F7F8-65140431E458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="60747088"/>
+          <a:ext cx="11071412" cy="5600546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4C7899-C329-A154-B39C-FFD5FE71F266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="168088" y="42772853"/>
+          <a:ext cx="683559" cy="1255059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6707,10 +6955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67357BF7-6643-493F-B16E-6641B4CEB2D9}">
-  <dimension ref="A2:N221"/>
+  <dimension ref="A2:N235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="Q213" sqref="Q213"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P189" sqref="P189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7799,16 +8047,14 @@
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
-      <c r="G158" s="12" t="s">
+      <c r="G158" t="s">
         <v>230</v>
       </c>
-      <c r="H158" s="12"/>
       <c r="L158" s="6"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12" t="s">
+      <c r="H159" t="s">
         <v>231</v>
       </c>
       <c r="L159" s="6"/>
@@ -7828,7 +8074,7 @@
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
-      <c r="H161" s="12" t="s">
+      <c r="H161" t="s">
         <v>233</v>
       </c>
       <c r="L161" s="6"/>
@@ -8050,334 +8296,214 @@
       </c>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B193" s="8"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9"/>
-      <c r="J193" s="9"/>
-      <c r="K193" s="9"/>
-      <c r="L193" s="10"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="D193" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="E194" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+      <c r="F195" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L195" s="6"/>
+      <c r="M195" t="s">
+        <v>181</v>
+      </c>
+      <c r="N195" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B196" s="8"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="2" t="s">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B198" s="5"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="6"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="5" t="s">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="6"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="6"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="6"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B202" s="5"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="13"/>
-      <c r="H202" s="13"/>
-      <c r="I202" s="13"/>
-      <c r="J202" s="13"/>
-      <c r="K202" s="6"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B203" s="11" t="s">
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B206" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="13"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="13"/>
-      <c r="K203" s="6"/>
-      <c r="L203" t="s">
+      <c r="K206" s="6"/>
+      <c r="L206" t="s">
         <v>181</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M206" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="11" t="s">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="6"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B205" s="11" t="s">
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B208" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="6"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B207" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="6"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B208" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
       <c r="K208" s="6"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B209" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
+        <v>302</v>
+      </c>
       <c r="K209" s="6"/>
-      <c r="L209" t="s">
-        <v>181</v>
-      </c>
-      <c r="M209" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B210" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
+        <v>205</v>
+      </c>
       <c r="K210" s="6"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B211" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
+        <v>303</v>
+      </c>
       <c r="K211" s="6"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B212" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="K212" s="6"/>
+      <c r="L212" t="s">
+        <v>181</v>
+      </c>
+      <c r="M212" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B215" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="6"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B213" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="13"/>
-      <c r="K213" s="6"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="13"/>
-      <c r="K214" s="6"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B215" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="13"/>
       <c r="K215" s="6"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B216" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K218" s="6"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
-      <c r="K216" s="6"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B217" s="8" t="s">
+      <c r="K219" s="6"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B220" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="10"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="10"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E8152A-4A90-4A4E-BE15-404A1A4B25D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01905E8-348F-440A-BC13-5C33E2990C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
     <sheet name="Maps in Javascript" sheetId="2" r:id="rId2"/>
     <sheet name="CreateMarkupOfLWC-VSF project" sheetId="3" r:id="rId3"/>
     <sheet name="Making a CalloutFromLWC-VSF Pj" sheetId="4" r:id="rId4"/>
+    <sheet name="ParseAndFormatTheCalloutRespons" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="394">
   <si>
     <t>構成</t>
   </si>
@@ -1062,6 +1063,284 @@
   </si>
   <si>
     <t>backup</t>
+  </si>
+  <si>
+    <t>        const endpoint = `https://choudharymanish8585.github.io/cowin-api-sample-response/db.json`;</t>
+  </si>
+  <si>
+    <t>        this.fetchVaccineSlots(endpoint);</t>
+  </si>
+  <si>
+    <t>        const vaccineSlotRes = await fetch(endpoint);</t>
+  </si>
+  <si>
+    <t>        const slotsData = await vaccineSlotRes.json();</t>
+  </si>
+  <si>
+    <t>        this.buildColumnsAndRows(slotsData.centers);</t>
+  </si>
+  <si>
+    <t>    buildColumnsAndRows(data) {</t>
+  </si>
+  <si>
+    <t>        // build columns/dates</t>
+  </si>
+  <si>
+    <t>        const dates = new Map();</t>
+  </si>
+  <si>
+    <t>        dates.set("name", {</t>
+  </si>
+  <si>
+    <t>            label: "Center Name",</t>
+  </si>
+  <si>
+    <t>            fieldName: "name",</t>
+  </si>
+  <si>
+    <t>            type: "text"</t>
+  </si>
+  <si>
+    <t>        });</t>
+  </si>
+  <si>
+    <t>        // build rows/centers</t>
+  </si>
+  <si>
+    <t>        const centers = new Map();</t>
+  </si>
+  <si>
+    <t>        for (const center of data) {</t>
+  </si>
+  <si>
+    <t>            !centers.has(center.center_id) &amp;&amp;</t>
+  </si>
+  <si>
+    <t>                centers.set(center.center_id, { name: center.name });</t>
+  </si>
+  <si>
+    <t>            for (const session of center.sessions) {</t>
+  </si>
+  <si>
+    <t>                // destructuring syntax</t>
+  </si>
+  <si>
+    <t>                const { date, available_capacity, min_age_limit } = session;</t>
+  </si>
+  <si>
+    <t>                // add date as column in dates map</t>
+  </si>
+  <si>
+    <t>                dates.set(date, {</t>
+  </si>
+  <si>
+    <t>                    label: date,</t>
+  </si>
+  <si>
+    <t>                    fieldName: date,</t>
+  </si>
+  <si>
+    <t>                    type: "text"</t>
+  </si>
+  <si>
+    <t>                });</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        console.log(dates);</t>
+  </si>
+  <si>
+    <t>        console.log(centers);</t>
+  </si>
+  <si>
+    <t>Datatable</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/bundle/lightning:datatable/example</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    "centers": [</t>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <t>            "center_id": 578539,</t>
+  </si>
+  <si>
+    <t>            "name": "Bhabhru Phc",</t>
+  </si>
+  <si>
+    <t>            "address": "Bhabhru",</t>
+  </si>
+  <si>
+    <t>            "state_name": "Rajasthan",</t>
+  </si>
+  <si>
+    <t>            "district_name": "Jaipur I",</t>
+  </si>
+  <si>
+    <t>            "block_name": "Virat Nagar",</t>
+  </si>
+  <si>
+    <t>            "pincode": 303119,</t>
+  </si>
+  <si>
+    <t>            "lat": 70,</t>
+  </si>
+  <si>
+    <t>            "long": 70,</t>
+  </si>
+  <si>
+    <t>            "from": "09:00:00",</t>
+  </si>
+  <si>
+    <t>            "to": "17:00:00",</t>
+  </si>
+  <si>
+    <t>            "fee_type": "Free",</t>
+  </si>
+  <si>
+    <t>            "sessions": [</t>
+  </si>
+  <si>
+    <t>                {</t>
+  </si>
+  <si>
+    <t>                    "session_id": "29f6d2ec-674b-4251-98e0-0c473e3ead19",</t>
+  </si>
+  <si>
+    <t>                    "date": "22-05-2021",</t>
+  </si>
+  <si>
+    <t>                    "available_capacity": 0,</t>
+  </si>
+  <si>
+    <t>                    "min_age_limit": 45,</t>
+  </si>
+  <si>
+    <t>                    "vaccine": "COVISHIELD",</t>
+  </si>
+  <si>
+    <t>                    "slots": [</t>
+  </si>
+  <si>
+    <t>                        "09:00AM-11:00AM",</t>
+  </si>
+  <si>
+    <t>                        "11:00AM-01:00PM",</t>
+  </si>
+  <si>
+    <t>                        "01:00PM-03:00PM",</t>
+  </si>
+  <si>
+    <t>                        "03:00PM-05:00PM"</t>
+  </si>
+  <si>
+    <t>                    ],</t>
+  </si>
+  <si>
+    <t>                    "available_capacity_dose1": 10,</t>
+  </si>
+  <si>
+    <t>                    "available_capacity_dose2": 30</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            ]</t>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        …</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\Year-2021-Updates\3.VSF-Project\cowin-api-sample-response\db.json</t>
+  </si>
+  <si>
+    <t>Can see here</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>columns, it accepts an array of objects and each object should have label, fieldName and type</t>
+  </si>
+  <si>
+    <t>building the columns and our columns will be the dates. We need to build a column called name(the hospital name). Which is going to store all the hospital's name. This is the first column</t>
+  </si>
+  <si>
+    <t>with the help of Map we can detect the duplicate columns name and we can store these object as values</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/bundle/lightning:datatable/documentation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pass value for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column</t>
+    </r>
+  </si>
+  <si>
+    <t>destructure object to get date, available_capacity, min_age_limit value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value to add new value to dates map because we want all the posible dates as columns</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1190,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1203,6 +1482,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,15 +1952,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
+      <xdr:colOff>268941</xdr:colOff>
       <xdr:row>351</xdr:row>
-      <xdr:rowOff>53634</xdr:rowOff>
+      <xdr:rowOff>165693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1695,7 +1989,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="60747088"/>
+          <a:off x="694764" y="61430647"/>
           <a:ext cx="11071412" cy="5600546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,6 +2027,838 @@
         <a:xfrm flipH="1">
           <a:off x="168088" y="42772853"/>
           <a:ext cx="683559" cy="1255059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>185807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB324E9-D5D8-3B97-F6EB-AC9A9BD13A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704849" y="37823775"/>
+          <a:ext cx="11115675" cy="9225032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031836BF-A136-8DA2-CF77-BEFF56CFF684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4876800" y="43014900"/>
+          <a:ext cx="7362825" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337E7488-C056-0D22-899F-691750C5FE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4581525" y="44710350"/>
+          <a:ext cx="7620000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0914C6-4E62-EAD7-76A5-C5716836967E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1857375" y="58750200"/>
+          <a:ext cx="8934450" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BE105E-7AF6-BB26-5143-18E47D60C03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2019300" y="58854975"/>
+          <a:ext cx="10515600" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC786784-6ECB-AD00-96B2-A8DCB9B0AA3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="48320325"/>
+          <a:ext cx="666750" cy="10820400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBD9CA7-0078-1EE6-1B8F-DE0BDA92049D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="47777400"/>
+          <a:ext cx="1419225" cy="10410825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B453C45-7FA1-3499-C43F-7C6FAE250BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="48196500"/>
+          <a:ext cx="733425" cy="12468225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>87293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787F9C66-6E42-0008-1838-52C5BAE10C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="47720251"/>
+          <a:ext cx="12820650" cy="6278542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B99EEC-CB05-B4F7-F44B-2F62A2DB5F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2266950" y="43024425"/>
+          <a:ext cx="13192125" cy="15954375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687C4376-0AF2-FC63-EBDB-EC5ED78725ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="59226450"/>
+          <a:ext cx="1162050" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41944F9C-6EB8-D30A-6C6F-7C84B52CDA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="50977800"/>
+          <a:ext cx="6438900" cy="10610850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACEE65A-325D-62AD-FE28-1A131C4DD142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7696200" y="61712475"/>
+          <a:ext cx="1152525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475057</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>94704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9ACCC7-47F5-BB25-DBD3-BEA1A3991566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="65827275"/>
+          <a:ext cx="9542857" cy="4371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEEDF37-8994-4C97-31D5-B748B006DC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009650" y="63788925"/>
+          <a:ext cx="600075" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA935E5-F657-F3BA-EEB7-3DEEDACF5F6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1123950" y="63960375"/>
+          <a:ext cx="819150" cy="4124325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6955,10 +8081,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67357BF7-6643-493F-B16E-6641B4CEB2D9}">
-  <dimension ref="A2:N235"/>
+  <dimension ref="A2:N355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P189" sqref="P189"/>
+    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O356" sqref="O356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8506,8 +9632,5282 @@
         <v>311</v>
       </c>
     </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B354" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="3"/>
+      <c r="J354" s="3"/>
+      <c r="K354" s="4"/>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B355" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C355" s="9"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="9"/>
+      <c r="K355" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF4FE4-2F69-4CAB-9444-72D9ABAD5624}">
+  <dimension ref="A3:AI343"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="L341" sqref="L341"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="18"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="18"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="18"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="18"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="18"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="18"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="18"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="18"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="18"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="18"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="18"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="18"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="18"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="18"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="18"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="18"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="18"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="18"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="18"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="18"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="18"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="18"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="18"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="18"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="18"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="18"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="18"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="18"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="18"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="18"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="18"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="18"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="18"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="18"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="18"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="18"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="18"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="18"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="18"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="18"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="18"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="18"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="18"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="18"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="18"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="18"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="18"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="18"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="18"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="18"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="18"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="18"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="18"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="18"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="18"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="18"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="18"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="18"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="18"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="18"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="18"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="18"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="18"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="18"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="18"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="18"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="18"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="18"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="18"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="18"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="18"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="18"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="18"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="18"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="18"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="18"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="18"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="18"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="18"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="18"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="18"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="18"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="18"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="18"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="18"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="18"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="18"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="18"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="18"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="18"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="18"/>
+      <c r="M158" t="s">
+        <v>181</v>
+      </c>
+      <c r="N158" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="18"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="18"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="18"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="18"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="18"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="18"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="18"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="18"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="18"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="18"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="18"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="18"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="18"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="18"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="18"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="18"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="18"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="18"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="18"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="18"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="18"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="18"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="18"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+      <c r="L182" s="18"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+      <c r="L183" s="18"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="18"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="18"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="18"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="18"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="18"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="18"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="18"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
+      <c r="L191" s="18"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="18"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="18"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
+      <c r="L194" s="21"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="23"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="23"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="23"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="23"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="23"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="23"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="23"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="23"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="23"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="23"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="23"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="23"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="23"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="23"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="23"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="23"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="23"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="23"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="23"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="23"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="23"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="23"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="23"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="23"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="23"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="23"/>
+    </row>
+    <row r="225" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B225" s="23"/>
+    </row>
+    <row r="226" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B226" s="23"/>
+      <c r="U226" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="227" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B227" s="23"/>
+    </row>
+    <row r="228" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B228" s="23"/>
+    </row>
+    <row r="229" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B229" s="23"/>
+    </row>
+    <row r="230" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B230" s="23"/>
+    </row>
+    <row r="231" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B231" s="23"/>
+    </row>
+    <row r="232" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B232" s="23"/>
+    </row>
+    <row r="233" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B233" s="23"/>
+    </row>
+    <row r="234" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B234" s="23"/>
+    </row>
+    <row r="235" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B235" s="23"/>
+      <c r="U235" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="236" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B236" s="23"/>
+    </row>
+    <row r="237" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B237" s="23"/>
+    </row>
+    <row r="238" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B238" s="23"/>
+    </row>
+    <row r="239" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B239" s="23"/>
+    </row>
+    <row r="240" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B240" s="23"/>
+    </row>
+    <row r="241" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B241" s="23"/>
+    </row>
+    <row r="242" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B242" s="23"/>
+    </row>
+    <row r="243" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B243" s="23"/>
+    </row>
+    <row r="244" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B244" s="23"/>
+    </row>
+    <row r="245" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B245" s="23"/>
+    </row>
+    <row r="246" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B246" s="23"/>
+    </row>
+    <row r="247" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B247" s="23"/>
+    </row>
+    <row r="248" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B248" s="23"/>
+    </row>
+    <row r="249" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B249" s="23"/>
+    </row>
+    <row r="250" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B250" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="4"/>
+      <c r="N250" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+      <c r="Y250" s="3"/>
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+      <c r="AF250" s="3"/>
+      <c r="AG250" s="3"/>
+      <c r="AH250" s="3"/>
+      <c r="AI250" s="4"/>
+    </row>
+    <row r="251" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B251" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
+      <c r="F251" s="22"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="22"/>
+      <c r="I251" s="6"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="22"/>
+      <c r="P251" s="22"/>
+      <c r="Q251" s="22"/>
+      <c r="R251" s="22"/>
+      <c r="S251" s="22"/>
+      <c r="T251" s="22"/>
+      <c r="U251" s="22"/>
+      <c r="V251" s="22"/>
+      <c r="W251" s="22"/>
+      <c r="X251" s="22"/>
+      <c r="Y251" s="22"/>
+      <c r="Z251" s="22"/>
+      <c r="AA251" s="22"/>
+      <c r="AB251" s="22"/>
+      <c r="AC251" s="22"/>
+      <c r="AD251" s="22"/>
+      <c r="AE251" s="22"/>
+      <c r="AF251" s="22"/>
+      <c r="AG251" s="22"/>
+      <c r="AH251" s="22"/>
+      <c r="AI251" s="6"/>
+    </row>
+    <row r="252" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B252" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C252" s="22"/>
+      <c r="D252" s="22"/>
+      <c r="E252" s="22"/>
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="22"/>
+      <c r="I252" s="6"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="22"/>
+      <c r="P252" s="22"/>
+      <c r="Q252" s="22"/>
+      <c r="R252" s="22"/>
+      <c r="S252" s="22"/>
+      <c r="T252" s="22"/>
+      <c r="U252" s="22"/>
+      <c r="V252" s="22"/>
+      <c r="W252" s="22"/>
+      <c r="X252" s="22"/>
+      <c r="Y252" s="22"/>
+      <c r="Z252" s="22"/>
+      <c r="AA252" s="22"/>
+      <c r="AB252" s="22"/>
+      <c r="AC252" s="22"/>
+      <c r="AD252" s="22"/>
+      <c r="AE252" s="22"/>
+      <c r="AF252" s="22"/>
+      <c r="AG252" s="22"/>
+      <c r="AH252" s="22"/>
+      <c r="AI252" s="6"/>
+    </row>
+    <row r="253" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B253" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
+      <c r="E253" s="22"/>
+      <c r="F253" s="22"/>
+      <c r="G253" s="22"/>
+      <c r="H253" s="22"/>
+      <c r="I253" s="6"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="22"/>
+      <c r="P253" s="22"/>
+      <c r="Q253" s="22"/>
+      <c r="R253" s="22"/>
+      <c r="S253" s="22"/>
+      <c r="T253" s="22"/>
+      <c r="U253" s="22"/>
+      <c r="V253" s="22"/>
+      <c r="W253" s="22"/>
+      <c r="X253" s="22"/>
+      <c r="Y253" s="22"/>
+      <c r="Z253" s="22"/>
+      <c r="AA253" s="22"/>
+      <c r="AB253" s="22"/>
+      <c r="AC253" s="22"/>
+      <c r="AD253" s="22"/>
+      <c r="AE253" s="22"/>
+      <c r="AF253" s="22"/>
+      <c r="AG253" s="22"/>
+      <c r="AH253" s="22"/>
+      <c r="AI253" s="6"/>
+    </row>
+    <row r="254" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B254" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
+      <c r="F254" s="22"/>
+      <c r="G254" s="22"/>
+      <c r="H254" s="22"/>
+      <c r="I254" s="6"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="22"/>
+      <c r="P254" s="22"/>
+      <c r="Q254" s="22"/>
+      <c r="R254" s="22"/>
+      <c r="S254" s="22"/>
+      <c r="T254" s="22"/>
+      <c r="U254" s="22"/>
+      <c r="V254" s="22"/>
+      <c r="W254" s="22"/>
+      <c r="X254" s="22"/>
+      <c r="Y254" s="22"/>
+      <c r="Z254" s="22"/>
+      <c r="AA254" s="22"/>
+      <c r="AB254" s="22"/>
+      <c r="AC254" s="22"/>
+      <c r="AD254" s="22"/>
+      <c r="AE254" s="22"/>
+      <c r="AF254" s="22"/>
+      <c r="AG254" s="22"/>
+      <c r="AH254" s="22"/>
+      <c r="AI254" s="6"/>
+    </row>
+    <row r="255" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B255" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="22"/>
+      <c r="F255" s="22"/>
+      <c r="G255" s="22"/>
+      <c r="H255" s="22"/>
+      <c r="I255" s="6"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="22"/>
+      <c r="P255" s="22"/>
+      <c r="Q255" s="22"/>
+      <c r="R255" s="22"/>
+      <c r="S255" s="22"/>
+      <c r="T255" s="22"/>
+      <c r="U255" s="22"/>
+      <c r="V255" s="22"/>
+      <c r="W255" s="22"/>
+      <c r="X255" s="22"/>
+      <c r="Y255" s="22"/>
+      <c r="Z255" s="22"/>
+      <c r="AA255" s="22"/>
+      <c r="AB255" s="22"/>
+      <c r="AC255" s="22"/>
+      <c r="AD255" s="22"/>
+      <c r="AE255" s="22"/>
+      <c r="AF255" s="22"/>
+      <c r="AG255" s="22"/>
+      <c r="AH255" s="22"/>
+      <c r="AI255" s="6"/>
+    </row>
+    <row r="256" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B256" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
+      <c r="F256" s="22"/>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22"/>
+      <c r="I256" s="6"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="22"/>
+      <c r="P256" s="22"/>
+      <c r="Q256" s="22"/>
+      <c r="R256" s="22"/>
+      <c r="S256" s="22"/>
+      <c r="T256" s="22"/>
+      <c r="U256" s="22"/>
+      <c r="V256" s="22"/>
+      <c r="W256" s="22"/>
+      <c r="X256" s="22"/>
+      <c r="Y256" s="22"/>
+      <c r="Z256" s="22"/>
+      <c r="AA256" s="22"/>
+      <c r="AB256" s="22"/>
+      <c r="AC256" s="22"/>
+      <c r="AD256" s="22"/>
+      <c r="AE256" s="22"/>
+      <c r="AF256" s="22"/>
+      <c r="AG256" s="22"/>
+      <c r="AH256" s="22"/>
+      <c r="AI256" s="6"/>
+    </row>
+    <row r="257" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B257" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="22"/>
+      <c r="I257" s="6"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="22"/>
+      <c r="P257" s="22"/>
+      <c r="Q257" s="22"/>
+      <c r="R257" s="22"/>
+      <c r="S257" s="22"/>
+      <c r="T257" s="22"/>
+      <c r="U257" s="22"/>
+      <c r="V257" s="22"/>
+      <c r="W257" s="22"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="22"/>
+      <c r="Z257" s="22"/>
+      <c r="AA257" s="22"/>
+      <c r="AB257" s="22"/>
+      <c r="AC257" s="22"/>
+      <c r="AD257" s="22"/>
+      <c r="AE257" s="22"/>
+      <c r="AF257" s="22"/>
+      <c r="AG257" s="22"/>
+      <c r="AH257" s="22"/>
+      <c r="AI257" s="6"/>
+    </row>
+    <row r="258" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B258" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="22"/>
+      <c r="G258" s="22"/>
+      <c r="H258" s="22"/>
+      <c r="I258" s="6"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="22"/>
+      <c r="P258" s="22"/>
+      <c r="Q258" s="22"/>
+      <c r="R258" s="22"/>
+      <c r="S258" s="22"/>
+      <c r="T258" s="22"/>
+      <c r="U258" s="22"/>
+      <c r="V258" s="22"/>
+      <c r="W258" s="22"/>
+      <c r="X258" s="22"/>
+      <c r="Y258" s="22"/>
+      <c r="Z258" s="22"/>
+      <c r="AA258" s="22"/>
+      <c r="AB258" s="22"/>
+      <c r="AC258" s="22"/>
+      <c r="AD258" s="22"/>
+      <c r="AE258" s="22"/>
+      <c r="AF258" s="22"/>
+      <c r="AG258" s="22"/>
+      <c r="AH258" s="22"/>
+      <c r="AI258" s="6"/>
+    </row>
+    <row r="259" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B259" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
+      <c r="E259" s="22"/>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="22"/>
+      <c r="I259" s="6"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="22"/>
+      <c r="P259" s="22"/>
+      <c r="Q259" s="22"/>
+      <c r="R259" s="22"/>
+      <c r="S259" s="22"/>
+      <c r="T259" s="22"/>
+      <c r="U259" s="22"/>
+      <c r="V259" s="22"/>
+      <c r="W259" s="22"/>
+      <c r="X259" s="22"/>
+      <c r="Y259" s="22"/>
+      <c r="Z259" s="22"/>
+      <c r="AA259" s="22"/>
+      <c r="AB259" s="22"/>
+      <c r="AC259" s="22"/>
+      <c r="AD259" s="22"/>
+      <c r="AE259" s="22"/>
+      <c r="AF259" s="22"/>
+      <c r="AG259" s="22"/>
+      <c r="AH259" s="22"/>
+      <c r="AI259" s="6"/>
+    </row>
+    <row r="260" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B260" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
+      <c r="E260" s="22"/>
+      <c r="F260" s="22"/>
+      <c r="G260" s="22"/>
+      <c r="H260" s="22"/>
+      <c r="I260" s="6"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="22"/>
+      <c r="P260" s="22"/>
+      <c r="Q260" s="22"/>
+      <c r="R260" s="22"/>
+      <c r="S260" s="22"/>
+      <c r="T260" s="22"/>
+      <c r="U260" s="22"/>
+      <c r="V260" s="22"/>
+      <c r="W260" s="22"/>
+      <c r="X260" s="22"/>
+      <c r="Y260" s="22"/>
+      <c r="Z260" s="22"/>
+      <c r="AA260" s="22"/>
+      <c r="AB260" s="22"/>
+      <c r="AC260" s="22"/>
+      <c r="AD260" s="22"/>
+      <c r="AE260" s="22"/>
+      <c r="AF260" s="22"/>
+      <c r="AG260" s="22"/>
+      <c r="AH260" s="22"/>
+      <c r="AI260" s="6"/>
+    </row>
+    <row r="261" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B261" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="22"/>
+      <c r="I261" s="6"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="22"/>
+      <c r="P261" s="22"/>
+      <c r="Q261" s="22"/>
+      <c r="R261" s="22"/>
+      <c r="S261" s="22"/>
+      <c r="T261" s="22"/>
+      <c r="U261" s="22"/>
+      <c r="V261" s="22"/>
+      <c r="W261" s="22"/>
+      <c r="X261" s="22"/>
+      <c r="Y261" s="22"/>
+      <c r="Z261" s="22"/>
+      <c r="AA261" s="22"/>
+      <c r="AB261" s="22"/>
+      <c r="AC261" s="22"/>
+      <c r="AD261" s="22"/>
+      <c r="AE261" s="22"/>
+      <c r="AF261" s="22"/>
+      <c r="AG261" s="22"/>
+      <c r="AH261" s="22"/>
+      <c r="AI261" s="6"/>
+    </row>
+    <row r="262" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B262" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22"/>
+      <c r="F262" s="22"/>
+      <c r="G262" s="22"/>
+      <c r="H262" s="22"/>
+      <c r="I262" s="6"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="22"/>
+      <c r="P262" s="22"/>
+      <c r="Q262" s="22"/>
+      <c r="R262" s="22"/>
+      <c r="S262" s="22"/>
+      <c r="T262" s="22"/>
+      <c r="U262" s="22"/>
+      <c r="V262" s="22"/>
+      <c r="W262" s="22"/>
+      <c r="X262" s="22"/>
+      <c r="Y262" s="22"/>
+      <c r="Z262" s="22"/>
+      <c r="AA262" s="22"/>
+      <c r="AB262" s="22"/>
+      <c r="AC262" s="22"/>
+      <c r="AD262" s="22"/>
+      <c r="AE262" s="22"/>
+      <c r="AF262" s="22"/>
+      <c r="AG262" s="22"/>
+      <c r="AH262" s="22"/>
+      <c r="AI262" s="6"/>
+    </row>
+    <row r="263" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B263" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
+      <c r="I263" s="6"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="22"/>
+      <c r="P263" s="22"/>
+      <c r="Q263" s="22"/>
+      <c r="R263" s="22"/>
+      <c r="S263" s="22"/>
+      <c r="T263" s="22"/>
+      <c r="U263" s="22"/>
+      <c r="V263" s="22"/>
+      <c r="W263" s="22"/>
+      <c r="X263" s="22"/>
+      <c r="Y263" s="22"/>
+      <c r="Z263" s="22"/>
+      <c r="AA263" s="22"/>
+      <c r="AB263" s="22"/>
+      <c r="AC263" s="22"/>
+      <c r="AD263" s="22"/>
+      <c r="AE263" s="22"/>
+      <c r="AF263" s="22"/>
+      <c r="AG263" s="22"/>
+      <c r="AH263" s="22"/>
+      <c r="AI263" s="6"/>
+    </row>
+    <row r="264" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B264" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
+      <c r="F264" s="22"/>
+      <c r="G264" s="22"/>
+      <c r="H264" s="22"/>
+      <c r="I264" s="6"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="22"/>
+      <c r="P264" s="22"/>
+      <c r="Q264" s="22"/>
+      <c r="R264" s="22"/>
+      <c r="S264" s="22"/>
+      <c r="T264" s="22"/>
+      <c r="U264" s="22"/>
+      <c r="V264" s="22"/>
+      <c r="W264" s="22"/>
+      <c r="X264" s="22"/>
+      <c r="Y264" s="22"/>
+      <c r="Z264" s="22"/>
+      <c r="AA264" s="22"/>
+      <c r="AB264" s="22"/>
+      <c r="AC264" s="22"/>
+      <c r="AD264" s="22"/>
+      <c r="AE264" s="22"/>
+      <c r="AF264" s="22"/>
+      <c r="AG264" s="22"/>
+      <c r="AH264" s="22"/>
+      <c r="AI264" s="6"/>
+    </row>
+    <row r="265" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B265" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22"/>
+      <c r="F265" s="22"/>
+      <c r="G265" s="22"/>
+      <c r="H265" s="22"/>
+      <c r="I265" s="6"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="22"/>
+      <c r="P265" s="22"/>
+      <c r="Q265" s="22"/>
+      <c r="R265" s="22"/>
+      <c r="S265" s="22"/>
+      <c r="T265" s="22"/>
+      <c r="U265" s="22"/>
+      <c r="V265" s="22"/>
+      <c r="W265" s="22"/>
+      <c r="X265" s="22"/>
+      <c r="Y265" s="22"/>
+      <c r="Z265" s="22"/>
+      <c r="AA265" s="22"/>
+      <c r="AB265" s="22"/>
+      <c r="AC265" s="22"/>
+      <c r="AD265" s="22"/>
+      <c r="AE265" s="22"/>
+      <c r="AF265" s="22"/>
+      <c r="AG265" s="22"/>
+      <c r="AH265" s="22"/>
+      <c r="AI265" s="6"/>
+    </row>
+    <row r="266" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B266" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
+      <c r="E266" s="22"/>
+      <c r="F266" s="22"/>
+      <c r="G266" s="22"/>
+      <c r="H266" s="22"/>
+      <c r="I266" s="6"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="22"/>
+      <c r="P266" s="22"/>
+      <c r="Q266" s="22"/>
+      <c r="R266" s="22"/>
+      <c r="S266" s="22"/>
+      <c r="T266" s="22"/>
+      <c r="U266" s="22"/>
+      <c r="V266" s="22"/>
+      <c r="W266" s="22"/>
+      <c r="X266" s="22"/>
+      <c r="Y266" s="22"/>
+      <c r="Z266" s="22"/>
+      <c r="AA266" s="22"/>
+      <c r="AB266" s="22"/>
+      <c r="AC266" s="22"/>
+      <c r="AD266" s="22"/>
+      <c r="AE266" s="22"/>
+      <c r="AF266" s="22"/>
+      <c r="AG266" s="22"/>
+      <c r="AH266" s="22"/>
+      <c r="AI266" s="6"/>
+    </row>
+    <row r="267" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B267" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C267" s="22"/>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22"/>
+      <c r="F267" s="22"/>
+      <c r="G267" s="22"/>
+      <c r="H267" s="22"/>
+      <c r="I267" s="6"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="22"/>
+      <c r="P267" s="22"/>
+      <c r="Q267" s="22"/>
+      <c r="R267" s="22"/>
+      <c r="S267" s="22"/>
+      <c r="T267" s="22"/>
+      <c r="U267" s="22"/>
+      <c r="V267" s="22"/>
+      <c r="W267" s="22"/>
+      <c r="X267" s="22"/>
+      <c r="Y267" s="22"/>
+      <c r="Z267" s="22"/>
+      <c r="AA267" s="22"/>
+      <c r="AB267" s="22"/>
+      <c r="AC267" s="22"/>
+      <c r="AD267" s="22"/>
+      <c r="AE267" s="22"/>
+      <c r="AF267" s="22"/>
+      <c r="AG267" s="22"/>
+      <c r="AH267" s="22"/>
+      <c r="AI267" s="6"/>
+    </row>
+    <row r="268" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B268" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C268" s="22"/>
+      <c r="D268" s="22"/>
+      <c r="E268" s="22"/>
+      <c r="F268" s="22"/>
+      <c r="G268" s="22"/>
+      <c r="H268" s="22"/>
+      <c r="I268" s="6"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="22"/>
+      <c r="P268" s="22"/>
+      <c r="Q268" s="22"/>
+      <c r="R268" s="22"/>
+      <c r="S268" s="22"/>
+      <c r="T268" s="22"/>
+      <c r="U268" s="22"/>
+      <c r="V268" s="22"/>
+      <c r="W268" s="22"/>
+      <c r="X268" s="22"/>
+      <c r="Y268" s="22"/>
+      <c r="Z268" s="22"/>
+      <c r="AA268" s="22"/>
+      <c r="AB268" s="22"/>
+      <c r="AC268" s="22"/>
+      <c r="AD268" s="22"/>
+      <c r="AE268" s="22"/>
+      <c r="AF268" s="22"/>
+      <c r="AG268" s="22"/>
+      <c r="AH268" s="22"/>
+      <c r="AI268" s="6"/>
+    </row>
+    <row r="269" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B269" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
+      <c r="F269" s="22"/>
+      <c r="G269" s="22"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="6"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="22"/>
+      <c r="P269" s="22"/>
+      <c r="Q269" s="22"/>
+      <c r="R269" s="22"/>
+      <c r="S269" s="22"/>
+      <c r="T269" s="22"/>
+      <c r="U269" s="22"/>
+      <c r="V269" s="22"/>
+      <c r="W269" s="22"/>
+      <c r="X269" s="22"/>
+      <c r="Y269" s="22"/>
+      <c r="Z269" s="22"/>
+      <c r="AA269" s="22"/>
+      <c r="AB269" s="22"/>
+      <c r="AC269" s="22"/>
+      <c r="AD269" s="22"/>
+      <c r="AE269" s="22"/>
+      <c r="AF269" s="22"/>
+      <c r="AG269" s="22"/>
+      <c r="AH269" s="22"/>
+      <c r="AI269" s="6"/>
+    </row>
+    <row r="270" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B270" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="22"/>
+      <c r="G270" s="22"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="6"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="22"/>
+      <c r="P270" s="22"/>
+      <c r="Q270" s="22"/>
+      <c r="R270" s="22"/>
+      <c r="S270" s="22"/>
+      <c r="T270" s="22"/>
+      <c r="U270" s="22"/>
+      <c r="V270" s="22"/>
+      <c r="W270" s="22"/>
+      <c r="X270" s="22"/>
+      <c r="Y270" s="22"/>
+      <c r="Z270" s="22"/>
+      <c r="AA270" s="22"/>
+      <c r="AB270" s="22"/>
+      <c r="AC270" s="22"/>
+      <c r="AD270" s="22"/>
+      <c r="AE270" s="22"/>
+      <c r="AF270" s="22"/>
+      <c r="AG270" s="22"/>
+      <c r="AH270" s="22"/>
+      <c r="AI270" s="6"/>
+    </row>
+    <row r="271" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B271" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22"/>
+      <c r="F271" s="22"/>
+      <c r="G271" s="22"/>
+      <c r="H271" s="22"/>
+      <c r="I271" s="6"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="22"/>
+      <c r="P271" s="22"/>
+      <c r="Q271" s="22"/>
+      <c r="R271" s="22"/>
+      <c r="S271" s="22"/>
+      <c r="T271" s="22"/>
+      <c r="U271" s="22"/>
+      <c r="V271" s="22"/>
+      <c r="W271" s="22"/>
+      <c r="X271" s="22"/>
+      <c r="Y271" s="22"/>
+      <c r="Z271" s="22"/>
+      <c r="AA271" s="22"/>
+      <c r="AB271" s="22"/>
+      <c r="AC271" s="22"/>
+      <c r="AD271" s="22"/>
+      <c r="AE271" s="22"/>
+      <c r="AF271" s="22"/>
+      <c r="AG271" s="22"/>
+      <c r="AH271" s="22"/>
+      <c r="AI271" s="6"/>
+    </row>
+    <row r="272" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
+      <c r="F272" s="22"/>
+      <c r="G272" s="22"/>
+      <c r="H272" s="22"/>
+      <c r="I272" s="6"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="22"/>
+      <c r="P272" s="22"/>
+      <c r="Q272" s="22"/>
+      <c r="R272" s="22"/>
+      <c r="S272" s="22"/>
+      <c r="T272" s="22"/>
+      <c r="U272" s="22"/>
+      <c r="V272" s="22"/>
+      <c r="W272" s="22"/>
+      <c r="X272" s="22"/>
+      <c r="Y272" s="22"/>
+      <c r="Z272" s="22"/>
+      <c r="AA272" s="22"/>
+      <c r="AB272" s="22"/>
+      <c r="AC272" s="22"/>
+      <c r="AD272" s="22"/>
+      <c r="AE272" s="22"/>
+      <c r="AF272" s="22"/>
+      <c r="AG272" s="22"/>
+      <c r="AH272" s="22"/>
+      <c r="AI272" s="6"/>
+    </row>
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C273" s="22"/>
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
+      <c r="F273" s="22"/>
+      <c r="G273" s="22"/>
+      <c r="H273" s="22"/>
+      <c r="I273" s="6"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="22"/>
+      <c r="P273" s="22"/>
+      <c r="Q273" s="22"/>
+      <c r="R273" s="22"/>
+      <c r="S273" s="22"/>
+      <c r="T273" s="22"/>
+      <c r="U273" s="22"/>
+      <c r="V273" s="22"/>
+      <c r="W273" s="22"/>
+      <c r="X273" s="22"/>
+      <c r="Y273" s="22"/>
+      <c r="Z273" s="22"/>
+      <c r="AA273" s="22"/>
+      <c r="AB273" s="22"/>
+      <c r="AC273" s="22"/>
+      <c r="AD273" s="22"/>
+      <c r="AE273" s="22"/>
+      <c r="AF273" s="22"/>
+      <c r="AG273" s="22"/>
+      <c r="AH273" s="22"/>
+      <c r="AI273" s="6"/>
+    </row>
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
+      <c r="E274" s="22"/>
+      <c r="F274" s="22"/>
+      <c r="G274" s="22"/>
+      <c r="H274" s="22"/>
+      <c r="I274" s="6"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="22"/>
+      <c r="P274" s="22"/>
+      <c r="Q274" s="22"/>
+      <c r="R274" s="22"/>
+      <c r="S274" s="22"/>
+      <c r="T274" s="22"/>
+      <c r="U274" s="22"/>
+      <c r="V274" s="22"/>
+      <c r="W274" s="22"/>
+      <c r="X274" s="22"/>
+      <c r="Y274" s="22"/>
+      <c r="Z274" s="22"/>
+      <c r="AA274" s="22"/>
+      <c r="AB274" s="22"/>
+      <c r="AC274" s="22"/>
+      <c r="AD274" s="22"/>
+      <c r="AE274" s="22"/>
+      <c r="AF274" s="22"/>
+      <c r="AG274" s="22"/>
+      <c r="AH274" s="22"/>
+      <c r="AI274" s="6"/>
+    </row>
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B275" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
+      <c r="E275" s="22"/>
+      <c r="F275" s="22"/>
+      <c r="G275" s="22"/>
+      <c r="H275" s="22"/>
+      <c r="I275" s="6"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="22"/>
+      <c r="P275" s="22"/>
+      <c r="Q275" s="22"/>
+      <c r="R275" s="22"/>
+      <c r="S275" s="22"/>
+      <c r="T275" s="22"/>
+      <c r="U275" s="22"/>
+      <c r="V275" s="22"/>
+      <c r="W275" s="22"/>
+      <c r="X275" s="22"/>
+      <c r="Y275" s="22"/>
+      <c r="Z275" s="22"/>
+      <c r="AA275" s="22"/>
+      <c r="AB275" s="22"/>
+      <c r="AC275" s="22"/>
+      <c r="AD275" s="22"/>
+      <c r="AE275" s="22"/>
+      <c r="AF275" s="22"/>
+      <c r="AG275" s="22"/>
+      <c r="AH275" s="22"/>
+      <c r="AI275" s="6"/>
+    </row>
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C276" s="22"/>
+      <c r="D276" s="22"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="22"/>
+      <c r="G276" s="22"/>
+      <c r="H276" s="22"/>
+      <c r="I276" s="6"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="22"/>
+      <c r="P276" s="22"/>
+      <c r="Q276" s="22"/>
+      <c r="R276" s="22"/>
+      <c r="S276" s="22"/>
+      <c r="T276" s="22"/>
+      <c r="U276" s="22"/>
+      <c r="V276" s="22"/>
+      <c r="W276" s="22"/>
+      <c r="X276" s="22"/>
+      <c r="Y276" s="22"/>
+      <c r="Z276" s="22"/>
+      <c r="AA276" s="22"/>
+      <c r="AB276" s="22"/>
+      <c r="AC276" s="22"/>
+      <c r="AD276" s="22"/>
+      <c r="AE276" s="22"/>
+      <c r="AF276" s="22"/>
+      <c r="AG276" s="22"/>
+      <c r="AH276" s="22"/>
+      <c r="AI276" s="6"/>
+    </row>
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C277" s="22"/>
+      <c r="D277" s="22"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="22"/>
+      <c r="G277" s="22"/>
+      <c r="H277" s="22"/>
+      <c r="I277" s="6"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="22"/>
+      <c r="P277" s="22"/>
+      <c r="Q277" s="22"/>
+      <c r="R277" s="22"/>
+      <c r="S277" s="22"/>
+      <c r="T277" s="22"/>
+      <c r="U277" s="22"/>
+      <c r="V277" s="22"/>
+      <c r="W277" s="22"/>
+      <c r="X277" s="22"/>
+      <c r="Y277" s="22"/>
+      <c r="Z277" s="22"/>
+      <c r="AA277" s="22"/>
+      <c r="AB277" s="22"/>
+      <c r="AC277" s="22"/>
+      <c r="AD277" s="22"/>
+      <c r="AE277" s="22"/>
+      <c r="AF277" s="22"/>
+      <c r="AG277" s="22"/>
+      <c r="AH277" s="22"/>
+      <c r="AI277" s="6"/>
+    </row>
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C278" s="22"/>
+      <c r="D278" s="22"/>
+      <c r="E278" s="22"/>
+      <c r="F278" s="22"/>
+      <c r="G278" s="22"/>
+      <c r="H278" s="22"/>
+      <c r="I278" s="6"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="22"/>
+      <c r="P278" s="22"/>
+      <c r="Q278" s="22"/>
+      <c r="R278" s="22"/>
+      <c r="S278" s="22"/>
+      <c r="T278" s="22"/>
+      <c r="U278" s="22"/>
+      <c r="V278" s="22"/>
+      <c r="W278" s="22"/>
+      <c r="X278" s="22"/>
+      <c r="Y278" s="22"/>
+      <c r="Z278" s="22"/>
+      <c r="AA278" s="22"/>
+      <c r="AB278" s="22"/>
+      <c r="AC278" s="22"/>
+      <c r="AD278" s="22"/>
+      <c r="AE278" s="22"/>
+      <c r="AF278" s="22"/>
+      <c r="AG278" s="22"/>
+      <c r="AH278" s="22"/>
+      <c r="AI278" s="6"/>
+    </row>
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C279" s="22"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="22"/>
+      <c r="G279" s="22"/>
+      <c r="H279" s="22"/>
+      <c r="I279" s="6"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="22"/>
+      <c r="P279" s="22"/>
+      <c r="Q279" s="22"/>
+      <c r="R279" s="22"/>
+      <c r="S279" s="22"/>
+      <c r="T279" s="22"/>
+      <c r="U279" s="22"/>
+      <c r="V279" s="22"/>
+      <c r="W279" s="22"/>
+      <c r="X279" s="22"/>
+      <c r="Y279" s="22"/>
+      <c r="Z279" s="22"/>
+      <c r="AA279" s="22"/>
+      <c r="AB279" s="22"/>
+      <c r="AC279" s="22"/>
+      <c r="AD279" s="22"/>
+      <c r="AE279" s="22"/>
+      <c r="AF279" s="22"/>
+      <c r="AG279" s="22"/>
+      <c r="AH279" s="22"/>
+      <c r="AI279" s="6"/>
+    </row>
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="22"/>
+      <c r="G280" s="22"/>
+      <c r="H280" s="22"/>
+      <c r="I280" s="6"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="22"/>
+      <c r="P280" s="22"/>
+      <c r="Q280" s="22"/>
+      <c r="R280" s="22"/>
+      <c r="S280" s="22"/>
+      <c r="T280" s="22"/>
+      <c r="U280" s="22"/>
+      <c r="V280" s="22"/>
+      <c r="W280" s="22"/>
+      <c r="X280" s="22"/>
+      <c r="Y280" s="22"/>
+      <c r="Z280" s="22"/>
+      <c r="AA280" s="22"/>
+      <c r="AB280" s="22"/>
+      <c r="AC280" s="22"/>
+      <c r="AD280" s="22"/>
+      <c r="AE280" s="22"/>
+      <c r="AF280" s="22"/>
+      <c r="AG280" s="22"/>
+      <c r="AH280" s="22"/>
+      <c r="AI280" s="6"/>
+    </row>
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B281" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22"/>
+      <c r="F281" s="22"/>
+      <c r="G281" s="22"/>
+      <c r="H281" s="22"/>
+      <c r="I281" s="6"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="22"/>
+      <c r="P281" s="22"/>
+      <c r="Q281" s="22"/>
+      <c r="R281" s="22"/>
+      <c r="S281" s="22"/>
+      <c r="T281" s="22"/>
+      <c r="U281" s="22"/>
+      <c r="V281" s="22"/>
+      <c r="W281" s="22"/>
+      <c r="X281" s="22"/>
+      <c r="Y281" s="22"/>
+      <c r="Z281" s="22"/>
+      <c r="AA281" s="22"/>
+      <c r="AB281" s="22"/>
+      <c r="AC281" s="22"/>
+      <c r="AD281" s="22"/>
+      <c r="AE281" s="22"/>
+      <c r="AF281" s="22"/>
+      <c r="AG281" s="22"/>
+      <c r="AH281" s="22"/>
+      <c r="AI281" s="6"/>
+    </row>
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="22"/>
+      <c r="G282" s="22"/>
+      <c r="H282" s="22"/>
+      <c r="I282" s="6"/>
+      <c r="N282" s="5"/>
+      <c r="O282" s="22"/>
+      <c r="P282" s="22"/>
+      <c r="Q282" s="22"/>
+      <c r="R282" s="22"/>
+      <c r="S282" s="22"/>
+      <c r="T282" s="22"/>
+      <c r="U282" s="22"/>
+      <c r="V282" s="22"/>
+      <c r="W282" s="22"/>
+      <c r="X282" s="22"/>
+      <c r="Y282" s="22"/>
+      <c r="Z282" s="22"/>
+      <c r="AA282" s="22"/>
+      <c r="AB282" s="22"/>
+      <c r="AC282" s="22"/>
+      <c r="AD282" s="22"/>
+      <c r="AE282" s="22"/>
+      <c r="AF282" s="22"/>
+      <c r="AG282" s="22"/>
+      <c r="AH282" s="22"/>
+      <c r="AI282" s="6"/>
+    </row>
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="22"/>
+      <c r="G283" s="22"/>
+      <c r="H283" s="22"/>
+      <c r="I283" s="6"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="22"/>
+      <c r="P283" s="22"/>
+      <c r="Q283" s="22"/>
+      <c r="R283" s="22"/>
+      <c r="S283" s="22"/>
+      <c r="T283" s="22"/>
+      <c r="U283" s="22"/>
+      <c r="V283" s="22"/>
+      <c r="W283" s="22"/>
+      <c r="X283" s="22"/>
+      <c r="Y283" s="22"/>
+      <c r="Z283" s="22"/>
+      <c r="AA283" s="22"/>
+      <c r="AB283" s="22"/>
+      <c r="AC283" s="22"/>
+      <c r="AD283" s="22"/>
+      <c r="AE283" s="22"/>
+      <c r="AF283" s="22"/>
+      <c r="AG283" s="22"/>
+      <c r="AH283" s="22"/>
+      <c r="AI283" s="6"/>
+    </row>
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B284" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="H284" s="22"/>
+      <c r="I284" s="6"/>
+      <c r="N284" s="8"/>
+      <c r="O284" s="9"/>
+      <c r="P284" s="9"/>
+      <c r="Q284" s="9"/>
+      <c r="R284" s="9"/>
+      <c r="S284" s="9"/>
+      <c r="T284" s="9"/>
+      <c r="U284" s="9"/>
+      <c r="V284" s="9"/>
+      <c r="W284" s="9"/>
+      <c r="X284" s="9"/>
+      <c r="Y284" s="9"/>
+      <c r="Z284" s="9"/>
+      <c r="AA284" s="9"/>
+      <c r="AB284" s="9"/>
+      <c r="AC284" s="9"/>
+      <c r="AD284" s="9"/>
+      <c r="AE284" s="9"/>
+      <c r="AF284" s="9"/>
+      <c r="AG284" s="9"/>
+      <c r="AH284" s="9"/>
+      <c r="AI284" s="10"/>
+    </row>
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B285" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="10"/>
+    </row>
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="4"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B290" s="5"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
+      <c r="F290" s="22"/>
+      <c r="G290" s="22"/>
+      <c r="H290" s="22"/>
+      <c r="I290" s="22"/>
+      <c r="J290" s="22"/>
+      <c r="K290" s="6"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
+      <c r="E291" s="22"/>
+      <c r="F291" s="22"/>
+      <c r="G291" s="22"/>
+      <c r="H291" s="22"/>
+      <c r="I291" s="22"/>
+      <c r="J291" s="22"/>
+      <c r="K291" s="6"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B292" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
+      <c r="E292" s="22"/>
+      <c r="F292" s="22"/>
+      <c r="G292" s="22"/>
+      <c r="H292" s="22"/>
+      <c r="I292" s="22"/>
+      <c r="J292" s="22"/>
+      <c r="K292" s="6"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C293" s="22"/>
+      <c r="D293" s="22"/>
+      <c r="E293" s="22"/>
+      <c r="F293" s="22"/>
+      <c r="G293" s="22"/>
+      <c r="H293" s="22"/>
+      <c r="I293" s="22"/>
+      <c r="J293" s="22"/>
+      <c r="K293" s="6"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B294" s="5"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="22"/>
+      <c r="E294" s="22"/>
+      <c r="F294" s="22"/>
+      <c r="G294" s="22"/>
+      <c r="H294" s="22"/>
+      <c r="I294" s="22"/>
+      <c r="J294" s="22"/>
+      <c r="K294" s="6"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B295" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
+      <c r="E295" s="22"/>
+      <c r="F295" s="22"/>
+      <c r="G295" s="22"/>
+      <c r="H295" s="22"/>
+      <c r="I295" s="22"/>
+      <c r="J295" s="22"/>
+      <c r="K295" s="6"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B296" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
+      <c r="F296" s="22"/>
+      <c r="G296" s="22"/>
+      <c r="H296" s="22"/>
+      <c r="I296" s="22"/>
+      <c r="J296" s="22"/>
+      <c r="K296" s="6"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22"/>
+      <c r="F297" s="22"/>
+      <c r="G297" s="22"/>
+      <c r="H297" s="22"/>
+      <c r="I297" s="22"/>
+      <c r="J297" s="22"/>
+      <c r="K297" s="6"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B298" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="22"/>
+      <c r="I298" s="22"/>
+      <c r="J298" s="22"/>
+      <c r="K298" s="6"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B299" s="5"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22"/>
+      <c r="F299" s="22"/>
+      <c r="G299" s="22"/>
+      <c r="H299" s="22"/>
+      <c r="I299" s="22"/>
+      <c r="J299" s="22"/>
+      <c r="K299" s="6"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B300" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="22"/>
+      <c r="J300" s="22"/>
+      <c r="K300" s="6"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="22"/>
+      <c r="G301" s="22"/>
+      <c r="H301" s="22"/>
+      <c r="I301" s="22"/>
+      <c r="J301" s="22"/>
+      <c r="K301" s="6"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B302" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22"/>
+      <c r="F302" s="22"/>
+      <c r="G302" s="22"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="22"/>
+      <c r="J302" s="22"/>
+      <c r="K302" s="6"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B303" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C303" s="22"/>
+      <c r="D303" s="22"/>
+      <c r="E303" s="22"/>
+      <c r="F303" s="22"/>
+      <c r="G303" s="22"/>
+      <c r="H303" s="22"/>
+      <c r="I303" s="22"/>
+      <c r="J303" s="22"/>
+      <c r="K303" s="6"/>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B304" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22"/>
+      <c r="F304" s="22"/>
+      <c r="G304" s="22"/>
+      <c r="H304" s="22"/>
+      <c r="I304" s="22"/>
+      <c r="J304" s="22"/>
+      <c r="K304" s="6"/>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B305" s="5"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
+      <c r="E305" s="22"/>
+      <c r="F305" s="22"/>
+      <c r="G305" s="22"/>
+      <c r="H305" s="22"/>
+      <c r="I305" s="22"/>
+      <c r="J305" s="22"/>
+      <c r="K305" s="6"/>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B306" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="22"/>
+      <c r="F306" s="22"/>
+      <c r="G306" s="22"/>
+      <c r="H306" s="22"/>
+      <c r="I306" s="22"/>
+      <c r="J306" s="22"/>
+      <c r="K306" s="6"/>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B307" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
+      <c r="E307" s="22"/>
+      <c r="F307" s="22"/>
+      <c r="G307" s="22"/>
+      <c r="H307" s="22"/>
+      <c r="I307" s="22"/>
+      <c r="J307" s="22"/>
+      <c r="K307" s="6"/>
+    </row>
+    <row r="308" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B308" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
+      <c r="E308" s="22"/>
+      <c r="F308" s="22"/>
+      <c r="G308" s="22"/>
+      <c r="H308" s="22"/>
+      <c r="I308" s="22"/>
+      <c r="J308" s="22"/>
+      <c r="K308" s="6"/>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B309" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
+      <c r="E309" s="22"/>
+      <c r="F309" s="22"/>
+      <c r="G309" s="22"/>
+      <c r="H309" s="22"/>
+      <c r="I309" s="22"/>
+      <c r="J309" s="22"/>
+      <c r="K309" s="6"/>
+      <c r="L309" t="s">
+        <v>181</v>
+      </c>
+      <c r="M309" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B310" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="22"/>
+      <c r="I310" s="22"/>
+      <c r="J310" s="22"/>
+      <c r="K310" s="6"/>
+      <c r="M310" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B311" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
+      <c r="E311" s="22"/>
+      <c r="F311" s="22"/>
+      <c r="G311" s="22"/>
+      <c r="H311" s="22"/>
+      <c r="I311" s="22"/>
+      <c r="J311" s="22"/>
+      <c r="K311" s="6"/>
+    </row>
+    <row r="312" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B312" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C312" s="22"/>
+      <c r="D312" s="22"/>
+      <c r="E312" s="22"/>
+      <c r="F312" s="22"/>
+      <c r="G312" s="22"/>
+      <c r="H312" s="22"/>
+      <c r="I312" s="22"/>
+      <c r="J312" s="22"/>
+      <c r="K312" s="6"/>
+    </row>
+    <row r="313" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B313" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C313" s="22"/>
+      <c r="D313" s="22"/>
+      <c r="E313" s="22"/>
+      <c r="F313" s="22"/>
+      <c r="G313" s="22"/>
+      <c r="H313" s="22"/>
+      <c r="I313" s="22"/>
+      <c r="J313" s="22"/>
+      <c r="K313" s="6"/>
+    </row>
+    <row r="314" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B314" s="11"/>
+      <c r="C314" s="22"/>
+      <c r="D314" s="22"/>
+      <c r="E314" s="22"/>
+      <c r="F314" s="22"/>
+      <c r="G314" s="22"/>
+      <c r="H314" s="22"/>
+      <c r="I314" s="22"/>
+      <c r="J314" s="22"/>
+      <c r="K314" s="6"/>
+    </row>
+    <row r="315" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B315" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C315" s="22"/>
+      <c r="D315" s="22"/>
+      <c r="E315" s="22"/>
+      <c r="F315" s="22"/>
+      <c r="G315" s="22"/>
+      <c r="H315" s="22"/>
+      <c r="I315" s="22"/>
+      <c r="J315" s="22"/>
+      <c r="K315" s="6"/>
+    </row>
+    <row r="316" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B316" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C316" s="22"/>
+      <c r="D316" s="22"/>
+      <c r="E316" s="22"/>
+      <c r="F316" s="22"/>
+      <c r="G316" s="22"/>
+      <c r="H316" s="22"/>
+      <c r="I316" s="22"/>
+      <c r="J316" s="22"/>
+      <c r="K316" s="6"/>
+    </row>
+    <row r="317" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B317" s="11"/>
+      <c r="C317" s="22"/>
+      <c r="D317" s="22"/>
+      <c r="E317" s="22"/>
+      <c r="F317" s="22"/>
+      <c r="G317" s="22"/>
+      <c r="H317" s="22"/>
+      <c r="I317" s="22"/>
+      <c r="J317" s="22"/>
+      <c r="K317" s="6"/>
+    </row>
+    <row r="318" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B318" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C318" s="22"/>
+      <c r="D318" s="22"/>
+      <c r="E318" s="22"/>
+      <c r="F318" s="22"/>
+      <c r="G318" s="22"/>
+      <c r="H318" s="22"/>
+      <c r="I318" s="22"/>
+      <c r="J318" s="22"/>
+      <c r="K318" s="6"/>
+    </row>
+    <row r="319" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B319" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C319" s="22"/>
+      <c r="D319" s="22"/>
+      <c r="E319" s="22"/>
+      <c r="F319" s="22"/>
+      <c r="G319" s="22"/>
+      <c r="H319" s="22"/>
+      <c r="I319" s="22"/>
+      <c r="J319" s="22"/>
+      <c r="K319" s="6"/>
+    </row>
+    <row r="320" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B320" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C320" s="22"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="22"/>
+      <c r="I320" s="22"/>
+      <c r="J320" s="22"/>
+      <c r="K320" s="6"/>
+      <c r="L320" t="s">
+        <v>181</v>
+      </c>
+      <c r="M320" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B321" s="11"/>
+      <c r="C321" s="22"/>
+      <c r="D321" s="22"/>
+      <c r="E321" s="22"/>
+      <c r="F321" s="22"/>
+      <c r="G321" s="22"/>
+      <c r="H321" s="22"/>
+      <c r="I321" s="22"/>
+      <c r="J321" s="22"/>
+      <c r="K321" s="6"/>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B322" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C322" s="22"/>
+      <c r="D322" s="22"/>
+      <c r="E322" s="22"/>
+      <c r="F322" s="22"/>
+      <c r="G322" s="22"/>
+      <c r="H322" s="22"/>
+      <c r="I322" s="22"/>
+      <c r="J322" s="22"/>
+      <c r="K322" s="6"/>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B323" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C323" s="22"/>
+      <c r="D323" s="22"/>
+      <c r="E323" s="22"/>
+      <c r="F323" s="22"/>
+      <c r="G323" s="22"/>
+      <c r="H323" s="22"/>
+      <c r="I323" s="22"/>
+      <c r="J323" s="22"/>
+      <c r="K323" s="6"/>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B324" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C324" s="22"/>
+      <c r="D324" s="22"/>
+      <c r="E324" s="22"/>
+      <c r="F324" s="22"/>
+      <c r="G324" s="22"/>
+      <c r="H324" s="22"/>
+      <c r="I324" s="22"/>
+      <c r="J324" s="22"/>
+      <c r="K324" s="6"/>
+      <c r="L324" t="s">
+        <v>181</v>
+      </c>
+      <c r="M324" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B325" s="11"/>
+      <c r="C325" s="22"/>
+      <c r="D325" s="22"/>
+      <c r="E325" s="22"/>
+      <c r="F325" s="22"/>
+      <c r="G325" s="22"/>
+      <c r="H325" s="22"/>
+      <c r="I325" s="22"/>
+      <c r="J325" s="22"/>
+      <c r="K325" s="6"/>
+    </row>
+    <row r="326" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B326" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C326" s="22"/>
+      <c r="D326" s="22"/>
+      <c r="E326" s="22"/>
+      <c r="F326" s="22"/>
+      <c r="G326" s="22"/>
+      <c r="H326" s="22"/>
+      <c r="I326" s="22"/>
+      <c r="J326" s="22"/>
+      <c r="K326" s="6"/>
+    </row>
+    <row r="327" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B327" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C327" s="22"/>
+      <c r="D327" s="22"/>
+      <c r="E327" s="22"/>
+      <c r="F327" s="22"/>
+      <c r="G327" s="22"/>
+      <c r="H327" s="22"/>
+      <c r="I327" s="22"/>
+      <c r="J327" s="22"/>
+      <c r="K327" s="6"/>
+      <c r="L327" t="s">
+        <v>181</v>
+      </c>
+      <c r="M327" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="328" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B328" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C328" s="22"/>
+      <c r="D328" s="22"/>
+      <c r="E328" s="22"/>
+      <c r="F328" s="22"/>
+      <c r="G328" s="22"/>
+      <c r="H328" s="22"/>
+      <c r="I328" s="22"/>
+      <c r="J328" s="22"/>
+      <c r="K328" s="6"/>
+    </row>
+    <row r="329" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B329" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C329" s="22"/>
+      <c r="D329" s="22"/>
+      <c r="E329" s="22"/>
+      <c r="F329" s="22"/>
+      <c r="G329" s="22"/>
+      <c r="H329" s="22"/>
+      <c r="I329" s="22"/>
+      <c r="J329" s="22"/>
+      <c r="K329" s="6"/>
+    </row>
+    <row r="330" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B330" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C330" s="22"/>
+      <c r="D330" s="22"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="22"/>
+      <c r="I330" s="22"/>
+      <c r="J330" s="22"/>
+      <c r="K330" s="6"/>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B331" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C331" s="22"/>
+      <c r="D331" s="22"/>
+      <c r="E331" s="22"/>
+      <c r="F331" s="22"/>
+      <c r="G331" s="22"/>
+      <c r="H331" s="22"/>
+      <c r="I331" s="22"/>
+      <c r="J331" s="22"/>
+      <c r="K331" s="6"/>
+    </row>
+    <row r="332" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B332" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C332" s="22"/>
+      <c r="D332" s="22"/>
+      <c r="E332" s="22"/>
+      <c r="F332" s="22"/>
+      <c r="G332" s="22"/>
+      <c r="H332" s="22"/>
+      <c r="I332" s="22"/>
+      <c r="J332" s="22"/>
+      <c r="K332" s="6"/>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B333" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C333" s="22"/>
+      <c r="D333" s="22"/>
+      <c r="E333" s="22"/>
+      <c r="F333" s="22"/>
+      <c r="G333" s="22"/>
+      <c r="H333" s="22"/>
+      <c r="I333" s="22"/>
+      <c r="J333" s="22"/>
+      <c r="K333" s="6"/>
+    </row>
+    <row r="334" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B334" s="11"/>
+      <c r="C334" s="22"/>
+      <c r="D334" s="22"/>
+      <c r="E334" s="22"/>
+      <c r="F334" s="22"/>
+      <c r="G334" s="22"/>
+      <c r="H334" s="22"/>
+      <c r="I334" s="22"/>
+      <c r="J334" s="22"/>
+      <c r="K334" s="6"/>
+    </row>
+    <row r="335" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B335" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C335" s="22"/>
+      <c r="D335" s="22"/>
+      <c r="E335" s="22"/>
+      <c r="F335" s="22"/>
+      <c r="G335" s="22"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="22"/>
+      <c r="J335" s="22"/>
+      <c r="K335" s="6"/>
+    </row>
+    <row r="336" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B336" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C336" s="22"/>
+      <c r="D336" s="22"/>
+      <c r="E336" s="22"/>
+      <c r="F336" s="22"/>
+      <c r="G336" s="22"/>
+      <c r="H336" s="22"/>
+      <c r="I336" s="22"/>
+      <c r="J336" s="22"/>
+      <c r="K336" s="6"/>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B337" s="11"/>
+      <c r="C337" s="22"/>
+      <c r="D337" s="22"/>
+      <c r="E337" s="22"/>
+      <c r="F337" s="22"/>
+      <c r="G337" s="22"/>
+      <c r="H337" s="22"/>
+      <c r="I337" s="22"/>
+      <c r="J337" s="22"/>
+      <c r="K337" s="6"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B338" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C338" s="22"/>
+      <c r="D338" s="22"/>
+      <c r="E338" s="22"/>
+      <c r="F338" s="22"/>
+      <c r="G338" s="22"/>
+      <c r="H338" s="22"/>
+      <c r="I338" s="22"/>
+      <c r="J338" s="22"/>
+      <c r="K338" s="6"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B339" s="5"/>
+      <c r="C339" s="22"/>
+      <c r="D339" s="22"/>
+      <c r="E339" s="22"/>
+      <c r="F339" s="22"/>
+      <c r="G339" s="22"/>
+      <c r="H339" s="22"/>
+      <c r="I339" s="22"/>
+      <c r="J339" s="22"/>
+      <c r="K339" s="6"/>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B340" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C340" s="22"/>
+      <c r="D340" s="22"/>
+      <c r="E340" s="22"/>
+      <c r="F340" s="22"/>
+      <c r="G340" s="22"/>
+      <c r="H340" s="22"/>
+      <c r="I340" s="22"/>
+      <c r="J340" s="22"/>
+      <c r="K340" s="6"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B341" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C341" s="22"/>
+      <c r="D341" s="22"/>
+      <c r="E341" s="22"/>
+      <c r="F341" s="22"/>
+      <c r="G341" s="22"/>
+      <c r="H341" s="22"/>
+      <c r="I341" s="22"/>
+      <c r="J341" s="22"/>
+      <c r="K341" s="6"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B342" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C342" s="22"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
+      <c r="H342" s="22"/>
+      <c r="I342" s="22"/>
+      <c r="J342" s="22"/>
+      <c r="K342" s="6"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B343" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C343" s="9"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="9"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="9"/>
+      <c r="K343" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01905E8-348F-440A-BC13-5C33E2990C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40A19BC-0F5C-47F2-B054-988F797C4D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CreateMarkupOfLWC-VSF project" sheetId="3" r:id="rId3"/>
     <sheet name="Making a CalloutFromLWC-VSF Pj" sheetId="4" r:id="rId4"/>
     <sheet name="ParseAndFormatTheCalloutRespons" sheetId="5" r:id="rId5"/>
+    <sheet name="FinishFormattingtheCalloutRespo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="408">
   <si>
     <t>構成</t>
   </si>
@@ -1341,6 +1342,136 @@
       </rPr>
       <t xml:space="preserve"> value to add new value to dates map because we want all the posible dates as columns</t>
     </r>
+  </si>
+  <si>
+    <t>Finish Formatting the Callout Response - VSF Project</t>
+  </si>
+  <si>
+    <t>                // add column value for the row</t>
+  </si>
+  <si>
+    <t>                centers.get(center.center_id)[</t>
+  </si>
+  <si>
+    <t>                    date</t>
+  </si>
+  <si>
+    <t>                ] = `Available Capacity: ${available_capacity}</t>
+  </si>
+  <si>
+    <t>                Min Age: ${min_age_limit}`;</t>
+  </si>
+  <si>
+    <t>        this.dates = Array.from(dates.values());</t>
+  </si>
+  <si>
+    <t>        this.centers = Array.from(centers.values());</t>
+  </si>
+  <si>
+    <t>        return this.centers.length &gt; 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding the date as a column </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property</t>
+    </r>
+  </si>
+  <si>
+    <t>add date property to this object</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property. We use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to define or access object property, although we can use the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operater but we need the variable name so we use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> []</t>
+    </r>
+  </si>
+  <si>
+    <t>check exist to avoid overwriting, if centers repeats value we do not want to override</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1482,17 +1613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -2887,6 +3007,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>54444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AA8933-F271-BC4F-8086-08FF6F55A8A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="49796700"/>
+          <a:ext cx="10515599" cy="9122244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8083,7 +8257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67357BF7-6643-493F-B16E-6641B4CEB2D9}">
   <dimension ref="A2:N355"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O356" sqref="O356"/>
     </sheetView>
   </sheetViews>
@@ -9633,7 +9807,7 @@
       </c>
     </row>
     <row r="354" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B354" s="26" t="s">
+      <c r="B354" s="15" t="s">
         <v>385</v>
       </c>
       <c r="C354" s="3"/>
@@ -9670,2507 +9844,1109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF4FE4-2F69-4CAB-9444-72D9ABAD5624}">
   <dimension ref="A3:AI343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="L341" sqref="L341"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="M333" sqref="M333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="18"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="18"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="18"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="5"/>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="B10" s="5"/>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="B11" s="5"/>
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="B12" s="5"/>
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="18"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="18"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="18"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="s">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13" t="s">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13" t="s">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13" t="s">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="F32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="G33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13" t="s">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="H34" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13" t="s">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="H35" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13" t="s">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13" t="s">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13" t="s">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="G42" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="H44" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13" t="s">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="G46" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13" t="s">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13" t="s">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="H48" t="s">
         <v>45</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13" t="s">
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13" t="s">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="G50" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13" t="s">
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="H51" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="H52" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13" t="s">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="G53" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13" t="s">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
         <v>51</v>
       </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13" t="s">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="H55" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="s">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="G56" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13" t="s">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
         <v>54</v>
       </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="s">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
         <v>55</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13" t="s">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
         <v>56</v>
       </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13" t="s">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13" t="s">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13" t="s">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="G62" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13" t="s">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13" t="s">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
         <v>61</v>
       </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13" t="s">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13" t="s">
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="G66" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13" t="s">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
         <v>64</v>
       </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13" t="s">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="H68" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13" t="s">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
         <v>66</v>
       </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13" t="s">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="G70" t="s">
         <v>67</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13" t="s">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13" t="s">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="18"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13" t="s">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="G73" t="s">
         <v>70</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="18"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13" t="s">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
         <v>71</v>
       </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13" t="s">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="H75" t="s">
         <v>72</v>
       </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13" t="s">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="G76" t="s">
         <v>73</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="18"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13" t="s">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
         <v>74</v>
       </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="18"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="H78" t="s">
         <v>75</v>
       </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13" t="s">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
         <v>76</v>
       </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13" t="s">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="G80" t="s">
         <v>77</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="18"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13" t="s">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="18"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13" t="s">
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="H82" t="s">
         <v>79</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="18"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13" t="s">
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
         <v>80</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="18"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13" t="s">
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="G84" t="s">
         <v>81</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13" t="s">
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
         <v>82</v>
       </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="18"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13" t="s">
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="H86" t="s">
         <v>83</v>
       </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="18"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
         <v>84</v>
       </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="18"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13" t="s">
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="G88" t="s">
         <v>85</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="18"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13" t="s">
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="H89" t="s">
         <v>86</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="18"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13" t="s">
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="H90" t="s">
         <v>87</v>
       </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13" t="s">
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="G91" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="18"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13" t="s">
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
         <v>89</v>
       </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="18"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13" t="s">
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="H93" t="s">
         <v>90</v>
       </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="18"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13" t="s">
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
         <v>91</v>
       </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="18"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13" t="s">
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="G95" t="s">
         <v>92</v>
       </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="18"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13" t="s">
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" t="s">
         <v>93</v>
       </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="18"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13" t="s">
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="H97" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="18"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13" t="s">
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
         <v>95</v>
       </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="18"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13" t="s">
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="G99" t="s">
         <v>96</v>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="18"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13" t="s">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="H100" t="s">
         <v>97</v>
       </c>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="18"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13" t="s">
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="H101" t="s">
         <v>98</v>
       </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="18"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13" t="s">
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
         <v>99</v>
       </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13" t="s">
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
         <v>100</v>
       </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13" t="s">
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="G104" t="s">
         <v>101</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="18"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13" t="s">
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="H105" t="s">
         <v>102</v>
       </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="18"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13" t="s">
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="H106" t="s">
         <v>103</v>
       </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="18"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13" t="s">
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
         <v>104</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="18"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13" t="s">
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="G108" t="s">
         <v>105</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="18"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13" t="s">
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="H109" t="s">
         <v>106</v>
       </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="18"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13" t="s">
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="H110" t="s">
         <v>107</v>
       </c>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="18"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13" t="s">
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
         <v>108</v>
       </c>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="18"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13" t="s">
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="G112" t="s">
         <v>109</v>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="18"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13" t="s">
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="H113" t="s">
         <v>110</v>
       </c>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="18"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13" t="s">
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="I114" t="s">
         <v>111</v>
       </c>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="18"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13" t="s">
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="H115" t="s">
         <v>112</v>
       </c>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="18"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13" t="s">
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="H116" t="s">
         <v>113</v>
       </c>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="18"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13" t="s">
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="G117" t="s">
         <v>114</v>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="18"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13" t="s">
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="H118" t="s">
         <v>115</v>
       </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="18"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13" t="s">
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="H119" t="s">
         <v>116</v>
       </c>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="18"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13" t="s">
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
         <v>117</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="18"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13" t="s">
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
         <v>118</v>
       </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="18"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13" t="s">
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="G122" t="s">
         <v>119</v>
       </c>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="18"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13" t="s">
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="H123" t="s">
         <v>120</v>
       </c>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="18"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13" t="s">
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="H124" t="s">
         <v>121</v>
       </c>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="18"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13" t="s">
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
         <v>122</v>
       </c>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="18"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13" t="s">
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="G126" t="s">
         <v>123</v>
       </c>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="18"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13" t="s">
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="H127" t="s">
         <v>124</v>
       </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="18"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13" t="s">
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="H128" t="s">
         <v>125</v>
       </c>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="18"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13" t="s">
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
         <v>126</v>
       </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="18"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13" t="s">
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
         <v>127</v>
       </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="18"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13" t="s">
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="G131" t="s">
         <v>128</v>
       </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="18"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13" t="s">
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="H132" t="s">
         <v>129</v>
       </c>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="18"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13" t="s">
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="H133" t="s">
         <v>130</v>
       </c>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="18"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13" t="s">
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
         <v>131</v>
       </c>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="18"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13" t="s">
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
         <v>132</v>
       </c>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="18"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13" t="s">
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="G136" t="s">
         <v>133</v>
       </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="18"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13" t="s">
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="H137" t="s">
         <v>134</v>
       </c>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="18"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13" t="s">
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="H138" t="s">
         <v>135</v>
       </c>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="18"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13" t="s">
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="G139" t="s">
         <v>136</v>
       </c>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
-      <c r="K139" s="13"/>
-      <c r="L139" s="18"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13" t="s">
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="G140" t="s">
         <v>137</v>
       </c>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="18"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13" t="s">
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="H141" t="s">
         <v>138</v>
       </c>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
-      <c r="L141" s="18"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13" t="s">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="H142" t="s">
         <v>139</v>
       </c>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="18"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13" t="s">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="G143" t="s">
         <v>140</v>
       </c>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="18"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13" t="s">
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="H144" t="s">
         <v>141</v>
       </c>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
-      <c r="L144" s="18"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13" t="s">
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="H145" t="s">
         <v>142</v>
       </c>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="18"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13" t="s">
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
         <v>143</v>
       </c>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="18"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13" t="s">
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="G147" t="s">
         <v>144</v>
       </c>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="18"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13" t="s">
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="H148" t="s">
         <v>145</v>
       </c>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="18"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13" t="s">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="H149" t="s">
         <v>146</v>
       </c>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="18"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13" t="s">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
         <v>147</v>
       </c>
-      <c r="I150" s="13"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="13"/>
-      <c r="L150" s="18"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13" t="s">
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="G151" t="s">
         <v>148</v>
       </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="13"/>
-      <c r="L151" s="18"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13" t="s">
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="H152" t="s">
         <v>149</v>
       </c>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="18"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13" t="s">
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="H153" t="s">
         <v>150</v>
       </c>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="18"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13" t="s">
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
         <v>151</v>
       </c>
-      <c r="I154" s="13"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="18"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13" t="s">
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
         <v>152</v>
       </c>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="18"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13" t="s">
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="G156" t="s">
         <v>230</v>
       </c>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="18"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13" t="s">
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="H157" t="s">
         <v>231</v>
       </c>
-      <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="18"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
       <c r="H158" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I158" s="13"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="18"/>
+      <c r="L158" s="6"/>
       <c r="M158" t="s">
         <v>181</v>
       </c>
@@ -12178,579 +10954,263 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13" t="s">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="H159" t="s">
         <v>233</v>
       </c>
-      <c r="I159" s="13"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="18"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13" t="s">
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="F160" t="s">
         <v>153</v>
       </c>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="18"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13" t="s">
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="G161" t="s">
         <v>154</v>
       </c>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="13"/>
-      <c r="L161" s="18"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13" t="s">
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="F162" t="s">
         <v>155</v>
       </c>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="18"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13" t="s">
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="G163" t="s">
         <v>156</v>
       </c>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="18"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13" t="s">
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="G164" t="s">
         <v>157</v>
       </c>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="18"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13" t="s">
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="G165" t="s">
         <v>158</v>
       </c>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="18"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13" t="s">
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="F166" t="s">
         <v>159</v>
       </c>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="13"/>
-      <c r="K166" s="13"/>
-      <c r="L166" s="18"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13" t="s">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="G167" t="s">
         <v>160</v>
       </c>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="13"/>
-      <c r="L167" s="18"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13" t="s">
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="H168" t="s">
         <v>161</v>
       </c>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="18"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13" t="s">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="H169" t="s">
         <v>162</v>
       </c>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
-      <c r="L169" s="18"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13" t="s">
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
         <v>163</v>
       </c>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="18"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13" t="s">
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
         <v>164</v>
       </c>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="18"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13" t="s">
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="G172" t="s">
         <v>165</v>
       </c>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="13"/>
-      <c r="K172" s="13"/>
-      <c r="L172" s="18"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13" t="s">
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="H173" t="s">
         <v>166</v>
       </c>
-      <c r="I173" s="13"/>
-      <c r="J173" s="13"/>
-      <c r="K173" s="13"/>
-      <c r="L173" s="18"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13" t="s">
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="H174" t="s">
         <v>167</v>
       </c>
-      <c r="I174" s="13"/>
-      <c r="J174" s="13"/>
-      <c r="K174" s="13"/>
-      <c r="L174" s="18"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13" t="s">
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
         <v>168</v>
       </c>
-      <c r="I175" s="13"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="13"/>
-      <c r="L175" s="18"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="13" t="s">
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="H176" t="s">
         <v>169</v>
       </c>
-      <c r="I176" s="13"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="13"/>
-      <c r="L176" s="18"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13" t="s">
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
         <v>170</v>
       </c>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="13"/>
-      <c r="L177" s="18"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13" t="s">
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
         <v>171</v>
       </c>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="18"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13" t="s">
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="F179" t="s">
         <v>172</v>
       </c>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="13"/>
-      <c r="L179" s="18"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13" t="s">
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="G180" t="s">
         <v>173</v>
       </c>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="13"/>
-      <c r="L180" s="18"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13" t="s">
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="G181" t="s">
         <v>174</v>
       </c>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="13"/>
-      <c r="K181" s="13"/>
-      <c r="L181" s="18"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13" t="s">
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="G182" t="s">
         <v>175</v>
       </c>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="13"/>
-      <c r="K182" s="13"/>
-      <c r="L182" s="18"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13" t="s">
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="D183" t="s">
         <v>176</v>
       </c>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="13"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="13"/>
-      <c r="L183" s="18"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="13" t="s">
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" t="s">
         <v>177</v>
       </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="13"/>
-      <c r="L184" s="18"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13" t="s">
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="D185" t="s">
         <v>207</v>
       </c>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="13"/>
-      <c r="L185" s="18"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13" t="s">
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="E186" t="s">
         <v>178</v>
       </c>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="13"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="13"/>
-      <c r="K186" s="13"/>
-      <c r="L186" s="18"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13" t="s">
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="E187" t="s">
         <v>179</v>
       </c>
-      <c r="F187" s="13"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="18"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13" t="s">
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="D188" t="s">
         <v>212</v>
       </c>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="18"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13" t="s">
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="E189" t="s">
         <v>178</v>
       </c>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="13"/>
-      <c r="K189" s="13"/>
-      <c r="L189" s="18"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13" t="s">
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="E190" t="s">
         <v>179</v>
       </c>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="13"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="13"/>
-      <c r="K190" s="13"/>
-      <c r="L190" s="18"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13" t="s">
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="D191" t="s">
         <v>312</v>
       </c>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="13"/>
-      <c r="K191" s="13"/>
-      <c r="L191" s="18"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13" t="s">
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="E192" t="s">
         <v>313</v>
       </c>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="13"/>
-      <c r="L192" s="18"/>
+      <c r="L192" s="6"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13" t="s">
+      <c r="B193" s="5"/>
+      <c r="F193" t="s">
         <v>314</v>
       </c>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
-      <c r="L193" s="18"/>
+      <c r="L193" s="6"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
-      <c r="L194" s="21"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="10"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -12758,171 +11218,171 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="12" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B199" s="23"/>
+      <c r="B199" s="12"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B200" s="23"/>
+      <c r="B200" s="12"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B201" s="23"/>
+      <c r="B201" s="12"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B202" s="23"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B203" s="23"/>
+      <c r="B203" s="12"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B204" s="23"/>
+      <c r="B204" s="12"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B205" s="23"/>
+      <c r="B205" s="12"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B206" s="23"/>
+      <c r="B206" s="12"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B207" s="23"/>
+      <c r="B207" s="12"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B208" s="23"/>
+      <c r="B208" s="12"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="23"/>
+      <c r="B209" s="12"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="23"/>
+      <c r="B210" s="12"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="23"/>
+      <c r="B211" s="12"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="23"/>
+      <c r="B212" s="12"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="23"/>
+      <c r="B213" s="12"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="23"/>
+      <c r="B214" s="12"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="23"/>
+      <c r="B215" s="12"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="23"/>
+      <c r="B216" s="12"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="23"/>
+      <c r="B217" s="12"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="23"/>
+      <c r="B218" s="12"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="23"/>
+      <c r="B219" s="12"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="23"/>
+      <c r="B220" s="12"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="23"/>
+      <c r="B221" s="12"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="23"/>
+      <c r="B222" s="12"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="23"/>
+      <c r="B223" s="12"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="23"/>
+      <c r="B224" s="12"/>
     </row>
     <row r="225" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B225" s="23"/>
+      <c r="B225" s="12"/>
     </row>
     <row r="226" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B226" s="23"/>
+      <c r="B226" s="12"/>
       <c r="U226" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="227" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B227" s="23"/>
+      <c r="B227" s="12"/>
     </row>
     <row r="228" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B228" s="23"/>
+      <c r="B228" s="12"/>
     </row>
     <row r="229" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B229" s="23"/>
+      <c r="B229" s="12"/>
     </row>
     <row r="230" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B230" s="23"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B231" s="23"/>
+      <c r="B231" s="12"/>
     </row>
     <row r="232" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B232" s="23"/>
+      <c r="B232" s="12"/>
     </row>
     <row r="233" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B233" s="23"/>
+      <c r="B233" s="12"/>
     </row>
     <row r="234" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B234" s="23"/>
+      <c r="B234" s="12"/>
     </row>
     <row r="235" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B235" s="23"/>
+      <c r="B235" s="12"/>
       <c r="U235" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="236" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B236" s="23"/>
+      <c r="B236" s="12"/>
     </row>
     <row r="237" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B237" s="23"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B238" s="23"/>
+      <c r="B238" s="12"/>
     </row>
     <row r="239" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B239" s="23"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B240" s="23"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B241" s="23"/>
+      <c r="B241" s="12"/>
     </row>
     <row r="242" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B242" s="23"/>
+      <c r="B242" s="12"/>
     </row>
     <row r="243" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B243" s="23"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B244" s="23"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B245" s="23"/>
+      <c r="B245" s="12"/>
     </row>
     <row r="246" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B246" s="23"/>
+      <c r="B246" s="12"/>
     </row>
     <row r="247" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B247" s="23"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B248" s="23"/>
+      <c r="B248" s="12"/>
     </row>
     <row r="249" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B249" s="23"/>
+      <c r="B249" s="12"/>
     </row>
     <row r="250" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B250" s="24" t="s">
+      <c r="B250" s="13" t="s">
         <v>349</v>
       </c>
       <c r="C250" s="3"/>
@@ -12932,7 +11392,7 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="4"/>
-      <c r="N250" s="24" t="s">
+      <c r="N250" s="13" t="s">
         <v>390</v>
       </c>
       <c r="O250" s="3"/>
@@ -12958,1137 +11418,273 @@
       <c r="AI250" s="4"/>
     </row>
     <row r="251" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B251" s="25" t="s">
+      <c r="B251" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C251" s="22"/>
-      <c r="D251" s="22"/>
-      <c r="E251" s="22"/>
-      <c r="F251" s="22"/>
-      <c r="G251" s="22"/>
-      <c r="H251" s="22"/>
       <c r="I251" s="6"/>
       <c r="N251" s="5"/>
-      <c r="O251" s="22"/>
-      <c r="P251" s="22"/>
-      <c r="Q251" s="22"/>
-      <c r="R251" s="22"/>
-      <c r="S251" s="22"/>
-      <c r="T251" s="22"/>
-      <c r="U251" s="22"/>
-      <c r="V251" s="22"/>
-      <c r="W251" s="22"/>
-      <c r="X251" s="22"/>
-      <c r="Y251" s="22"/>
-      <c r="Z251" s="22"/>
-      <c r="AA251" s="22"/>
-      <c r="AB251" s="22"/>
-      <c r="AC251" s="22"/>
-      <c r="AD251" s="22"/>
-      <c r="AE251" s="22"/>
-      <c r="AF251" s="22"/>
-      <c r="AG251" s="22"/>
-      <c r="AH251" s="22"/>
       <c r="AI251" s="6"/>
     </row>
     <row r="252" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B252" s="25" t="s">
+      <c r="B252" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C252" s="22"/>
-      <c r="D252" s="22"/>
-      <c r="E252" s="22"/>
-      <c r="F252" s="22"/>
-      <c r="G252" s="22"/>
-      <c r="H252" s="22"/>
       <c r="I252" s="6"/>
       <c r="N252" s="5"/>
-      <c r="O252" s="22"/>
-      <c r="P252" s="22"/>
-      <c r="Q252" s="22"/>
-      <c r="R252" s="22"/>
-      <c r="S252" s="22"/>
-      <c r="T252" s="22"/>
-      <c r="U252" s="22"/>
-      <c r="V252" s="22"/>
-      <c r="W252" s="22"/>
-      <c r="X252" s="22"/>
-      <c r="Y252" s="22"/>
-      <c r="Z252" s="22"/>
-      <c r="AA252" s="22"/>
-      <c r="AB252" s="22"/>
-      <c r="AC252" s="22"/>
-      <c r="AD252" s="22"/>
-      <c r="AE252" s="22"/>
-      <c r="AF252" s="22"/>
-      <c r="AG252" s="22"/>
-      <c r="AH252" s="22"/>
       <c r="AI252" s="6"/>
     </row>
     <row r="253" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B253" s="25" t="s">
+      <c r="B253" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
-      <c r="E253" s="22"/>
-      <c r="F253" s="22"/>
-      <c r="G253" s="22"/>
-      <c r="H253" s="22"/>
       <c r="I253" s="6"/>
       <c r="N253" s="5"/>
-      <c r="O253" s="22"/>
-      <c r="P253" s="22"/>
-      <c r="Q253" s="22"/>
-      <c r="R253" s="22"/>
-      <c r="S253" s="22"/>
-      <c r="T253" s="22"/>
-      <c r="U253" s="22"/>
-      <c r="V253" s="22"/>
-      <c r="W253" s="22"/>
-      <c r="X253" s="22"/>
-      <c r="Y253" s="22"/>
-      <c r="Z253" s="22"/>
-      <c r="AA253" s="22"/>
-      <c r="AB253" s="22"/>
-      <c r="AC253" s="22"/>
-      <c r="AD253" s="22"/>
-      <c r="AE253" s="22"/>
-      <c r="AF253" s="22"/>
-      <c r="AG253" s="22"/>
-      <c r="AH253" s="22"/>
       <c r="AI253" s="6"/>
     </row>
     <row r="254" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B254" s="25" t="s">
+      <c r="B254" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
-      <c r="E254" s="22"/>
-      <c r="F254" s="22"/>
-      <c r="G254" s="22"/>
-      <c r="H254" s="22"/>
       <c r="I254" s="6"/>
       <c r="N254" s="5"/>
-      <c r="O254" s="22"/>
-      <c r="P254" s="22"/>
-      <c r="Q254" s="22"/>
-      <c r="R254" s="22"/>
-      <c r="S254" s="22"/>
-      <c r="T254" s="22"/>
-      <c r="U254" s="22"/>
-      <c r="V254" s="22"/>
-      <c r="W254" s="22"/>
-      <c r="X254" s="22"/>
-      <c r="Y254" s="22"/>
-      <c r="Z254" s="22"/>
-      <c r="AA254" s="22"/>
-      <c r="AB254" s="22"/>
-      <c r="AC254" s="22"/>
-      <c r="AD254" s="22"/>
-      <c r="AE254" s="22"/>
-      <c r="AF254" s="22"/>
-      <c r="AG254" s="22"/>
-      <c r="AH254" s="22"/>
       <c r="AI254" s="6"/>
     </row>
     <row r="255" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B255" s="25" t="s">
+      <c r="B255" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
-      <c r="E255" s="22"/>
-      <c r="F255" s="22"/>
-      <c r="G255" s="22"/>
-      <c r="H255" s="22"/>
       <c r="I255" s="6"/>
       <c r="N255" s="5"/>
-      <c r="O255" s="22"/>
-      <c r="P255" s="22"/>
-      <c r="Q255" s="22"/>
-      <c r="R255" s="22"/>
-      <c r="S255" s="22"/>
-      <c r="T255" s="22"/>
-      <c r="U255" s="22"/>
-      <c r="V255" s="22"/>
-      <c r="W255" s="22"/>
-      <c r="X255" s="22"/>
-      <c r="Y255" s="22"/>
-      <c r="Z255" s="22"/>
-      <c r="AA255" s="22"/>
-      <c r="AB255" s="22"/>
-      <c r="AC255" s="22"/>
-      <c r="AD255" s="22"/>
-      <c r="AE255" s="22"/>
-      <c r="AF255" s="22"/>
-      <c r="AG255" s="22"/>
-      <c r="AH255" s="22"/>
       <c r="AI255" s="6"/>
     </row>
     <row r="256" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B256" s="25" t="s">
+      <c r="B256" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="22"/>
-      <c r="F256" s="22"/>
-      <c r="G256" s="22"/>
-      <c r="H256" s="22"/>
       <c r="I256" s="6"/>
       <c r="N256" s="5"/>
-      <c r="O256" s="22"/>
-      <c r="P256" s="22"/>
-      <c r="Q256" s="22"/>
-      <c r="R256" s="22"/>
-      <c r="S256" s="22"/>
-      <c r="T256" s="22"/>
-      <c r="U256" s="22"/>
-      <c r="V256" s="22"/>
-      <c r="W256" s="22"/>
-      <c r="X256" s="22"/>
-      <c r="Y256" s="22"/>
-      <c r="Z256" s="22"/>
-      <c r="AA256" s="22"/>
-      <c r="AB256" s="22"/>
-      <c r="AC256" s="22"/>
-      <c r="AD256" s="22"/>
-      <c r="AE256" s="22"/>
-      <c r="AF256" s="22"/>
-      <c r="AG256" s="22"/>
-      <c r="AH256" s="22"/>
       <c r="AI256" s="6"/>
     </row>
     <row r="257" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B257" s="25" t="s">
+      <c r="B257" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C257" s="22"/>
-      <c r="D257" s="22"/>
-      <c r="E257" s="22"/>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
-      <c r="H257" s="22"/>
       <c r="I257" s="6"/>
       <c r="N257" s="5"/>
-      <c r="O257" s="22"/>
-      <c r="P257" s="22"/>
-      <c r="Q257" s="22"/>
-      <c r="R257" s="22"/>
-      <c r="S257" s="22"/>
-      <c r="T257" s="22"/>
-      <c r="U257" s="22"/>
-      <c r="V257" s="22"/>
-      <c r="W257" s="22"/>
-      <c r="X257" s="22"/>
-      <c r="Y257" s="22"/>
-      <c r="Z257" s="22"/>
-      <c r="AA257" s="22"/>
-      <c r="AB257" s="22"/>
-      <c r="AC257" s="22"/>
-      <c r="AD257" s="22"/>
-      <c r="AE257" s="22"/>
-      <c r="AF257" s="22"/>
-      <c r="AG257" s="22"/>
-      <c r="AH257" s="22"/>
       <c r="AI257" s="6"/>
     </row>
     <row r="258" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B258" s="25" t="s">
+      <c r="B258" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
       <c r="I258" s="6"/>
       <c r="N258" s="5"/>
-      <c r="O258" s="22"/>
-      <c r="P258" s="22"/>
-      <c r="Q258" s="22"/>
-      <c r="R258" s="22"/>
-      <c r="S258" s="22"/>
-      <c r="T258" s="22"/>
-      <c r="U258" s="22"/>
-      <c r="V258" s="22"/>
-      <c r="W258" s="22"/>
-      <c r="X258" s="22"/>
-      <c r="Y258" s="22"/>
-      <c r="Z258" s="22"/>
-      <c r="AA258" s="22"/>
-      <c r="AB258" s="22"/>
-      <c r="AC258" s="22"/>
-      <c r="AD258" s="22"/>
-      <c r="AE258" s="22"/>
-      <c r="AF258" s="22"/>
-      <c r="AG258" s="22"/>
-      <c r="AH258" s="22"/>
       <c r="AI258" s="6"/>
     </row>
     <row r="259" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B259" s="25" t="s">
+      <c r="B259" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
-      <c r="E259" s="22"/>
-      <c r="F259" s="22"/>
-      <c r="G259" s="22"/>
-      <c r="H259" s="22"/>
       <c r="I259" s="6"/>
       <c r="N259" s="5"/>
-      <c r="O259" s="22"/>
-      <c r="P259" s="22"/>
-      <c r="Q259" s="22"/>
-      <c r="R259" s="22"/>
-      <c r="S259" s="22"/>
-      <c r="T259" s="22"/>
-      <c r="U259" s="22"/>
-      <c r="V259" s="22"/>
-      <c r="W259" s="22"/>
-      <c r="X259" s="22"/>
-      <c r="Y259" s="22"/>
-      <c r="Z259" s="22"/>
-      <c r="AA259" s="22"/>
-      <c r="AB259" s="22"/>
-      <c r="AC259" s="22"/>
-      <c r="AD259" s="22"/>
-      <c r="AE259" s="22"/>
-      <c r="AF259" s="22"/>
-      <c r="AG259" s="22"/>
-      <c r="AH259" s="22"/>
       <c r="AI259" s="6"/>
     </row>
     <row r="260" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B260" s="25" t="s">
+      <c r="B260" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
-      <c r="E260" s="22"/>
-      <c r="F260" s="22"/>
-      <c r="G260" s="22"/>
-      <c r="H260" s="22"/>
       <c r="I260" s="6"/>
       <c r="N260" s="5"/>
-      <c r="O260" s="22"/>
-      <c r="P260" s="22"/>
-      <c r="Q260" s="22"/>
-      <c r="R260" s="22"/>
-      <c r="S260" s="22"/>
-      <c r="T260" s="22"/>
-      <c r="U260" s="22"/>
-      <c r="V260" s="22"/>
-      <c r="W260" s="22"/>
-      <c r="X260" s="22"/>
-      <c r="Y260" s="22"/>
-      <c r="Z260" s="22"/>
-      <c r="AA260" s="22"/>
-      <c r="AB260" s="22"/>
-      <c r="AC260" s="22"/>
-      <c r="AD260" s="22"/>
-      <c r="AE260" s="22"/>
-      <c r="AF260" s="22"/>
-      <c r="AG260" s="22"/>
-      <c r="AH260" s="22"/>
       <c r="AI260" s="6"/>
     </row>
     <row r="261" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B261" s="25" t="s">
+      <c r="B261" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="E261" s="22"/>
-      <c r="F261" s="22"/>
-      <c r="G261" s="22"/>
-      <c r="H261" s="22"/>
       <c r="I261" s="6"/>
       <c r="N261" s="5"/>
-      <c r="O261" s="22"/>
-      <c r="P261" s="22"/>
-      <c r="Q261" s="22"/>
-      <c r="R261" s="22"/>
-      <c r="S261" s="22"/>
-      <c r="T261" s="22"/>
-      <c r="U261" s="22"/>
-      <c r="V261" s="22"/>
-      <c r="W261" s="22"/>
-      <c r="X261" s="22"/>
-      <c r="Y261" s="22"/>
-      <c r="Z261" s="22"/>
-      <c r="AA261" s="22"/>
-      <c r="AB261" s="22"/>
-      <c r="AC261" s="22"/>
-      <c r="AD261" s="22"/>
-      <c r="AE261" s="22"/>
-      <c r="AF261" s="22"/>
-      <c r="AG261" s="22"/>
-      <c r="AH261" s="22"/>
       <c r="AI261" s="6"/>
     </row>
     <row r="262" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B262" s="25" t="s">
+      <c r="B262" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C262" s="22"/>
-      <c r="D262" s="22"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
-      <c r="H262" s="22"/>
       <c r="I262" s="6"/>
       <c r="N262" s="5"/>
-      <c r="O262" s="22"/>
-      <c r="P262" s="22"/>
-      <c r="Q262" s="22"/>
-      <c r="R262" s="22"/>
-      <c r="S262" s="22"/>
-      <c r="T262" s="22"/>
-      <c r="U262" s="22"/>
-      <c r="V262" s="22"/>
-      <c r="W262" s="22"/>
-      <c r="X262" s="22"/>
-      <c r="Y262" s="22"/>
-      <c r="Z262" s="22"/>
-      <c r="AA262" s="22"/>
-      <c r="AB262" s="22"/>
-      <c r="AC262" s="22"/>
-      <c r="AD262" s="22"/>
-      <c r="AE262" s="22"/>
-      <c r="AF262" s="22"/>
-      <c r="AG262" s="22"/>
-      <c r="AH262" s="22"/>
       <c r="AI262" s="6"/>
     </row>
     <row r="263" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B263" s="25" t="s">
+      <c r="B263" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C263" s="22"/>
-      <c r="D263" s="22"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="22"/>
-      <c r="H263" s="22"/>
       <c r="I263" s="6"/>
       <c r="N263" s="5"/>
-      <c r="O263" s="22"/>
-      <c r="P263" s="22"/>
-      <c r="Q263" s="22"/>
-      <c r="R263" s="22"/>
-      <c r="S263" s="22"/>
-      <c r="T263" s="22"/>
-      <c r="U263" s="22"/>
-      <c r="V263" s="22"/>
-      <c r="W263" s="22"/>
-      <c r="X263" s="22"/>
-      <c r="Y263" s="22"/>
-      <c r="Z263" s="22"/>
-      <c r="AA263" s="22"/>
-      <c r="AB263" s="22"/>
-      <c r="AC263" s="22"/>
-      <c r="AD263" s="22"/>
-      <c r="AE263" s="22"/>
-      <c r="AF263" s="22"/>
-      <c r="AG263" s="22"/>
-      <c r="AH263" s="22"/>
       <c r="AI263" s="6"/>
     </row>
     <row r="264" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B264" s="25" t="s">
+      <c r="B264" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
-      <c r="E264" s="22"/>
-      <c r="F264" s="22"/>
-      <c r="G264" s="22"/>
-      <c r="H264" s="22"/>
       <c r="I264" s="6"/>
       <c r="N264" s="5"/>
-      <c r="O264" s="22"/>
-      <c r="P264" s="22"/>
-      <c r="Q264" s="22"/>
-      <c r="R264" s="22"/>
-      <c r="S264" s="22"/>
-      <c r="T264" s="22"/>
-      <c r="U264" s="22"/>
-      <c r="V264" s="22"/>
-      <c r="W264" s="22"/>
-      <c r="X264" s="22"/>
-      <c r="Y264" s="22"/>
-      <c r="Z264" s="22"/>
-      <c r="AA264" s="22"/>
-      <c r="AB264" s="22"/>
-      <c r="AC264" s="22"/>
-      <c r="AD264" s="22"/>
-      <c r="AE264" s="22"/>
-      <c r="AF264" s="22"/>
-      <c r="AG264" s="22"/>
-      <c r="AH264" s="22"/>
       <c r="AI264" s="6"/>
     </row>
     <row r="265" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B265" s="25" t="s">
+      <c r="B265" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
-      <c r="E265" s="22"/>
-      <c r="F265" s="22"/>
-      <c r="G265" s="22"/>
-      <c r="H265" s="22"/>
       <c r="I265" s="6"/>
       <c r="N265" s="5"/>
-      <c r="O265" s="22"/>
-      <c r="P265" s="22"/>
-      <c r="Q265" s="22"/>
-      <c r="R265" s="22"/>
-      <c r="S265" s="22"/>
-      <c r="T265" s="22"/>
-      <c r="U265" s="22"/>
-      <c r="V265" s="22"/>
-      <c r="W265" s="22"/>
-      <c r="X265" s="22"/>
-      <c r="Y265" s="22"/>
-      <c r="Z265" s="22"/>
-      <c r="AA265" s="22"/>
-      <c r="AB265" s="22"/>
-      <c r="AC265" s="22"/>
-      <c r="AD265" s="22"/>
-      <c r="AE265" s="22"/>
-      <c r="AF265" s="22"/>
-      <c r="AG265" s="22"/>
-      <c r="AH265" s="22"/>
       <c r="AI265" s="6"/>
     </row>
     <row r="266" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B266" s="25" t="s">
+      <c r="B266" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
-      <c r="E266" s="22"/>
-      <c r="F266" s="22"/>
-      <c r="G266" s="22"/>
-      <c r="H266" s="22"/>
       <c r="I266" s="6"/>
       <c r="N266" s="5"/>
-      <c r="O266" s="22"/>
-      <c r="P266" s="22"/>
-      <c r="Q266" s="22"/>
-      <c r="R266" s="22"/>
-      <c r="S266" s="22"/>
-      <c r="T266" s="22"/>
-      <c r="U266" s="22"/>
-      <c r="V266" s="22"/>
-      <c r="W266" s="22"/>
-      <c r="X266" s="22"/>
-      <c r="Y266" s="22"/>
-      <c r="Z266" s="22"/>
-      <c r="AA266" s="22"/>
-      <c r="AB266" s="22"/>
-      <c r="AC266" s="22"/>
-      <c r="AD266" s="22"/>
-      <c r="AE266" s="22"/>
-      <c r="AF266" s="22"/>
-      <c r="AG266" s="22"/>
-      <c r="AH266" s="22"/>
       <c r="AI266" s="6"/>
     </row>
     <row r="267" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B267" s="25" t="s">
+      <c r="B267" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="22"/>
-      <c r="G267" s="22"/>
-      <c r="H267" s="22"/>
       <c r="I267" s="6"/>
       <c r="N267" s="5"/>
-      <c r="O267" s="22"/>
-      <c r="P267" s="22"/>
-      <c r="Q267" s="22"/>
-      <c r="R267" s="22"/>
-      <c r="S267" s="22"/>
-      <c r="T267" s="22"/>
-      <c r="U267" s="22"/>
-      <c r="V267" s="22"/>
-      <c r="W267" s="22"/>
-      <c r="X267" s="22"/>
-      <c r="Y267" s="22"/>
-      <c r="Z267" s="22"/>
-      <c r="AA267" s="22"/>
-      <c r="AB267" s="22"/>
-      <c r="AC267" s="22"/>
-      <c r="AD267" s="22"/>
-      <c r="AE267" s="22"/>
-      <c r="AF267" s="22"/>
-      <c r="AG267" s="22"/>
-      <c r="AH267" s="22"/>
       <c r="AI267" s="6"/>
     </row>
     <row r="268" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B268" s="25" t="s">
+      <c r="B268" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C268" s="22"/>
-      <c r="D268" s="22"/>
-      <c r="E268" s="22"/>
-      <c r="F268" s="22"/>
-      <c r="G268" s="22"/>
-      <c r="H268" s="22"/>
       <c r="I268" s="6"/>
       <c r="N268" s="5"/>
-      <c r="O268" s="22"/>
-      <c r="P268" s="22"/>
-      <c r="Q268" s="22"/>
-      <c r="R268" s="22"/>
-      <c r="S268" s="22"/>
-      <c r="T268" s="22"/>
-      <c r="U268" s="22"/>
-      <c r="V268" s="22"/>
-      <c r="W268" s="22"/>
-      <c r="X268" s="22"/>
-      <c r="Y268" s="22"/>
-      <c r="Z268" s="22"/>
-      <c r="AA268" s="22"/>
-      <c r="AB268" s="22"/>
-      <c r="AC268" s="22"/>
-      <c r="AD268" s="22"/>
-      <c r="AE268" s="22"/>
-      <c r="AF268" s="22"/>
-      <c r="AG268" s="22"/>
-      <c r="AH268" s="22"/>
       <c r="AI268" s="6"/>
     </row>
     <row r="269" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B269" s="25" t="s">
+      <c r="B269" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="22"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="22"/>
-      <c r="H269" s="22"/>
       <c r="I269" s="6"/>
       <c r="N269" s="5"/>
-      <c r="O269" s="22"/>
-      <c r="P269" s="22"/>
-      <c r="Q269" s="22"/>
-      <c r="R269" s="22"/>
-      <c r="S269" s="22"/>
-      <c r="T269" s="22"/>
-      <c r="U269" s="22"/>
-      <c r="V269" s="22"/>
-      <c r="W269" s="22"/>
-      <c r="X269" s="22"/>
-      <c r="Y269" s="22"/>
-      <c r="Z269" s="22"/>
-      <c r="AA269" s="22"/>
-      <c r="AB269" s="22"/>
-      <c r="AC269" s="22"/>
-      <c r="AD269" s="22"/>
-      <c r="AE269" s="22"/>
-      <c r="AF269" s="22"/>
-      <c r="AG269" s="22"/>
-      <c r="AH269" s="22"/>
       <c r="AI269" s="6"/>
     </row>
     <row r="270" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B270" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
-      <c r="E270" s="22"/>
-      <c r="F270" s="22"/>
-      <c r="G270" s="22"/>
-      <c r="H270" s="22"/>
       <c r="I270" s="6"/>
       <c r="N270" s="5"/>
-      <c r="O270" s="22"/>
-      <c r="P270" s="22"/>
-      <c r="Q270" s="22"/>
-      <c r="R270" s="22"/>
-      <c r="S270" s="22"/>
-      <c r="T270" s="22"/>
-      <c r="U270" s="22"/>
-      <c r="V270" s="22"/>
-      <c r="W270" s="22"/>
-      <c r="X270" s="22"/>
-      <c r="Y270" s="22"/>
-      <c r="Z270" s="22"/>
-      <c r="AA270" s="22"/>
-      <c r="AB270" s="22"/>
-      <c r="AC270" s="22"/>
-      <c r="AD270" s="22"/>
-      <c r="AE270" s="22"/>
-      <c r="AF270" s="22"/>
-      <c r="AG270" s="22"/>
-      <c r="AH270" s="22"/>
       <c r="AI270" s="6"/>
     </row>
     <row r="271" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B271" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="22"/>
-      <c r="G271" s="22"/>
-      <c r="H271" s="22"/>
       <c r="I271" s="6"/>
       <c r="N271" s="5"/>
-      <c r="O271" s="22"/>
-      <c r="P271" s="22"/>
-      <c r="Q271" s="22"/>
-      <c r="R271" s="22"/>
-      <c r="S271" s="22"/>
-      <c r="T271" s="22"/>
-      <c r="U271" s="22"/>
-      <c r="V271" s="22"/>
-      <c r="W271" s="22"/>
-      <c r="X271" s="22"/>
-      <c r="Y271" s="22"/>
-      <c r="Z271" s="22"/>
-      <c r="AA271" s="22"/>
-      <c r="AB271" s="22"/>
-      <c r="AC271" s="22"/>
-      <c r="AD271" s="22"/>
-      <c r="AE271" s="22"/>
-      <c r="AF271" s="22"/>
-      <c r="AG271" s="22"/>
-      <c r="AH271" s="22"/>
       <c r="AI271" s="6"/>
     </row>
     <row r="272" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B272" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C272" s="22"/>
-      <c r="D272" s="22"/>
-      <c r="E272" s="22"/>
-      <c r="F272" s="22"/>
-      <c r="G272" s="22"/>
-      <c r="H272" s="22"/>
       <c r="I272" s="6"/>
       <c r="N272" s="5"/>
-      <c r="O272" s="22"/>
-      <c r="P272" s="22"/>
-      <c r="Q272" s="22"/>
-      <c r="R272" s="22"/>
-      <c r="S272" s="22"/>
-      <c r="T272" s="22"/>
-      <c r="U272" s="22"/>
-      <c r="V272" s="22"/>
-      <c r="W272" s="22"/>
-      <c r="X272" s="22"/>
-      <c r="Y272" s="22"/>
-      <c r="Z272" s="22"/>
-      <c r="AA272" s="22"/>
-      <c r="AB272" s="22"/>
-      <c r="AC272" s="22"/>
-      <c r="AD272" s="22"/>
-      <c r="AE272" s="22"/>
-      <c r="AF272" s="22"/>
-      <c r="AG272" s="22"/>
-      <c r="AH272" s="22"/>
       <c r="AI272" s="6"/>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B273" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="E273" s="22"/>
-      <c r="F273" s="22"/>
-      <c r="G273" s="22"/>
-      <c r="H273" s="22"/>
       <c r="I273" s="6"/>
       <c r="N273" s="5"/>
-      <c r="O273" s="22"/>
-      <c r="P273" s="22"/>
-      <c r="Q273" s="22"/>
-      <c r="R273" s="22"/>
-      <c r="S273" s="22"/>
-      <c r="T273" s="22"/>
-      <c r="U273" s="22"/>
-      <c r="V273" s="22"/>
-      <c r="W273" s="22"/>
-      <c r="X273" s="22"/>
-      <c r="Y273" s="22"/>
-      <c r="Z273" s="22"/>
-      <c r="AA273" s="22"/>
-      <c r="AB273" s="22"/>
-      <c r="AC273" s="22"/>
-      <c r="AD273" s="22"/>
-      <c r="AE273" s="22"/>
-      <c r="AF273" s="22"/>
-      <c r="AG273" s="22"/>
-      <c r="AH273" s="22"/>
       <c r="AI273" s="6"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B274" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
-      <c r="E274" s="22"/>
-      <c r="F274" s="22"/>
-      <c r="G274" s="22"/>
-      <c r="H274" s="22"/>
       <c r="I274" s="6"/>
       <c r="N274" s="5"/>
-      <c r="O274" s="22"/>
-      <c r="P274" s="22"/>
-      <c r="Q274" s="22"/>
-      <c r="R274" s="22"/>
-      <c r="S274" s="22"/>
-      <c r="T274" s="22"/>
-      <c r="U274" s="22"/>
-      <c r="V274" s="22"/>
-      <c r="W274" s="22"/>
-      <c r="X274" s="22"/>
-      <c r="Y274" s="22"/>
-      <c r="Z274" s="22"/>
-      <c r="AA274" s="22"/>
-      <c r="AB274" s="22"/>
-      <c r="AC274" s="22"/>
-      <c r="AD274" s="22"/>
-      <c r="AE274" s="22"/>
-      <c r="AF274" s="22"/>
-      <c r="AG274" s="22"/>
-      <c r="AH274" s="22"/>
       <c r="AI274" s="6"/>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B275" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="E275" s="22"/>
-      <c r="F275" s="22"/>
-      <c r="G275" s="22"/>
-      <c r="H275" s="22"/>
       <c r="I275" s="6"/>
       <c r="N275" s="5"/>
-      <c r="O275" s="22"/>
-      <c r="P275" s="22"/>
-      <c r="Q275" s="22"/>
-      <c r="R275" s="22"/>
-      <c r="S275" s="22"/>
-      <c r="T275" s="22"/>
-      <c r="U275" s="22"/>
-      <c r="V275" s="22"/>
-      <c r="W275" s="22"/>
-      <c r="X275" s="22"/>
-      <c r="Y275" s="22"/>
-      <c r="Z275" s="22"/>
-      <c r="AA275" s="22"/>
-      <c r="AB275" s="22"/>
-      <c r="AC275" s="22"/>
-      <c r="AD275" s="22"/>
-      <c r="AE275" s="22"/>
-      <c r="AF275" s="22"/>
-      <c r="AG275" s="22"/>
-      <c r="AH275" s="22"/>
       <c r="AI275" s="6"/>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B276" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
-      <c r="E276" s="22"/>
-      <c r="F276" s="22"/>
-      <c r="G276" s="22"/>
-      <c r="H276" s="22"/>
       <c r="I276" s="6"/>
       <c r="N276" s="5"/>
-      <c r="O276" s="22"/>
-      <c r="P276" s="22"/>
-      <c r="Q276" s="22"/>
-      <c r="R276" s="22"/>
-      <c r="S276" s="22"/>
-      <c r="T276" s="22"/>
-      <c r="U276" s="22"/>
-      <c r="V276" s="22"/>
-      <c r="W276" s="22"/>
-      <c r="X276" s="22"/>
-      <c r="Y276" s="22"/>
-      <c r="Z276" s="22"/>
-      <c r="AA276" s="22"/>
-      <c r="AB276" s="22"/>
-      <c r="AC276" s="22"/>
-      <c r="AD276" s="22"/>
-      <c r="AE276" s="22"/>
-      <c r="AF276" s="22"/>
-      <c r="AG276" s="22"/>
-      <c r="AH276" s="22"/>
       <c r="AI276" s="6"/>
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B277" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C277" s="22"/>
-      <c r="D277" s="22"/>
-      <c r="E277" s="22"/>
-      <c r="F277" s="22"/>
-      <c r="G277" s="22"/>
-      <c r="H277" s="22"/>
       <c r="I277" s="6"/>
       <c r="N277" s="5"/>
-      <c r="O277" s="22"/>
-      <c r="P277" s="22"/>
-      <c r="Q277" s="22"/>
-      <c r="R277" s="22"/>
-      <c r="S277" s="22"/>
-      <c r="T277" s="22"/>
-      <c r="U277" s="22"/>
-      <c r="V277" s="22"/>
-      <c r="W277" s="22"/>
-      <c r="X277" s="22"/>
-      <c r="Y277" s="22"/>
-      <c r="Z277" s="22"/>
-      <c r="AA277" s="22"/>
-      <c r="AB277" s="22"/>
-      <c r="AC277" s="22"/>
-      <c r="AD277" s="22"/>
-      <c r="AE277" s="22"/>
-      <c r="AF277" s="22"/>
-      <c r="AG277" s="22"/>
-      <c r="AH277" s="22"/>
       <c r="AI277" s="6"/>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B278" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C278" s="22"/>
-      <c r="D278" s="22"/>
-      <c r="E278" s="22"/>
-      <c r="F278" s="22"/>
-      <c r="G278" s="22"/>
-      <c r="H278" s="22"/>
       <c r="I278" s="6"/>
       <c r="N278" s="5"/>
-      <c r="O278" s="22"/>
-      <c r="P278" s="22"/>
-      <c r="Q278" s="22"/>
-      <c r="R278" s="22"/>
-      <c r="S278" s="22"/>
-      <c r="T278" s="22"/>
-      <c r="U278" s="22"/>
-      <c r="V278" s="22"/>
-      <c r="W278" s="22"/>
-      <c r="X278" s="22"/>
-      <c r="Y278" s="22"/>
-      <c r="Z278" s="22"/>
-      <c r="AA278" s="22"/>
-      <c r="AB278" s="22"/>
-      <c r="AC278" s="22"/>
-      <c r="AD278" s="22"/>
-      <c r="AE278" s="22"/>
-      <c r="AF278" s="22"/>
-      <c r="AG278" s="22"/>
-      <c r="AH278" s="22"/>
       <c r="AI278" s="6"/>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B279" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
-      <c r="E279" s="22"/>
-      <c r="F279" s="22"/>
-      <c r="G279" s="22"/>
-      <c r="H279" s="22"/>
       <c r="I279" s="6"/>
       <c r="N279" s="5"/>
-      <c r="O279" s="22"/>
-      <c r="P279" s="22"/>
-      <c r="Q279" s="22"/>
-      <c r="R279" s="22"/>
-      <c r="S279" s="22"/>
-      <c r="T279" s="22"/>
-      <c r="U279" s="22"/>
-      <c r="V279" s="22"/>
-      <c r="W279" s="22"/>
-      <c r="X279" s="22"/>
-      <c r="Y279" s="22"/>
-      <c r="Z279" s="22"/>
-      <c r="AA279" s="22"/>
-      <c r="AB279" s="22"/>
-      <c r="AC279" s="22"/>
-      <c r="AD279" s="22"/>
-      <c r="AE279" s="22"/>
-      <c r="AF279" s="22"/>
-      <c r="AG279" s="22"/>
-      <c r="AH279" s="22"/>
       <c r="AI279" s="6"/>
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B280" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
-      <c r="E280" s="22"/>
-      <c r="F280" s="22"/>
-      <c r="G280" s="22"/>
-      <c r="H280" s="22"/>
       <c r="I280" s="6"/>
       <c r="N280" s="5"/>
-      <c r="O280" s="22"/>
-      <c r="P280" s="22"/>
-      <c r="Q280" s="22"/>
-      <c r="R280" s="22"/>
-      <c r="S280" s="22"/>
-      <c r="T280" s="22"/>
-      <c r="U280" s="22"/>
-      <c r="V280" s="22"/>
-      <c r="W280" s="22"/>
-      <c r="X280" s="22"/>
-      <c r="Y280" s="22"/>
-      <c r="Z280" s="22"/>
-      <c r="AA280" s="22"/>
-      <c r="AB280" s="22"/>
-      <c r="AC280" s="22"/>
-      <c r="AD280" s="22"/>
-      <c r="AE280" s="22"/>
-      <c r="AF280" s="22"/>
-      <c r="AG280" s="22"/>
-      <c r="AH280" s="22"/>
       <c r="AI280" s="6"/>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B281" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
-      <c r="E281" s="22"/>
-      <c r="F281" s="22"/>
-      <c r="G281" s="22"/>
-      <c r="H281" s="22"/>
       <c r="I281" s="6"/>
       <c r="N281" s="5"/>
-      <c r="O281" s="22"/>
-      <c r="P281" s="22"/>
-      <c r="Q281" s="22"/>
-      <c r="R281" s="22"/>
-      <c r="S281" s="22"/>
-      <c r="T281" s="22"/>
-      <c r="U281" s="22"/>
-      <c r="V281" s="22"/>
-      <c r="W281" s="22"/>
-      <c r="X281" s="22"/>
-      <c r="Y281" s="22"/>
-      <c r="Z281" s="22"/>
-      <c r="AA281" s="22"/>
-      <c r="AB281" s="22"/>
-      <c r="AC281" s="22"/>
-      <c r="AD281" s="22"/>
-      <c r="AE281" s="22"/>
-      <c r="AF281" s="22"/>
-      <c r="AG281" s="22"/>
-      <c r="AH281" s="22"/>
       <c r="AI281" s="6"/>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B282" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C282" s="22"/>
-      <c r="D282" s="22"/>
-      <c r="E282" s="22"/>
-      <c r="F282" s="22"/>
-      <c r="G282" s="22"/>
-      <c r="H282" s="22"/>
       <c r="I282" s="6"/>
       <c r="N282" s="5"/>
-      <c r="O282" s="22"/>
-      <c r="P282" s="22"/>
-      <c r="Q282" s="22"/>
-      <c r="R282" s="22"/>
-      <c r="S282" s="22"/>
-      <c r="T282" s="22"/>
-      <c r="U282" s="22"/>
-      <c r="V282" s="22"/>
-      <c r="W282" s="22"/>
-      <c r="X282" s="22"/>
-      <c r="Y282" s="22"/>
-      <c r="Z282" s="22"/>
-      <c r="AA282" s="22"/>
-      <c r="AB282" s="22"/>
-      <c r="AC282" s="22"/>
-      <c r="AD282" s="22"/>
-      <c r="AE282" s="22"/>
-      <c r="AF282" s="22"/>
-      <c r="AG282" s="22"/>
-      <c r="AH282" s="22"/>
       <c r="AI282" s="6"/>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B283" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C283" s="22"/>
-      <c r="D283" s="22"/>
-      <c r="E283" s="22"/>
-      <c r="F283" s="22"/>
-      <c r="G283" s="22"/>
-      <c r="H283" s="22"/>
       <c r="I283" s="6"/>
       <c r="N283" s="5"/>
-      <c r="O283" s="22"/>
-      <c r="P283" s="22"/>
-      <c r="Q283" s="22"/>
-      <c r="R283" s="22"/>
-      <c r="S283" s="22"/>
-      <c r="T283" s="22"/>
-      <c r="U283" s="22"/>
-      <c r="V283" s="22"/>
-      <c r="W283" s="22"/>
-      <c r="X283" s="22"/>
-      <c r="Y283" s="22"/>
-      <c r="Z283" s="22"/>
-      <c r="AA283" s="22"/>
-      <c r="AB283" s="22"/>
-      <c r="AC283" s="22"/>
-      <c r="AD283" s="22"/>
-      <c r="AE283" s="22"/>
-      <c r="AF283" s="22"/>
-      <c r="AG283" s="22"/>
-      <c r="AH283" s="22"/>
       <c r="AI283" s="6"/>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B284" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
-      <c r="E284" s="22"/>
-      <c r="F284" s="22"/>
-      <c r="G284" s="22"/>
-      <c r="H284" s="22"/>
       <c r="I284" s="6"/>
       <c r="N284" s="8"/>
       <c r="O284" s="9"/>
@@ -14146,274 +11742,114 @@
     </row>
     <row r="290" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B290" s="5"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
-      <c r="E290" s="22"/>
-      <c r="F290" s="22"/>
-      <c r="G290" s="22"/>
-      <c r="H290" s="22"/>
-      <c r="I290" s="22"/>
-      <c r="J290" s="22"/>
       <c r="K290" s="6"/>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B291" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
-      <c r="E291" s="22"/>
-      <c r="F291" s="22"/>
-      <c r="G291" s="22"/>
-      <c r="H291" s="22"/>
-      <c r="I291" s="22"/>
-      <c r="J291" s="22"/>
       <c r="K291" s="6"/>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
-      <c r="E292" s="22"/>
-      <c r="F292" s="22"/>
-      <c r="G292" s="22"/>
-      <c r="H292" s="22"/>
-      <c r="I292" s="22"/>
-      <c r="J292" s="22"/>
       <c r="K292" s="6"/>
     </row>
     <row r="293" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B293" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C293" s="22"/>
-      <c r="D293" s="22"/>
-      <c r="E293" s="22"/>
-      <c r="F293" s="22"/>
-      <c r="G293" s="22"/>
-      <c r="H293" s="22"/>
-      <c r="I293" s="22"/>
-      <c r="J293" s="22"/>
       <c r="K293" s="6"/>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B294" s="5"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="22"/>
-      <c r="E294" s="22"/>
-      <c r="F294" s="22"/>
-      <c r="G294" s="22"/>
-      <c r="H294" s="22"/>
-      <c r="I294" s="22"/>
-      <c r="J294" s="22"/>
       <c r="K294" s="6"/>
     </row>
     <row r="295" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B295" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="22"/>
-      <c r="G295" s="22"/>
-      <c r="H295" s="22"/>
-      <c r="I295" s="22"/>
-      <c r="J295" s="22"/>
       <c r="K295" s="6"/>
     </row>
     <row r="296" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="22"/>
-      <c r="G296" s="22"/>
-      <c r="H296" s="22"/>
-      <c r="I296" s="22"/>
-      <c r="J296" s="22"/>
       <c r="K296" s="6"/>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
-      <c r="E297" s="22"/>
-      <c r="F297" s="22"/>
-      <c r="G297" s="22"/>
-      <c r="H297" s="22"/>
-      <c r="I297" s="22"/>
-      <c r="J297" s="22"/>
       <c r="K297" s="6"/>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B298" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C298" s="22"/>
-      <c r="D298" s="22"/>
-      <c r="E298" s="22"/>
-      <c r="F298" s="22"/>
-      <c r="G298" s="22"/>
-      <c r="H298" s="22"/>
-      <c r="I298" s="22"/>
-      <c r="J298" s="22"/>
       <c r="K298" s="6"/>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B299" s="5"/>
-      <c r="C299" s="22"/>
-      <c r="D299" s="22"/>
-      <c r="E299" s="22"/>
-      <c r="F299" s="22"/>
-      <c r="G299" s="22"/>
-      <c r="H299" s="22"/>
-      <c r="I299" s="22"/>
-      <c r="J299" s="22"/>
       <c r="K299" s="6"/>
     </row>
     <row r="300" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B300" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
-      <c r="E300" s="22"/>
-      <c r="F300" s="22"/>
-      <c r="G300" s="22"/>
-      <c r="H300" s="22"/>
-      <c r="I300" s="22"/>
-      <c r="J300" s="22"/>
       <c r="K300" s="6"/>
     </row>
     <row r="301" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B301" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
-      <c r="E301" s="22"/>
-      <c r="F301" s="22"/>
-      <c r="G301" s="22"/>
-      <c r="H301" s="22"/>
-      <c r="I301" s="22"/>
-      <c r="J301" s="22"/>
       <c r="K301" s="6"/>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B302" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
-      <c r="E302" s="22"/>
-      <c r="F302" s="22"/>
-      <c r="G302" s="22"/>
-      <c r="H302" s="22"/>
-      <c r="I302" s="22"/>
-      <c r="J302" s="22"/>
       <c r="K302" s="6"/>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B303" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C303" s="22"/>
-      <c r="D303" s="22"/>
-      <c r="E303" s="22"/>
-      <c r="F303" s="22"/>
-      <c r="G303" s="22"/>
-      <c r="H303" s="22"/>
-      <c r="I303" s="22"/>
-      <c r="J303" s="22"/>
       <c r="K303" s="6"/>
     </row>
     <row r="304" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B304" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="22"/>
-      <c r="D304" s="22"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="22"/>
-      <c r="G304" s="22"/>
-      <c r="H304" s="22"/>
-      <c r="I304" s="22"/>
-      <c r="J304" s="22"/>
       <c r="K304" s="6"/>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B305" s="5"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
-      <c r="E305" s="22"/>
-      <c r="F305" s="22"/>
-      <c r="G305" s="22"/>
-      <c r="H305" s="22"/>
-      <c r="I305" s="22"/>
-      <c r="J305" s="22"/>
       <c r="K305" s="6"/>
     </row>
     <row r="306" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B306" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
-      <c r="E306" s="22"/>
-      <c r="F306" s="22"/>
-      <c r="G306" s="22"/>
-      <c r="H306" s="22"/>
-      <c r="I306" s="22"/>
-      <c r="J306" s="22"/>
       <c r="K306" s="6"/>
     </row>
     <row r="307" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B307" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
-      <c r="E307" s="22"/>
-      <c r="F307" s="22"/>
-      <c r="G307" s="22"/>
-      <c r="H307" s="22"/>
-      <c r="I307" s="22"/>
-      <c r="J307" s="22"/>
       <c r="K307" s="6"/>
     </row>
     <row r="308" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B308" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C308" s="22"/>
-      <c r="D308" s="22"/>
-      <c r="E308" s="22"/>
-      <c r="F308" s="22"/>
-      <c r="G308" s="22"/>
-      <c r="H308" s="22"/>
-      <c r="I308" s="22"/>
-      <c r="J308" s="22"/>
       <c r="K308" s="6"/>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B309" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C309" s="22"/>
-      <c r="D309" s="22"/>
-      <c r="E309" s="22"/>
-      <c r="F309" s="22"/>
-      <c r="G309" s="22"/>
-      <c r="H309" s="22"/>
-      <c r="I309" s="22"/>
-      <c r="J309" s="22"/>
       <c r="K309" s="6"/>
       <c r="L309" t="s">
         <v>181</v>
@@ -14426,14 +11862,6 @@
       <c r="B310" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
-      <c r="E310" s="22"/>
-      <c r="F310" s="22"/>
-      <c r="G310" s="22"/>
-      <c r="H310" s="22"/>
-      <c r="I310" s="22"/>
-      <c r="J310" s="22"/>
       <c r="K310" s="6"/>
       <c r="M310" t="s">
         <v>389</v>
@@ -14443,136 +11871,56 @@
       <c r="B311" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
-      <c r="E311" s="22"/>
-      <c r="F311" s="22"/>
-      <c r="G311" s="22"/>
-      <c r="H311" s="22"/>
-      <c r="I311" s="22"/>
-      <c r="J311" s="22"/>
       <c r="K311" s="6"/>
     </row>
     <row r="312" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B312" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
-      <c r="E312" s="22"/>
-      <c r="F312" s="22"/>
-      <c r="G312" s="22"/>
-      <c r="H312" s="22"/>
-      <c r="I312" s="22"/>
-      <c r="J312" s="22"/>
       <c r="K312" s="6"/>
     </row>
     <row r="313" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B313" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C313" s="22"/>
-      <c r="D313" s="22"/>
-      <c r="E313" s="22"/>
-      <c r="F313" s="22"/>
-      <c r="G313" s="22"/>
-      <c r="H313" s="22"/>
-      <c r="I313" s="22"/>
-      <c r="J313" s="22"/>
       <c r="K313" s="6"/>
     </row>
     <row r="314" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B314" s="11"/>
-      <c r="C314" s="22"/>
-      <c r="D314" s="22"/>
-      <c r="E314" s="22"/>
-      <c r="F314" s="22"/>
-      <c r="G314" s="22"/>
-      <c r="H314" s="22"/>
-      <c r="I314" s="22"/>
-      <c r="J314" s="22"/>
       <c r="K314" s="6"/>
     </row>
     <row r="315" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B315" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C315" s="22"/>
-      <c r="D315" s="22"/>
-      <c r="E315" s="22"/>
-      <c r="F315" s="22"/>
-      <c r="G315" s="22"/>
-      <c r="H315" s="22"/>
-      <c r="I315" s="22"/>
-      <c r="J315" s="22"/>
       <c r="K315" s="6"/>
     </row>
     <row r="316" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B316" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C316" s="22"/>
-      <c r="D316" s="22"/>
-      <c r="E316" s="22"/>
-      <c r="F316" s="22"/>
-      <c r="G316" s="22"/>
-      <c r="H316" s="22"/>
-      <c r="I316" s="22"/>
-      <c r="J316" s="22"/>
       <c r="K316" s="6"/>
     </row>
     <row r="317" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B317" s="11"/>
-      <c r="C317" s="22"/>
-      <c r="D317" s="22"/>
-      <c r="E317" s="22"/>
-      <c r="F317" s="22"/>
-      <c r="G317" s="22"/>
-      <c r="H317" s="22"/>
-      <c r="I317" s="22"/>
-      <c r="J317" s="22"/>
       <c r="K317" s="6"/>
     </row>
     <row r="318" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B318" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C318" s="22"/>
-      <c r="D318" s="22"/>
-      <c r="E318" s="22"/>
-      <c r="F318" s="22"/>
-      <c r="G318" s="22"/>
-      <c r="H318" s="22"/>
-      <c r="I318" s="22"/>
-      <c r="J318" s="22"/>
       <c r="K318" s="6"/>
     </row>
     <row r="319" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B319" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C319" s="22"/>
-      <c r="D319" s="22"/>
-      <c r="E319" s="22"/>
-      <c r="F319" s="22"/>
-      <c r="G319" s="22"/>
-      <c r="H319" s="22"/>
-      <c r="I319" s="22"/>
-      <c r="J319" s="22"/>
       <c r="K319" s="6"/>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B320" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C320" s="22"/>
-      <c r="D320" s="22"/>
-      <c r="E320" s="22"/>
-      <c r="F320" s="22"/>
-      <c r="G320" s="22"/>
-      <c r="H320" s="22"/>
-      <c r="I320" s="22"/>
-      <c r="J320" s="22"/>
       <c r="K320" s="6"/>
       <c r="L320" t="s">
         <v>181</v>
@@ -14583,56 +11931,24 @@
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B321" s="11"/>
-      <c r="C321" s="22"/>
-      <c r="D321" s="22"/>
-      <c r="E321" s="22"/>
-      <c r="F321" s="22"/>
-      <c r="G321" s="22"/>
-      <c r="H321" s="22"/>
-      <c r="I321" s="22"/>
-      <c r="J321" s="22"/>
       <c r="K321" s="6"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B322" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C322" s="22"/>
-      <c r="D322" s="22"/>
-      <c r="E322" s="22"/>
-      <c r="F322" s="22"/>
-      <c r="G322" s="22"/>
-      <c r="H322" s="22"/>
-      <c r="I322" s="22"/>
-      <c r="J322" s="22"/>
       <c r="K322" s="6"/>
     </row>
     <row r="323" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B323" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C323" s="22"/>
-      <c r="D323" s="22"/>
-      <c r="E323" s="22"/>
-      <c r="F323" s="22"/>
-      <c r="G323" s="22"/>
-      <c r="H323" s="22"/>
-      <c r="I323" s="22"/>
-      <c r="J323" s="22"/>
       <c r="K323" s="6"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B324" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C324" s="22"/>
-      <c r="D324" s="22"/>
-      <c r="E324" s="22"/>
-      <c r="F324" s="22"/>
-      <c r="G324" s="22"/>
-      <c r="H324" s="22"/>
-      <c r="I324" s="22"/>
-      <c r="J324" s="22"/>
       <c r="K324" s="6"/>
       <c r="L324" t="s">
         <v>181</v>
@@ -14643,42 +11959,18 @@
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B325" s="11"/>
-      <c r="C325" s="22"/>
-      <c r="D325" s="22"/>
-      <c r="E325" s="22"/>
-      <c r="F325" s="22"/>
-      <c r="G325" s="22"/>
-      <c r="H325" s="22"/>
-      <c r="I325" s="22"/>
-      <c r="J325" s="22"/>
       <c r="K325" s="6"/>
     </row>
     <row r="326" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B326" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C326" s="22"/>
-      <c r="D326" s="22"/>
-      <c r="E326" s="22"/>
-      <c r="F326" s="22"/>
-      <c r="G326" s="22"/>
-      <c r="H326" s="22"/>
-      <c r="I326" s="22"/>
-      <c r="J326" s="22"/>
       <c r="K326" s="6"/>
     </row>
     <row r="327" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B327" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C327" s="22"/>
-      <c r="D327" s="22"/>
-      <c r="E327" s="22"/>
-      <c r="F327" s="22"/>
-      <c r="G327" s="22"/>
-      <c r="H327" s="22"/>
-      <c r="I327" s="22"/>
-      <c r="J327" s="22"/>
       <c r="K327" s="6"/>
       <c r="L327" t="s">
         <v>181</v>
@@ -14691,204 +11983,84 @@
       <c r="B328" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C328" s="22"/>
-      <c r="D328" s="22"/>
-      <c r="E328" s="22"/>
-      <c r="F328" s="22"/>
-      <c r="G328" s="22"/>
-      <c r="H328" s="22"/>
-      <c r="I328" s="22"/>
-      <c r="J328" s="22"/>
       <c r="K328" s="6"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B329" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C329" s="22"/>
-      <c r="D329" s="22"/>
-      <c r="E329" s="22"/>
-      <c r="F329" s="22"/>
-      <c r="G329" s="22"/>
-      <c r="H329" s="22"/>
-      <c r="I329" s="22"/>
-      <c r="J329" s="22"/>
       <c r="K329" s="6"/>
     </row>
     <row r="330" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B330" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C330" s="22"/>
-      <c r="D330" s="22"/>
-      <c r="E330" s="22"/>
-      <c r="F330" s="22"/>
-      <c r="G330" s="22"/>
-      <c r="H330" s="22"/>
-      <c r="I330" s="22"/>
-      <c r="J330" s="22"/>
       <c r="K330" s="6"/>
     </row>
     <row r="331" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B331" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C331" s="22"/>
-      <c r="D331" s="22"/>
-      <c r="E331" s="22"/>
-      <c r="F331" s="22"/>
-      <c r="G331" s="22"/>
-      <c r="H331" s="22"/>
-      <c r="I331" s="22"/>
-      <c r="J331" s="22"/>
       <c r="K331" s="6"/>
     </row>
     <row r="332" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B332" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C332" s="22"/>
-      <c r="D332" s="22"/>
-      <c r="E332" s="22"/>
-      <c r="F332" s="22"/>
-      <c r="G332" s="22"/>
-      <c r="H332" s="22"/>
-      <c r="I332" s="22"/>
-      <c r="J332" s="22"/>
       <c r="K332" s="6"/>
     </row>
     <row r="333" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B333" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C333" s="22"/>
-      <c r="D333" s="22"/>
-      <c r="E333" s="22"/>
-      <c r="F333" s="22"/>
-      <c r="G333" s="22"/>
-      <c r="H333" s="22"/>
-      <c r="I333" s="22"/>
-      <c r="J333" s="22"/>
       <c r="K333" s="6"/>
     </row>
     <row r="334" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B334" s="11"/>
-      <c r="C334" s="22"/>
-      <c r="D334" s="22"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="22"/>
-      <c r="G334" s="22"/>
-      <c r="H334" s="22"/>
-      <c r="I334" s="22"/>
-      <c r="J334" s="22"/>
       <c r="K334" s="6"/>
     </row>
     <row r="335" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B335" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C335" s="22"/>
-      <c r="D335" s="22"/>
-      <c r="E335" s="22"/>
-      <c r="F335" s="22"/>
-      <c r="G335" s="22"/>
-      <c r="H335" s="22"/>
-      <c r="I335" s="22"/>
-      <c r="J335" s="22"/>
       <c r="K335" s="6"/>
     </row>
     <row r="336" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B336" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C336" s="22"/>
-      <c r="D336" s="22"/>
-      <c r="E336" s="22"/>
-      <c r="F336" s="22"/>
-      <c r="G336" s="22"/>
-      <c r="H336" s="22"/>
-      <c r="I336" s="22"/>
-      <c r="J336" s="22"/>
       <c r="K336" s="6"/>
     </row>
     <row r="337" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B337" s="11"/>
-      <c r="C337" s="22"/>
-      <c r="D337" s="22"/>
-      <c r="E337" s="22"/>
-      <c r="F337" s="22"/>
-      <c r="G337" s="22"/>
-      <c r="H337" s="22"/>
-      <c r="I337" s="22"/>
-      <c r="J337" s="22"/>
       <c r="K337" s="6"/>
     </row>
     <row r="338" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B338" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C338" s="22"/>
-      <c r="D338" s="22"/>
-      <c r="E338" s="22"/>
-      <c r="F338" s="22"/>
-      <c r="G338" s="22"/>
-      <c r="H338" s="22"/>
-      <c r="I338" s="22"/>
-      <c r="J338" s="22"/>
       <c r="K338" s="6"/>
     </row>
     <row r="339" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
-      <c r="C339" s="22"/>
-      <c r="D339" s="22"/>
-      <c r="E339" s="22"/>
-      <c r="F339" s="22"/>
-      <c r="G339" s="22"/>
-      <c r="H339" s="22"/>
-      <c r="I339" s="22"/>
-      <c r="J339" s="22"/>
       <c r="K339" s="6"/>
     </row>
     <row r="340" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B340" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C340" s="22"/>
-      <c r="D340" s="22"/>
-      <c r="E340" s="22"/>
-      <c r="F340" s="22"/>
-      <c r="G340" s="22"/>
-      <c r="H340" s="22"/>
-      <c r="I340" s="22"/>
-      <c r="J340" s="22"/>
       <c r="K340" s="6"/>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C341" s="22"/>
-      <c r="D341" s="22"/>
-      <c r="E341" s="22"/>
-      <c r="F341" s="22"/>
-      <c r="G341" s="22"/>
-      <c r="H341" s="22"/>
-      <c r="I341" s="22"/>
-      <c r="J341" s="22"/>
       <c r="K341" s="6"/>
     </row>
     <row r="342" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B342" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C342" s="22"/>
-      <c r="D342" s="22"/>
-      <c r="E342" s="22"/>
-      <c r="F342" s="22"/>
-      <c r="G342" s="22"/>
-      <c r="H342" s="22"/>
-      <c r="I342" s="22"/>
-      <c r="J342" s="22"/>
       <c r="K342" s="6"/>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.25">
@@ -14910,4 +12082,1778 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1CE59-FA7B-4457-A932-43D4831F36CE}">
+  <dimension ref="A2:N261"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="G64" t="s">
+        <v>59</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
+        <v>62</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="G75" t="s">
+        <v>70</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
+        <v>79</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
+        <v>82</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
+        <v>83</v>
+      </c>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="H89" t="s">
+        <v>84</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="G90" t="s">
+        <v>85</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
+        <v>86</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
+        <v>89</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="H95" t="s">
+        <v>90</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" t="s">
+        <v>91</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="G97" t="s">
+        <v>92</v>
+      </c>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
+        <v>94</v>
+      </c>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="H100" t="s">
+        <v>95</v>
+      </c>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="G101" t="s">
+        <v>96</v>
+      </c>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
+        <v>97</v>
+      </c>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
+        <v>98</v>
+      </c>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
+        <v>99</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="H105" t="s">
+        <v>100</v>
+      </c>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
+        <v>102</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
+        <v>103</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="H109" t="s">
+        <v>104</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
+        <v>106</v>
+      </c>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
+        <v>107</v>
+      </c>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="H113" t="s">
+        <v>108</v>
+      </c>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="G114" t="s">
+        <v>109</v>
+      </c>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="H115" t="s">
+        <v>110</v>
+      </c>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="I116" t="s">
+        <v>111</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="H117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="H118" t="s">
+        <v>113</v>
+      </c>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="G119" t="s">
+        <v>114</v>
+      </c>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
+        <v>115</v>
+      </c>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
+        <v>116</v>
+      </c>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
+        <v>117</v>
+      </c>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="H123" t="s">
+        <v>118</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="G124" t="s">
+        <v>119</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
+        <v>120</v>
+      </c>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
+        <v>121</v>
+      </c>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="H127" t="s">
+        <v>122</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="G128" t="s">
+        <v>123</v>
+      </c>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
+        <v>124</v>
+      </c>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
+        <v>125</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
+        <v>126</v>
+      </c>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="H132" t="s">
+        <v>127</v>
+      </c>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="G133" t="s">
+        <v>128</v>
+      </c>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
+        <v>129</v>
+      </c>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
+        <v>130</v>
+      </c>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
+        <v>131</v>
+      </c>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="H137" t="s">
+        <v>132</v>
+      </c>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="G138" t="s">
+        <v>133</v>
+      </c>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
+        <v>134</v>
+      </c>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="H140" t="s">
+        <v>135</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
+        <v>136</v>
+      </c>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="G142" t="s">
+        <v>137</v>
+      </c>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
+        <v>138</v>
+      </c>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="H144" t="s">
+        <v>139</v>
+      </c>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="G145" t="s">
+        <v>140</v>
+      </c>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
+        <v>141</v>
+      </c>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="H147" t="s">
+        <v>142</v>
+      </c>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="H148" t="s">
+        <v>143</v>
+      </c>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="G149" t="s">
+        <v>144</v>
+      </c>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
+        <v>145</v>
+      </c>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
+        <v>146</v>
+      </c>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="H152" t="s">
+        <v>147</v>
+      </c>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="G153" t="s">
+        <v>148</v>
+      </c>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
+        <v>149</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
+        <v>150</v>
+      </c>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
+        <v>151</v>
+      </c>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="H157" t="s">
+        <v>152</v>
+      </c>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="G158" t="s">
+        <v>230</v>
+      </c>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="H159" t="s">
+        <v>231</v>
+      </c>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="H160" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L160" s="6"/>
+      <c r="M160" t="s">
+        <v>181</v>
+      </c>
+      <c r="N160" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="H161" t="s">
+        <v>233</v>
+      </c>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="F162" t="s">
+        <v>153</v>
+      </c>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="G163" t="s">
+        <v>154</v>
+      </c>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="F164" t="s">
+        <v>155</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="G165" t="s">
+        <v>156</v>
+      </c>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="G166" t="s">
+        <v>157</v>
+      </c>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="G167" t="s">
+        <v>158</v>
+      </c>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="F168" t="s">
+        <v>159</v>
+      </c>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="G169" t="s">
+        <v>160</v>
+      </c>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
+        <v>161</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
+        <v>162</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="H172" t="s">
+        <v>163</v>
+      </c>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="H173" t="s">
+        <v>164</v>
+      </c>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="G174" t="s">
+        <v>165</v>
+      </c>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
+        <v>166</v>
+      </c>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="H176" t="s">
+        <v>167</v>
+      </c>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
+        <v>168</v>
+      </c>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
+        <v>169</v>
+      </c>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="H179" t="s">
+        <v>170</v>
+      </c>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="H180" t="s">
+        <v>171</v>
+      </c>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="F181" t="s">
+        <v>172</v>
+      </c>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="G182" t="s">
+        <v>173</v>
+      </c>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="G183" t="s">
+        <v>174</v>
+      </c>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="G184" t="s">
+        <v>175</v>
+      </c>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="D185" t="s">
+        <v>176</v>
+      </c>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" t="s">
+        <v>177</v>
+      </c>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="D187" t="s">
+        <v>207</v>
+      </c>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="E188" t="s">
+        <v>178</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="E189" t="s">
+        <v>179</v>
+      </c>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="D190" t="s">
+        <v>212</v>
+      </c>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="E191" t="s">
+        <v>178</v>
+      </c>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="E192" t="s">
+        <v>179</v>
+      </c>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="D193" t="s">
+        <v>312</v>
+      </c>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="E194" t="s">
+        <v>313</v>
+      </c>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+      <c r="F195" t="s">
+        <v>314</v>
+      </c>
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B196" s="8"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="4"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K209" s="6"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="K218" s="6"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K219" s="6"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K220" s="6"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="K221" s="6"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K223" s="6"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="K224" s="6"/>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="K225" s="6"/>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="K226" s="6"/>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K227" s="6"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="K228" s="6"/>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K229" s="6"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K230" s="6"/>
+      <c r="L230" t="s">
+        <v>181</v>
+      </c>
+      <c r="M230" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K231" s="6"/>
+      <c r="L231" t="s">
+        <v>181</v>
+      </c>
+      <c r="M231" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+      <c r="K232" s="6"/>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K233" s="6"/>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="K234" s="6"/>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K235" s="6"/>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+      <c r="K236" s="6"/>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="K237" s="6"/>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K238" s="6"/>
+      <c r="L238" t="s">
+        <v>181</v>
+      </c>
+      <c r="M238" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="K239" s="6"/>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="K240" s="6"/>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="K241" s="6"/>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K242" s="6"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+      <c r="K243" s="6"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="K244" s="6"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B245" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K245" s="6"/>
+      <c r="L245" t="s">
+        <v>181</v>
+      </c>
+      <c r="M245" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B246" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="K246" s="6"/>
+      <c r="L246" t="s">
+        <v>181</v>
+      </c>
+      <c r="M246" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B247" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K247" s="6"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B248" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="K248" s="6"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B249" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="K249" s="6"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="K250" s="6"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B251" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="K251" s="6"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B252" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="K252" s="6"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K253" s="6"/>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B254" s="5"/>
+      <c r="K254" s="6"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K255" s="6"/>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B256" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K256" s="6"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K257" s="6"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="10"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40A19BC-0F5C-47F2-B054-988F797C4D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E7BDF-E171-4BF2-B309-A84947BEA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Making a CalloutFromLWC-VSF Pj" sheetId="4" r:id="rId4"/>
     <sheet name="ParseAndFormatTheCalloutRespons" sheetId="5" r:id="rId5"/>
     <sheet name="FinishFormattingtheCalloutRespo" sheetId="6" r:id="rId6"/>
+    <sheet name="Stylise Lightning Datatable" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="423">
   <si>
     <t>構成</t>
   </si>
@@ -1472,6 +1473,97 @@
   </si>
   <si>
     <t>check exist to avoid overwriting, if centers repeats value we do not want to override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can see our data gets truncated </t>
+  </si>
+  <si>
+    <t>Wrap text feture will not get truncated</t>
+  </si>
+  <si>
+    <t>Adding Styles to Columns</t>
+  </si>
+  <si>
+    <t>use custom class</t>
+  </si>
+  <si>
+    <t>            wrapText: true</t>
+  </si>
+  <si>
+    <t>                    wrapText: true,</t>
+  </si>
+  <si>
+    <t>                    cellAttributes: { class: { fieldName: "className" } }</t>
+  </si>
+  <si>
+    <t>                centers.get(center.center_id).className =</t>
+  </si>
+  <si>
+    <t>                available_capacity &gt; 0</t>
+  </si>
+  <si>
+    <t>                    ? "slds-text-color_success"</t>
+  </si>
+  <si>
+    <t>                    : "slds-text-color_error";</t>
+  </si>
+  <si>
+    <r>
+      <t>            type: "text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    type: "text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>default enable wrapText so we can read the text if there is not enough it on the screen(small screen) to show the complete data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stylize date column by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> atribute with custom class</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1600,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1617,6 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3012,15 +3105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>54444</xdr:rowOff>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>111594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3048,8 +3141,360 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="49796700"/>
+          <a:off x="733425" y="50044350"/>
           <a:ext cx="10515599" cy="9122244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>91757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3E2762-0A6F-C669-1B03-7D19AB2891E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709893" y="59693175"/>
+          <a:ext cx="11224372" cy="5549582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>75389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75E4438-5A47-0B03-5FA8-E8B83FF2FED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="65397529"/>
+          <a:ext cx="10959353" cy="5543860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>30598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEE8E04-A202-F64A-D7B2-A173B35D1A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717096" y="38176200"/>
+          <a:ext cx="11202761" cy="5478898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D7FE6-AC2A-F155-149D-C8FEA4CEC593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3724275" y="39719250"/>
+          <a:ext cx="895350" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED773F6-7001-E287-8B46-F27AD169DB94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4476750" y="41138475"/>
+          <a:ext cx="971550" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B46A49-A731-F0C9-17FD-C706F546CD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2943225" y="52711350"/>
+          <a:ext cx="466725" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187356</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1C2BD6-ABC1-D557-2A3B-E3709ECA1013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="57588150"/>
+          <a:ext cx="10445781" cy="13496926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9844,8 +10289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EF4FE4-2F69-4CAB-9444-72D9ABAD5624}">
   <dimension ref="A3:AI343"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="M333" sqref="M333"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="O195" sqref="O195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12086,10 +12531,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF1CE59-FA7B-4457-A932-43D4831F36CE}">
-  <dimension ref="A2:N261"/>
+  <dimension ref="A2:T373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S199" sqref="S199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13851,6 +14296,3626 @@
         <v>296</v>
       </c>
     </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="313" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B313" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+      <c r="L313" s="3"/>
+      <c r="M313" s="3"/>
+      <c r="N313" s="3"/>
+      <c r="O313" s="3"/>
+      <c r="P313" s="3"/>
+      <c r="Q313" s="3"/>
+      <c r="R313" s="3"/>
+      <c r="S313" s="3"/>
+      <c r="T313" s="4"/>
+    </row>
+    <row r="314" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B314" s="5"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="16"/>
+      <c r="E314" s="16"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="16"/>
+      <c r="I314" s="16"/>
+      <c r="J314" s="16"/>
+      <c r="K314" s="16"/>
+      <c r="L314" s="16"/>
+      <c r="M314" s="16"/>
+      <c r="N314" s="16"/>
+      <c r="O314" s="16"/>
+      <c r="P314" s="16"/>
+      <c r="Q314" s="16"/>
+      <c r="R314" s="16"/>
+      <c r="S314" s="16"/>
+      <c r="T314" s="6"/>
+    </row>
+    <row r="315" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B315" s="5"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="16"/>
+      <c r="E315" s="16"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="16"/>
+      <c r="J315" s="16"/>
+      <c r="K315" s="16"/>
+      <c r="L315" s="16"/>
+      <c r="M315" s="16"/>
+      <c r="N315" s="16"/>
+      <c r="O315" s="16"/>
+      <c r="P315" s="16"/>
+      <c r="Q315" s="16"/>
+      <c r="R315" s="16"/>
+      <c r="S315" s="16"/>
+      <c r="T315" s="6"/>
+    </row>
+    <row r="316" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="16"/>
+      <c r="E316" s="16"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
+      <c r="H316" s="16"/>
+      <c r="I316" s="16"/>
+      <c r="J316" s="16"/>
+      <c r="K316" s="16"/>
+      <c r="L316" s="16"/>
+      <c r="M316" s="16"/>
+      <c r="N316" s="16"/>
+      <c r="O316" s="16"/>
+      <c r="P316" s="16"/>
+      <c r="Q316" s="16"/>
+      <c r="R316" s="16"/>
+      <c r="S316" s="16"/>
+      <c r="T316" s="6"/>
+    </row>
+    <row r="317" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B317" s="5"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+      <c r="I317" s="16"/>
+      <c r="J317" s="16"/>
+      <c r="K317" s="16"/>
+      <c r="L317" s="16"/>
+      <c r="M317" s="16"/>
+      <c r="N317" s="16"/>
+      <c r="O317" s="16"/>
+      <c r="P317" s="16"/>
+      <c r="Q317" s="16"/>
+      <c r="R317" s="16"/>
+      <c r="S317" s="16"/>
+      <c r="T317" s="6"/>
+    </row>
+    <row r="318" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B318" s="5"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="16"/>
+      <c r="I318" s="16"/>
+      <c r="J318" s="16"/>
+      <c r="K318" s="16"/>
+      <c r="L318" s="16"/>
+      <c r="M318" s="16"/>
+      <c r="N318" s="16"/>
+      <c r="O318" s="16"/>
+      <c r="P318" s="16"/>
+      <c r="Q318" s="16"/>
+      <c r="R318" s="16"/>
+      <c r="S318" s="16"/>
+      <c r="T318" s="6"/>
+    </row>
+    <row r="319" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B319" s="5"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="16"/>
+      <c r="H319" s="16"/>
+      <c r="I319" s="16"/>
+      <c r="J319" s="16"/>
+      <c r="K319" s="16"/>
+      <c r="L319" s="16"/>
+      <c r="M319" s="16"/>
+      <c r="N319" s="16"/>
+      <c r="O319" s="16"/>
+      <c r="P319" s="16"/>
+      <c r="Q319" s="16"/>
+      <c r="R319" s="16"/>
+      <c r="S319" s="16"/>
+      <c r="T319" s="6"/>
+    </row>
+    <row r="320" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B320" s="5"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="16"/>
+      <c r="H320" s="16"/>
+      <c r="I320" s="16"/>
+      <c r="J320" s="16"/>
+      <c r="K320" s="16"/>
+      <c r="L320" s="16"/>
+      <c r="M320" s="16"/>
+      <c r="N320" s="16"/>
+      <c r="O320" s="16"/>
+      <c r="P320" s="16"/>
+      <c r="Q320" s="16"/>
+      <c r="R320" s="16"/>
+      <c r="S320" s="16"/>
+      <c r="T320" s="6"/>
+    </row>
+    <row r="321" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B321" s="5"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="16"/>
+      <c r="H321" s="16"/>
+      <c r="I321" s="16"/>
+      <c r="J321" s="16"/>
+      <c r="K321" s="16"/>
+      <c r="L321" s="16"/>
+      <c r="M321" s="16"/>
+      <c r="N321" s="16"/>
+      <c r="O321" s="16"/>
+      <c r="P321" s="16"/>
+      <c r="Q321" s="16"/>
+      <c r="R321" s="16"/>
+      <c r="S321" s="16"/>
+      <c r="T321" s="6"/>
+    </row>
+    <row r="322" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B322" s="5"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="16"/>
+      <c r="H322" s="16"/>
+      <c r="I322" s="16"/>
+      <c r="J322" s="16"/>
+      <c r="K322" s="16"/>
+      <c r="L322" s="16"/>
+      <c r="M322" s="16"/>
+      <c r="N322" s="16"/>
+      <c r="O322" s="16"/>
+      <c r="P322" s="16"/>
+      <c r="Q322" s="16"/>
+      <c r="R322" s="16"/>
+      <c r="S322" s="16"/>
+      <c r="T322" s="6"/>
+    </row>
+    <row r="323" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B323" s="5"/>
+      <c r="C323" s="16"/>
+      <c r="D323" s="16"/>
+      <c r="E323" s="16"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
+      <c r="H323" s="16"/>
+      <c r="I323" s="16"/>
+      <c r="J323" s="16"/>
+      <c r="K323" s="16"/>
+      <c r="L323" s="16"/>
+      <c r="M323" s="16"/>
+      <c r="N323" s="16"/>
+      <c r="O323" s="16"/>
+      <c r="P323" s="16"/>
+      <c r="Q323" s="16"/>
+      <c r="R323" s="16"/>
+      <c r="S323" s="16"/>
+      <c r="T323" s="6"/>
+    </row>
+    <row r="324" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B324" s="5"/>
+      <c r="C324" s="16"/>
+      <c r="D324" s="16"/>
+      <c r="E324" s="16"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
+      <c r="H324" s="16"/>
+      <c r="I324" s="16"/>
+      <c r="J324" s="16"/>
+      <c r="K324" s="16"/>
+      <c r="L324" s="16"/>
+      <c r="M324" s="16"/>
+      <c r="N324" s="16"/>
+      <c r="O324" s="16"/>
+      <c r="P324" s="16"/>
+      <c r="Q324" s="16"/>
+      <c r="R324" s="16"/>
+      <c r="S324" s="16"/>
+      <c r="T324" s="6"/>
+    </row>
+    <row r="325" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="C325" s="16"/>
+      <c r="D325" s="16"/>
+      <c r="E325" s="16"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
+      <c r="H325" s="16"/>
+      <c r="I325" s="16"/>
+      <c r="J325" s="16"/>
+      <c r="K325" s="16"/>
+      <c r="L325" s="16"/>
+      <c r="M325" s="16"/>
+      <c r="N325" s="16"/>
+      <c r="O325" s="16"/>
+      <c r="P325" s="16"/>
+      <c r="Q325" s="16"/>
+      <c r="R325" s="16"/>
+      <c r="S325" s="16"/>
+      <c r="T325" s="6"/>
+    </row>
+    <row r="326" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B326" s="5"/>
+      <c r="C326" s="16"/>
+      <c r="D326" s="16"/>
+      <c r="E326" s="16"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
+      <c r="H326" s="16"/>
+      <c r="I326" s="16"/>
+      <c r="J326" s="16"/>
+      <c r="K326" s="16"/>
+      <c r="L326" s="16"/>
+      <c r="M326" s="16"/>
+      <c r="N326" s="16"/>
+      <c r="O326" s="16"/>
+      <c r="P326" s="16"/>
+      <c r="Q326" s="16"/>
+      <c r="R326" s="16"/>
+      <c r="S326" s="16"/>
+      <c r="T326" s="6"/>
+    </row>
+    <row r="327" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B327" s="5"/>
+      <c r="C327" s="16"/>
+      <c r="D327" s="16"/>
+      <c r="E327" s="16"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
+      <c r="H327" s="16"/>
+      <c r="I327" s="16"/>
+      <c r="J327" s="16"/>
+      <c r="K327" s="16"/>
+      <c r="L327" s="16"/>
+      <c r="M327" s="16"/>
+      <c r="N327" s="16"/>
+      <c r="O327" s="16"/>
+      <c r="P327" s="16"/>
+      <c r="Q327" s="16"/>
+      <c r="R327" s="16"/>
+      <c r="S327" s="16"/>
+      <c r="T327" s="6"/>
+    </row>
+    <row r="328" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B328" s="5"/>
+      <c r="C328" s="16"/>
+      <c r="D328" s="16"/>
+      <c r="E328" s="16"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
+      <c r="H328" s="16"/>
+      <c r="I328" s="16"/>
+      <c r="J328" s="16"/>
+      <c r="K328" s="16"/>
+      <c r="L328" s="16"/>
+      <c r="M328" s="16"/>
+      <c r="N328" s="16"/>
+      <c r="O328" s="16"/>
+      <c r="P328" s="16"/>
+      <c r="Q328" s="16"/>
+      <c r="R328" s="16"/>
+      <c r="S328" s="16"/>
+      <c r="T328" s="6"/>
+    </row>
+    <row r="329" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B329" s="5"/>
+      <c r="C329" s="16"/>
+      <c r="D329" s="16"/>
+      <c r="E329" s="16"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
+      <c r="H329" s="16"/>
+      <c r="I329" s="16"/>
+      <c r="J329" s="16"/>
+      <c r="K329" s="16"/>
+      <c r="L329" s="16"/>
+      <c r="M329" s="16"/>
+      <c r="N329" s="16"/>
+      <c r="O329" s="16"/>
+      <c r="P329" s="16"/>
+      <c r="Q329" s="16"/>
+      <c r="R329" s="16"/>
+      <c r="S329" s="16"/>
+      <c r="T329" s="6"/>
+    </row>
+    <row r="330" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B330" s="5"/>
+      <c r="C330" s="16"/>
+      <c r="D330" s="16"/>
+      <c r="E330" s="16"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
+      <c r="H330" s="16"/>
+      <c r="I330" s="16"/>
+      <c r="J330" s="16"/>
+      <c r="K330" s="16"/>
+      <c r="L330" s="16"/>
+      <c r="M330" s="16"/>
+      <c r="N330" s="16"/>
+      <c r="O330" s="16"/>
+      <c r="P330" s="16"/>
+      <c r="Q330" s="16"/>
+      <c r="R330" s="16"/>
+      <c r="S330" s="16"/>
+      <c r="T330" s="6"/>
+    </row>
+    <row r="331" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B331" s="5"/>
+      <c r="C331" s="16"/>
+      <c r="D331" s="16"/>
+      <c r="E331" s="16"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
+      <c r="H331" s="16"/>
+      <c r="I331" s="16"/>
+      <c r="J331" s="16"/>
+      <c r="K331" s="16"/>
+      <c r="L331" s="16"/>
+      <c r="M331" s="16"/>
+      <c r="N331" s="16"/>
+      <c r="O331" s="16"/>
+      <c r="P331" s="16"/>
+      <c r="Q331" s="16"/>
+      <c r="R331" s="16"/>
+      <c r="S331" s="16"/>
+      <c r="T331" s="6"/>
+    </row>
+    <row r="332" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B332" s="5"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="16"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
+      <c r="H332" s="16"/>
+      <c r="I332" s="16"/>
+      <c r="J332" s="16"/>
+      <c r="K332" s="16"/>
+      <c r="L332" s="16"/>
+      <c r="M332" s="16"/>
+      <c r="N332" s="16"/>
+      <c r="O332" s="16"/>
+      <c r="P332" s="16"/>
+      <c r="Q332" s="16"/>
+      <c r="R332" s="16"/>
+      <c r="S332" s="16"/>
+      <c r="T332" s="6"/>
+    </row>
+    <row r="333" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B333" s="5"/>
+      <c r="C333" s="16"/>
+      <c r="D333" s="16"/>
+      <c r="E333" s="16"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
+      <c r="H333" s="16"/>
+      <c r="I333" s="16"/>
+      <c r="J333" s="16"/>
+      <c r="K333" s="16"/>
+      <c r="L333" s="16"/>
+      <c r="M333" s="16"/>
+      <c r="N333" s="16"/>
+      <c r="O333" s="16"/>
+      <c r="P333" s="16"/>
+      <c r="Q333" s="16"/>
+      <c r="R333" s="16"/>
+      <c r="S333" s="16"/>
+      <c r="T333" s="6"/>
+    </row>
+    <row r="334" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="C334" s="16"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="16"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
+      <c r="H334" s="16"/>
+      <c r="I334" s="16"/>
+      <c r="J334" s="16"/>
+      <c r="K334" s="16"/>
+      <c r="L334" s="16"/>
+      <c r="M334" s="16"/>
+      <c r="N334" s="16"/>
+      <c r="O334" s="16"/>
+      <c r="P334" s="16"/>
+      <c r="Q334" s="16"/>
+      <c r="R334" s="16"/>
+      <c r="S334" s="16"/>
+      <c r="T334" s="6"/>
+    </row>
+    <row r="335" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B335" s="5"/>
+      <c r="C335" s="16"/>
+      <c r="D335" s="16"/>
+      <c r="E335" s="16"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
+      <c r="H335" s="16"/>
+      <c r="I335" s="16"/>
+      <c r="J335" s="16"/>
+      <c r="K335" s="16"/>
+      <c r="L335" s="16"/>
+      <c r="M335" s="16"/>
+      <c r="N335" s="16"/>
+      <c r="O335" s="16"/>
+      <c r="P335" s="16"/>
+      <c r="Q335" s="16"/>
+      <c r="R335" s="16"/>
+      <c r="S335" s="16"/>
+      <c r="T335" s="6"/>
+    </row>
+    <row r="336" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B336" s="5"/>
+      <c r="C336" s="16"/>
+      <c r="D336" s="16"/>
+      <c r="E336" s="16"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
+      <c r="H336" s="16"/>
+      <c r="I336" s="16"/>
+      <c r="J336" s="16"/>
+      <c r="K336" s="16"/>
+      <c r="L336" s="16"/>
+      <c r="M336" s="16"/>
+      <c r="N336" s="16"/>
+      <c r="O336" s="16"/>
+      <c r="P336" s="16"/>
+      <c r="Q336" s="16"/>
+      <c r="R336" s="16"/>
+      <c r="S336" s="16"/>
+      <c r="T336" s="6"/>
+    </row>
+    <row r="337" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B337" s="5"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="16"/>
+      <c r="I337" s="16"/>
+      <c r="J337" s="16"/>
+      <c r="K337" s="16"/>
+      <c r="L337" s="16"/>
+      <c r="M337" s="16"/>
+      <c r="N337" s="16"/>
+      <c r="O337" s="16"/>
+      <c r="P337" s="16"/>
+      <c r="Q337" s="16"/>
+      <c r="R337" s="16"/>
+      <c r="S337" s="16"/>
+      <c r="T337" s="6"/>
+    </row>
+    <row r="338" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B338" s="5"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+      <c r="H338" s="16"/>
+      <c r="I338" s="16"/>
+      <c r="J338" s="16"/>
+      <c r="K338" s="16"/>
+      <c r="L338" s="16"/>
+      <c r="M338" s="16"/>
+      <c r="N338" s="16"/>
+      <c r="O338" s="16"/>
+      <c r="P338" s="16"/>
+      <c r="Q338" s="16"/>
+      <c r="R338" s="16"/>
+      <c r="S338" s="16"/>
+      <c r="T338" s="6"/>
+    </row>
+    <row r="339" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B339" s="5"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="16"/>
+      <c r="I339" s="16"/>
+      <c r="J339" s="16"/>
+      <c r="K339" s="16"/>
+      <c r="L339" s="16"/>
+      <c r="M339" s="16"/>
+      <c r="N339" s="16"/>
+      <c r="O339" s="16"/>
+      <c r="P339" s="16"/>
+      <c r="Q339" s="16"/>
+      <c r="R339" s="16"/>
+      <c r="S339" s="16"/>
+      <c r="T339" s="6"/>
+    </row>
+    <row r="340" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B340" s="5"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+      <c r="H340" s="16"/>
+      <c r="I340" s="16"/>
+      <c r="J340" s="16"/>
+      <c r="K340" s="16"/>
+      <c r="L340" s="16"/>
+      <c r="M340" s="16"/>
+      <c r="N340" s="16"/>
+      <c r="O340" s="16"/>
+      <c r="P340" s="16"/>
+      <c r="Q340" s="16"/>
+      <c r="R340" s="16"/>
+      <c r="S340" s="16"/>
+      <c r="T340" s="6"/>
+    </row>
+    <row r="341" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B341" s="5"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="16"/>
+      <c r="I341" s="16"/>
+      <c r="J341" s="16"/>
+      <c r="K341" s="16"/>
+      <c r="L341" s="16"/>
+      <c r="M341" s="16"/>
+      <c r="N341" s="16"/>
+      <c r="O341" s="16"/>
+      <c r="P341" s="16"/>
+      <c r="Q341" s="16"/>
+      <c r="R341" s="16"/>
+      <c r="S341" s="16"/>
+      <c r="T341" s="6"/>
+    </row>
+    <row r="342" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B342" s="5"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="H342" s="16"/>
+      <c r="I342" s="16"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="16"/>
+      <c r="L342" s="16"/>
+      <c r="M342" s="16"/>
+      <c r="N342" s="16"/>
+      <c r="O342" s="16"/>
+      <c r="P342" s="16"/>
+      <c r="Q342" s="16"/>
+      <c r="R342" s="16"/>
+      <c r="S342" s="16"/>
+      <c r="T342" s="6"/>
+    </row>
+    <row r="343" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B343" s="5"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
+      <c r="H343" s="16"/>
+      <c r="I343" s="16"/>
+      <c r="J343" s="16"/>
+      <c r="K343" s="16"/>
+      <c r="L343" s="16"/>
+      <c r="M343" s="16"/>
+      <c r="N343" s="16"/>
+      <c r="O343" s="16"/>
+      <c r="P343" s="16"/>
+      <c r="Q343" s="16"/>
+      <c r="R343" s="16"/>
+      <c r="S343" s="16"/>
+      <c r="T343" s="6"/>
+    </row>
+    <row r="344" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B344" s="5"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
+      <c r="H344" s="16"/>
+      <c r="I344" s="16"/>
+      <c r="J344" s="16"/>
+      <c r="K344" s="16"/>
+      <c r="L344" s="16"/>
+      <c r="M344" s="16"/>
+      <c r="N344" s="16"/>
+      <c r="O344" s="16"/>
+      <c r="P344" s="16"/>
+      <c r="Q344" s="16"/>
+      <c r="R344" s="16"/>
+      <c r="S344" s="16"/>
+      <c r="T344" s="6"/>
+    </row>
+    <row r="345" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B345" s="5"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
+      <c r="H345" s="16"/>
+      <c r="I345" s="16"/>
+      <c r="J345" s="16"/>
+      <c r="K345" s="16"/>
+      <c r="L345" s="16"/>
+      <c r="M345" s="16"/>
+      <c r="N345" s="16"/>
+      <c r="O345" s="16"/>
+      <c r="P345" s="16"/>
+      <c r="Q345" s="16"/>
+      <c r="R345" s="16"/>
+      <c r="S345" s="16"/>
+      <c r="T345" s="6"/>
+    </row>
+    <row r="346" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B346" s="5"/>
+      <c r="C346" s="16"/>
+      <c r="D346" s="16"/>
+      <c r="E346" s="16"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
+      <c r="H346" s="16"/>
+      <c r="I346" s="16"/>
+      <c r="J346" s="16"/>
+      <c r="K346" s="16"/>
+      <c r="L346" s="16"/>
+      <c r="M346" s="16"/>
+      <c r="N346" s="16"/>
+      <c r="O346" s="16"/>
+      <c r="P346" s="16"/>
+      <c r="Q346" s="16"/>
+      <c r="R346" s="16"/>
+      <c r="S346" s="16"/>
+      <c r="T346" s="6"/>
+    </row>
+    <row r="347" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B347" s="5"/>
+      <c r="C347" s="16"/>
+      <c r="D347" s="16"/>
+      <c r="E347" s="16"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
+      <c r="H347" s="16"/>
+      <c r="I347" s="16"/>
+      <c r="J347" s="16"/>
+      <c r="K347" s="16"/>
+      <c r="L347" s="16"/>
+      <c r="M347" s="16"/>
+      <c r="N347" s="16"/>
+      <c r="O347" s="16"/>
+      <c r="P347" s="16"/>
+      <c r="Q347" s="16"/>
+      <c r="R347" s="16"/>
+      <c r="S347" s="16"/>
+      <c r="T347" s="6"/>
+    </row>
+    <row r="348" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B348" s="5"/>
+      <c r="C348" s="16"/>
+      <c r="D348" s="16"/>
+      <c r="E348" s="16"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
+      <c r="H348" s="16"/>
+      <c r="I348" s="16"/>
+      <c r="J348" s="16"/>
+      <c r="K348" s="16"/>
+      <c r="L348" s="16"/>
+      <c r="M348" s="16"/>
+      <c r="N348" s="16"/>
+      <c r="O348" s="16"/>
+      <c r="P348" s="16"/>
+      <c r="Q348" s="16"/>
+      <c r="R348" s="16"/>
+      <c r="S348" s="16"/>
+      <c r="T348" s="6"/>
+    </row>
+    <row r="349" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B349" s="5"/>
+      <c r="C349" s="16"/>
+      <c r="D349" s="16"/>
+      <c r="E349" s="16"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
+      <c r="H349" s="16"/>
+      <c r="I349" s="16"/>
+      <c r="J349" s="16"/>
+      <c r="K349" s="16"/>
+      <c r="L349" s="16"/>
+      <c r="M349" s="16"/>
+      <c r="N349" s="16"/>
+      <c r="O349" s="16"/>
+      <c r="P349" s="16"/>
+      <c r="Q349" s="16"/>
+      <c r="R349" s="16"/>
+      <c r="S349" s="16"/>
+      <c r="T349" s="6"/>
+    </row>
+    <row r="350" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B350" s="5"/>
+      <c r="C350" s="16"/>
+      <c r="D350" s="16"/>
+      <c r="E350" s="16"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
+      <c r="H350" s="16"/>
+      <c r="I350" s="16"/>
+      <c r="J350" s="16"/>
+      <c r="K350" s="16"/>
+      <c r="L350" s="16"/>
+      <c r="M350" s="16"/>
+      <c r="N350" s="16"/>
+      <c r="O350" s="16"/>
+      <c r="P350" s="16"/>
+      <c r="Q350" s="16"/>
+      <c r="R350" s="16"/>
+      <c r="S350" s="16"/>
+      <c r="T350" s="6"/>
+    </row>
+    <row r="351" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B351" s="5"/>
+      <c r="C351" s="16"/>
+      <c r="D351" s="16"/>
+      <c r="E351" s="16"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
+      <c r="H351" s="16"/>
+      <c r="I351" s="16"/>
+      <c r="J351" s="16"/>
+      <c r="K351" s="16"/>
+      <c r="L351" s="16"/>
+      <c r="M351" s="16"/>
+      <c r="N351" s="16"/>
+      <c r="O351" s="16"/>
+      <c r="P351" s="16"/>
+      <c r="Q351" s="16"/>
+      <c r="R351" s="16"/>
+      <c r="S351" s="16"/>
+      <c r="T351" s="6"/>
+    </row>
+    <row r="352" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B352" s="5"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="16"/>
+      <c r="E352" s="16"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
+      <c r="H352" s="16"/>
+      <c r="I352" s="16"/>
+      <c r="J352" s="16"/>
+      <c r="K352" s="16"/>
+      <c r="L352" s="16"/>
+      <c r="M352" s="16"/>
+      <c r="N352" s="16"/>
+      <c r="O352" s="16"/>
+      <c r="P352" s="16"/>
+      <c r="Q352" s="16"/>
+      <c r="R352" s="16"/>
+      <c r="S352" s="16"/>
+      <c r="T352" s="6"/>
+    </row>
+    <row r="353" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B353" s="5"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="16"/>
+      <c r="E353" s="16"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
+      <c r="H353" s="16"/>
+      <c r="I353" s="16"/>
+      <c r="J353" s="16"/>
+      <c r="K353" s="16"/>
+      <c r="L353" s="16"/>
+      <c r="M353" s="16"/>
+      <c r="N353" s="16"/>
+      <c r="O353" s="16"/>
+      <c r="P353" s="16"/>
+      <c r="Q353" s="16"/>
+      <c r="R353" s="16"/>
+      <c r="S353" s="16"/>
+      <c r="T353" s="6"/>
+    </row>
+    <row r="354" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B354" s="5"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="16"/>
+      <c r="E354" s="16"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
+      <c r="H354" s="16"/>
+      <c r="I354" s="16"/>
+      <c r="J354" s="16"/>
+      <c r="K354" s="16"/>
+      <c r="L354" s="16"/>
+      <c r="M354" s="16"/>
+      <c r="N354" s="16"/>
+      <c r="O354" s="16"/>
+      <c r="P354" s="16"/>
+      <c r="Q354" s="16"/>
+      <c r="R354" s="16"/>
+      <c r="S354" s="16"/>
+      <c r="T354" s="6"/>
+    </row>
+    <row r="355" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B355" s="5"/>
+      <c r="C355" s="16"/>
+      <c r="D355" s="16"/>
+      <c r="E355" s="16"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
+      <c r="H355" s="16"/>
+      <c r="I355" s="16"/>
+      <c r="J355" s="16"/>
+      <c r="K355" s="16"/>
+      <c r="L355" s="16"/>
+      <c r="M355" s="16"/>
+      <c r="N355" s="16"/>
+      <c r="O355" s="16"/>
+      <c r="P355" s="16"/>
+      <c r="Q355" s="16"/>
+      <c r="R355" s="16"/>
+      <c r="S355" s="16"/>
+      <c r="T355" s="6"/>
+    </row>
+    <row r="356" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B356" s="5"/>
+      <c r="C356" s="16"/>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16"/>
+      <c r="F356" s="16"/>
+      <c r="G356" s="16"/>
+      <c r="H356" s="16"/>
+      <c r="I356" s="16"/>
+      <c r="J356" s="16"/>
+      <c r="K356" s="16"/>
+      <c r="L356" s="16"/>
+      <c r="M356" s="16"/>
+      <c r="N356" s="16"/>
+      <c r="O356" s="16"/>
+      <c r="P356" s="16"/>
+      <c r="Q356" s="16"/>
+      <c r="R356" s="16"/>
+      <c r="S356" s="16"/>
+      <c r="T356" s="6"/>
+    </row>
+    <row r="357" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B357" s="5"/>
+      <c r="C357" s="16"/>
+      <c r="D357" s="16"/>
+      <c r="E357" s="16"/>
+      <c r="F357" s="16"/>
+      <c r="G357" s="16"/>
+      <c r="H357" s="16"/>
+      <c r="I357" s="16"/>
+      <c r="J357" s="16"/>
+      <c r="K357" s="16"/>
+      <c r="L357" s="16"/>
+      <c r="M357" s="16"/>
+      <c r="N357" s="16"/>
+      <c r="O357" s="16"/>
+      <c r="P357" s="16"/>
+      <c r="Q357" s="16"/>
+      <c r="R357" s="16"/>
+      <c r="S357" s="16"/>
+      <c r="T357" s="6"/>
+    </row>
+    <row r="358" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B358" s="5"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="16"/>
+      <c r="E358" s="16"/>
+      <c r="F358" s="16"/>
+      <c r="G358" s="16"/>
+      <c r="H358" s="16"/>
+      <c r="I358" s="16"/>
+      <c r="J358" s="16"/>
+      <c r="K358" s="16"/>
+      <c r="L358" s="16"/>
+      <c r="M358" s="16"/>
+      <c r="N358" s="16"/>
+      <c r="O358" s="16"/>
+      <c r="P358" s="16"/>
+      <c r="Q358" s="16"/>
+      <c r="R358" s="16"/>
+      <c r="S358" s="16"/>
+      <c r="T358" s="6"/>
+    </row>
+    <row r="359" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B359" s="5"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="16"/>
+      <c r="E359" s="16"/>
+      <c r="F359" s="16"/>
+      <c r="G359" s="16"/>
+      <c r="H359" s="16"/>
+      <c r="I359" s="16"/>
+      <c r="J359" s="16"/>
+      <c r="K359" s="16"/>
+      <c r="L359" s="16"/>
+      <c r="M359" s="16"/>
+      <c r="N359" s="16"/>
+      <c r="O359" s="16"/>
+      <c r="P359" s="16"/>
+      <c r="Q359" s="16"/>
+      <c r="R359" s="16"/>
+      <c r="S359" s="16"/>
+      <c r="T359" s="6"/>
+    </row>
+    <row r="360" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B360" s="5"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="16"/>
+      <c r="E360" s="16"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="16"/>
+      <c r="H360" s="16"/>
+      <c r="I360" s="16"/>
+      <c r="J360" s="16"/>
+      <c r="K360" s="16"/>
+      <c r="L360" s="16"/>
+      <c r="M360" s="16"/>
+      <c r="N360" s="16"/>
+      <c r="O360" s="16"/>
+      <c r="P360" s="16"/>
+      <c r="Q360" s="16"/>
+      <c r="R360" s="16"/>
+      <c r="S360" s="16"/>
+      <c r="T360" s="6"/>
+    </row>
+    <row r="361" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B361" s="5"/>
+      <c r="C361" s="16"/>
+      <c r="D361" s="16"/>
+      <c r="E361" s="16"/>
+      <c r="F361" s="16"/>
+      <c r="G361" s="16"/>
+      <c r="H361" s="16"/>
+      <c r="I361" s="16"/>
+      <c r="J361" s="16"/>
+      <c r="K361" s="16"/>
+      <c r="L361" s="16"/>
+      <c r="M361" s="16"/>
+      <c r="N361" s="16"/>
+      <c r="O361" s="16"/>
+      <c r="P361" s="16"/>
+      <c r="Q361" s="16"/>
+      <c r="R361" s="16"/>
+      <c r="S361" s="16"/>
+      <c r="T361" s="6"/>
+    </row>
+    <row r="362" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B362" s="5"/>
+      <c r="C362" s="16"/>
+      <c r="D362" s="16"/>
+      <c r="E362" s="16"/>
+      <c r="F362" s="16"/>
+      <c r="G362" s="16"/>
+      <c r="H362" s="16"/>
+      <c r="I362" s="16"/>
+      <c r="J362" s="16"/>
+      <c r="K362" s="16"/>
+      <c r="L362" s="16"/>
+      <c r="M362" s="16"/>
+      <c r="N362" s="16"/>
+      <c r="O362" s="16"/>
+      <c r="P362" s="16"/>
+      <c r="Q362" s="16"/>
+      <c r="R362" s="16"/>
+      <c r="S362" s="16"/>
+      <c r="T362" s="6"/>
+    </row>
+    <row r="363" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B363" s="5"/>
+      <c r="C363" s="16"/>
+      <c r="D363" s="16"/>
+      <c r="E363" s="16"/>
+      <c r="F363" s="16"/>
+      <c r="G363" s="16"/>
+      <c r="H363" s="16"/>
+      <c r="I363" s="16"/>
+      <c r="J363" s="16"/>
+      <c r="K363" s="16"/>
+      <c r="L363" s="16"/>
+      <c r="M363" s="16"/>
+      <c r="N363" s="16"/>
+      <c r="O363" s="16"/>
+      <c r="P363" s="16"/>
+      <c r="Q363" s="16"/>
+      <c r="R363" s="16"/>
+      <c r="S363" s="16"/>
+      <c r="T363" s="6"/>
+    </row>
+    <row r="364" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B364" s="5"/>
+      <c r="C364" s="16"/>
+      <c r="D364" s="16"/>
+      <c r="E364" s="16"/>
+      <c r="F364" s="16"/>
+      <c r="G364" s="16"/>
+      <c r="H364" s="16"/>
+      <c r="I364" s="16"/>
+      <c r="J364" s="16"/>
+      <c r="K364" s="16"/>
+      <c r="L364" s="16"/>
+      <c r="M364" s="16"/>
+      <c r="N364" s="16"/>
+      <c r="O364" s="16"/>
+      <c r="P364" s="16"/>
+      <c r="Q364" s="16"/>
+      <c r="R364" s="16"/>
+      <c r="S364" s="16"/>
+      <c r="T364" s="6"/>
+    </row>
+    <row r="365" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B365" s="5"/>
+      <c r="C365" s="16"/>
+      <c r="D365" s="16"/>
+      <c r="E365" s="16"/>
+      <c r="F365" s="16"/>
+      <c r="G365" s="16"/>
+      <c r="H365" s="16"/>
+      <c r="I365" s="16"/>
+      <c r="J365" s="16"/>
+      <c r="K365" s="16"/>
+      <c r="L365" s="16"/>
+      <c r="M365" s="16"/>
+      <c r="N365" s="16"/>
+      <c r="O365" s="16"/>
+      <c r="P365" s="16"/>
+      <c r="Q365" s="16"/>
+      <c r="R365" s="16"/>
+      <c r="S365" s="16"/>
+      <c r="T365" s="6"/>
+    </row>
+    <row r="366" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B366" s="5"/>
+      <c r="C366" s="16"/>
+      <c r="D366" s="16"/>
+      <c r="E366" s="16"/>
+      <c r="F366" s="16"/>
+      <c r="G366" s="16"/>
+      <c r="H366" s="16"/>
+      <c r="I366" s="16"/>
+      <c r="J366" s="16"/>
+      <c r="K366" s="16"/>
+      <c r="L366" s="16"/>
+      <c r="M366" s="16"/>
+      <c r="N366" s="16"/>
+      <c r="O366" s="16"/>
+      <c r="P366" s="16"/>
+      <c r="Q366" s="16"/>
+      <c r="R366" s="16"/>
+      <c r="S366" s="16"/>
+      <c r="T366" s="6"/>
+    </row>
+    <row r="367" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B367" s="5"/>
+      <c r="C367" s="16"/>
+      <c r="D367" s="16"/>
+      <c r="E367" s="16"/>
+      <c r="F367" s="16"/>
+      <c r="G367" s="16"/>
+      <c r="H367" s="16"/>
+      <c r="I367" s="16"/>
+      <c r="J367" s="16"/>
+      <c r="K367" s="16"/>
+      <c r="L367" s="16"/>
+      <c r="M367" s="16"/>
+      <c r="N367" s="16"/>
+      <c r="O367" s="16"/>
+      <c r="P367" s="16"/>
+      <c r="Q367" s="16"/>
+      <c r="R367" s="16"/>
+      <c r="S367" s="16"/>
+      <c r="T367" s="6"/>
+    </row>
+    <row r="368" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B368" s="5"/>
+      <c r="C368" s="16"/>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16"/>
+      <c r="F368" s="16"/>
+      <c r="G368" s="16"/>
+      <c r="H368" s="16"/>
+      <c r="I368" s="16"/>
+      <c r="J368" s="16"/>
+      <c r="K368" s="16"/>
+      <c r="L368" s="16"/>
+      <c r="M368" s="16"/>
+      <c r="N368" s="16"/>
+      <c r="O368" s="16"/>
+      <c r="P368" s="16"/>
+      <c r="Q368" s="16"/>
+      <c r="R368" s="16"/>
+      <c r="S368" s="16"/>
+      <c r="T368" s="6"/>
+    </row>
+    <row r="369" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B369" s="5"/>
+      <c r="C369" s="16"/>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16"/>
+      <c r="F369" s="16"/>
+      <c r="G369" s="16"/>
+      <c r="H369" s="16"/>
+      <c r="I369" s="16"/>
+      <c r="J369" s="16"/>
+      <c r="K369" s="16"/>
+      <c r="L369" s="16"/>
+      <c r="M369" s="16"/>
+      <c r="N369" s="16"/>
+      <c r="O369" s="16"/>
+      <c r="P369" s="16"/>
+      <c r="Q369" s="16"/>
+      <c r="R369" s="16"/>
+      <c r="S369" s="16"/>
+      <c r="T369" s="6"/>
+    </row>
+    <row r="370" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B370" s="5"/>
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
+      <c r="E370" s="16"/>
+      <c r="F370" s="16"/>
+      <c r="G370" s="16"/>
+      <c r="H370" s="16"/>
+      <c r="I370" s="16"/>
+      <c r="J370" s="16"/>
+      <c r="K370" s="16"/>
+      <c r="L370" s="16"/>
+      <c r="M370" s="16"/>
+      <c r="N370" s="16"/>
+      <c r="O370" s="16"/>
+      <c r="P370" s="16"/>
+      <c r="Q370" s="16"/>
+      <c r="R370" s="16"/>
+      <c r="S370" s="16"/>
+      <c r="T370" s="6"/>
+    </row>
+    <row r="371" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B371" s="5"/>
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16"/>
+      <c r="F371" s="16"/>
+      <c r="G371" s="16"/>
+      <c r="H371" s="16"/>
+      <c r="I371" s="16"/>
+      <c r="J371" s="16"/>
+      <c r="K371" s="16"/>
+      <c r="L371" s="16"/>
+      <c r="M371" s="16"/>
+      <c r="N371" s="16"/>
+      <c r="O371" s="16"/>
+      <c r="P371" s="16"/>
+      <c r="Q371" s="16"/>
+      <c r="R371" s="16"/>
+      <c r="S371" s="16"/>
+      <c r="T371" s="6"/>
+    </row>
+    <row r="372" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B372" s="5"/>
+      <c r="C372" s="16"/>
+      <c r="D372" s="16"/>
+      <c r="E372" s="16"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
+      <c r="H372" s="16"/>
+      <c r="I372" s="16"/>
+      <c r="J372" s="16"/>
+      <c r="K372" s="16"/>
+      <c r="L372" s="16"/>
+      <c r="M372" s="16"/>
+      <c r="N372" s="16"/>
+      <c r="O372" s="16"/>
+      <c r="P372" s="16"/>
+      <c r="Q372" s="16"/>
+      <c r="R372" s="16"/>
+      <c r="S372" s="16"/>
+      <c r="T372" s="6"/>
+    </row>
+    <row r="373" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B373" s="8"/>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
+      <c r="L373" s="9"/>
+      <c r="M373" s="9"/>
+      <c r="N373" s="9"/>
+      <c r="O373" s="9"/>
+      <c r="P373" s="9"/>
+      <c r="Q373" s="9"/>
+      <c r="R373" s="9"/>
+      <c r="S373" s="9"/>
+      <c r="T373" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0EA440-FB41-4A25-888F-10879DE1E42C}">
+  <dimension ref="A4:N302"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A363" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K379" sqref="K379"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="G54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="H58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="H66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="H68" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>66</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="G71" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>69</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="H75" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>72</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
+        <v>76</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="H82" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
+        <v>79</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
+        <v>80</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="G85" t="s">
+        <v>81</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
+        <v>83</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
+        <v>84</v>
+      </c>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="G89" t="s">
+        <v>85</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="H90" t="s">
+        <v>86</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
+        <v>87</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="G92" t="s">
+        <v>88</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="H93" t="s">
+        <v>89</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
+        <v>90</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="H95" t="s">
+        <v>91</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="G96" t="s">
+        <v>92</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="H97" t="s">
+        <v>93</v>
+      </c>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
+        <v>94</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
+        <v>95</v>
+      </c>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="G100" t="s">
+        <v>96</v>
+      </c>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="H101" t="s">
+        <v>97</v>
+      </c>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
+        <v>98</v>
+      </c>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="H103" t="s">
+        <v>99</v>
+      </c>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
+        <v>100</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="G105" t="s">
+        <v>101</v>
+      </c>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="H106" t="s">
+        <v>102</v>
+      </c>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
+        <v>103</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="G109" t="s">
+        <v>105</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="H110" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
+        <v>107</v>
+      </c>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
+        <v>108</v>
+      </c>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="G113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="H114" t="s">
+        <v>110</v>
+      </c>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="I115" t="s">
+        <v>111</v>
+      </c>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="H116" t="s">
+        <v>112</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="H117" t="s">
+        <v>113</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="G118" t="s">
+        <v>114</v>
+      </c>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="H119" t="s">
+        <v>115</v>
+      </c>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
+        <v>116</v>
+      </c>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="H121" t="s">
+        <v>117</v>
+      </c>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
+        <v>118</v>
+      </c>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="G123" t="s">
+        <v>119</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="H124" t="s">
+        <v>120</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
+        <v>121</v>
+      </c>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
+        <v>122</v>
+      </c>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="G127" t="s">
+        <v>123</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="H128" t="s">
+        <v>124</v>
+      </c>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
+        <v>125</v>
+      </c>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
+        <v>126</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
+        <v>127</v>
+      </c>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="G132" t="s">
+        <v>128</v>
+      </c>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="H133" t="s">
+        <v>129</v>
+      </c>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
+        <v>130</v>
+      </c>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
+        <v>131</v>
+      </c>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
+        <v>132</v>
+      </c>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="G137" t="s">
+        <v>133</v>
+      </c>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="H138" t="s">
+        <v>134</v>
+      </c>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
+        <v>135</v>
+      </c>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="G140" t="s">
+        <v>136</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
+        <v>137</v>
+      </c>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="H142" t="s">
+        <v>138</v>
+      </c>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
+        <v>139</v>
+      </c>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="G144" t="s">
+        <v>140</v>
+      </c>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="H145" t="s">
+        <v>141</v>
+      </c>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
+        <v>142</v>
+      </c>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="H147" t="s">
+        <v>143</v>
+      </c>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="G148" t="s">
+        <v>144</v>
+      </c>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="H149" t="s">
+        <v>145</v>
+      </c>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="H150" t="s">
+        <v>146</v>
+      </c>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
+        <v>147</v>
+      </c>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="G152" t="s">
+        <v>148</v>
+      </c>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="H153" t="s">
+        <v>149</v>
+      </c>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
+        <v>150</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="H155" t="s">
+        <v>151</v>
+      </c>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
+        <v>152</v>
+      </c>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="G157" t="s">
+        <v>230</v>
+      </c>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="H158" t="s">
+        <v>231</v>
+      </c>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="H159" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L159" s="6"/>
+      <c r="M159" t="s">
+        <v>181</v>
+      </c>
+      <c r="N159" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="H160" t="s">
+        <v>233</v>
+      </c>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="F161" t="s">
+        <v>153</v>
+      </c>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="G162" t="s">
+        <v>154</v>
+      </c>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="F163" t="s">
+        <v>155</v>
+      </c>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="G164" t="s">
+        <v>156</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="G165" t="s">
+        <v>157</v>
+      </c>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="G166" t="s">
+        <v>158</v>
+      </c>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="F167" t="s">
+        <v>159</v>
+      </c>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="G168" t="s">
+        <v>160</v>
+      </c>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="H169" t="s">
+        <v>161</v>
+      </c>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
+        <v>162</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
+        <v>163</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="H172" t="s">
+        <v>164</v>
+      </c>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="G173" t="s">
+        <v>165</v>
+      </c>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="H174" t="s">
+        <v>166</v>
+      </c>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
+        <v>167</v>
+      </c>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="H176" t="s">
+        <v>168</v>
+      </c>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
+        <v>169</v>
+      </c>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
+        <v>170</v>
+      </c>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="H179" t="s">
+        <v>171</v>
+      </c>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="F180" t="s">
+        <v>172</v>
+      </c>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="G181" t="s">
+        <v>173</v>
+      </c>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="G182" t="s">
+        <v>174</v>
+      </c>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="G183" t="s">
+        <v>175</v>
+      </c>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="D184" t="s">
+        <v>176</v>
+      </c>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" t="s">
+        <v>177</v>
+      </c>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="D186" t="s">
+        <v>207</v>
+      </c>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="E187" t="s">
+        <v>178</v>
+      </c>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="E188" t="s">
+        <v>179</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="D189" t="s">
+        <v>212</v>
+      </c>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="E190" t="s">
+        <v>178</v>
+      </c>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="E191" t="s">
+        <v>179</v>
+      </c>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="D192" t="s">
+        <v>312</v>
+      </c>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="E193" t="s">
+        <v>313</v>
+      </c>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="F194" t="s">
+        <v>314</v>
+      </c>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="8"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="10"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="4"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="16"/>
+      <c r="J234" s="16"/>
+      <c r="K234" s="6"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="16"/>
+      <c r="J235" s="16"/>
+      <c r="K235" s="6"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="J236" s="16"/>
+      <c r="K236" s="6"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="16"/>
+      <c r="J237" s="16"/>
+      <c r="K237" s="6"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+      <c r="J238" s="16"/>
+      <c r="K238" s="6"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="16"/>
+      <c r="K239" s="6"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16"/>
+      <c r="J240" s="16"/>
+      <c r="K240" s="6"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+      <c r="I241" s="16"/>
+      <c r="J241" s="16"/>
+      <c r="K241" s="6"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C242" s="16"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="16"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="16"/>
+      <c r="I242" s="16"/>
+      <c r="J242" s="16"/>
+      <c r="K242" s="6"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+      <c r="I243" s="16"/>
+      <c r="J243" s="16"/>
+      <c r="K243" s="6"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="16"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="16"/>
+      <c r="I244" s="16"/>
+      <c r="J244" s="16"/>
+      <c r="K244" s="6"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="16"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="16"/>
+      <c r="I245" s="16"/>
+      <c r="J245" s="16"/>
+      <c r="K245" s="6"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="16"/>
+      <c r="I246" s="16"/>
+      <c r="J246" s="16"/>
+      <c r="K246" s="6"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C247" s="16"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="16"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="16"/>
+      <c r="I247" s="16"/>
+      <c r="J247" s="16"/>
+      <c r="K247" s="6"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="16"/>
+      <c r="I248" s="16"/>
+      <c r="J248" s="16"/>
+      <c r="K248" s="6"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="E249" s="16"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="16"/>
+      <c r="I249" s="16"/>
+      <c r="J249" s="16"/>
+      <c r="K249" s="6"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C250" s="16"/>
+      <c r="D250" s="16"/>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="16"/>
+      <c r="I250" s="16"/>
+      <c r="J250" s="16"/>
+      <c r="K250" s="6"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C251" s="16"/>
+      <c r="D251" s="16"/>
+      <c r="E251" s="16"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="16"/>
+      <c r="K251" s="6"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C252" s="16"/>
+      <c r="D252" s="16"/>
+      <c r="E252" s="16"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+      <c r="H252" s="16"/>
+      <c r="I252" s="16"/>
+      <c r="J252" s="16"/>
+      <c r="K252" s="6"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="16"/>
+      <c r="J253" s="16"/>
+      <c r="K253" s="6"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="16"/>
+      <c r="I254" s="16"/>
+      <c r="J254" s="16"/>
+      <c r="K254" s="6"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C255" s="16"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="16"/>
+      <c r="F255" s="16"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+      <c r="I255" s="16"/>
+      <c r="J255" s="16"/>
+      <c r="K255" s="6"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="16"/>
+      <c r="J256" s="16"/>
+      <c r="K256" s="6"/>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B257" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C257" s="16"/>
+      <c r="D257" s="16"/>
+      <c r="E257" s="16"/>
+      <c r="F257" s="16"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="16"/>
+      <c r="I257" s="16"/>
+      <c r="J257" s="16"/>
+      <c r="K257" s="6"/>
+      <c r="L257" t="s">
+        <v>181</v>
+      </c>
+      <c r="M257" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+      <c r="H258" s="16"/>
+      <c r="I258" s="16"/>
+      <c r="J258" s="16"/>
+      <c r="K258" s="6"/>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B259" s="5"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="16"/>
+      <c r="J259" s="16"/>
+      <c r="K259" s="6"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C260" s="16"/>
+      <c r="D260" s="16"/>
+      <c r="E260" s="16"/>
+      <c r="F260" s="16"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="16"/>
+      <c r="I260" s="16"/>
+      <c r="J260" s="16"/>
+      <c r="K260" s="6"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="16"/>
+      <c r="I261" s="16"/>
+      <c r="J261" s="16"/>
+      <c r="K261" s="6"/>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B262" s="5"/>
+      <c r="C262" s="16"/>
+      <c r="D262" s="16"/>
+      <c r="E262" s="16"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="16"/>
+      <c r="H262" s="16"/>
+      <c r="I262" s="16"/>
+      <c r="J262" s="16"/>
+      <c r="K262" s="6"/>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="16"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="16"/>
+      <c r="I263" s="16"/>
+      <c r="J263" s="16"/>
+      <c r="K263" s="6"/>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C264" s="16"/>
+      <c r="D264" s="16"/>
+      <c r="E264" s="16"/>
+      <c r="F264" s="16"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="16"/>
+      <c r="J264" s="16"/>
+      <c r="K264" s="6"/>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C265" s="16"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="16"/>
+      <c r="F265" s="16"/>
+      <c r="G265" s="16"/>
+      <c r="H265" s="16"/>
+      <c r="I265" s="16"/>
+      <c r="J265" s="16"/>
+      <c r="K265" s="6"/>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B266" s="5"/>
+      <c r="C266" s="16"/>
+      <c r="D266" s="16"/>
+      <c r="E266" s="16"/>
+      <c r="F266" s="16"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="J266" s="16"/>
+      <c r="K266" s="6"/>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
+      <c r="K267" s="6"/>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B268" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C268" s="16"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="16"/>
+      <c r="F268" s="16"/>
+      <c r="G268" s="16"/>
+      <c r="H268" s="16"/>
+      <c r="I268" s="16"/>
+      <c r="J268" s="16"/>
+      <c r="K268" s="6"/>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B269" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="16"/>
+      <c r="F269" s="16"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="16"/>
+      <c r="J269" s="16"/>
+      <c r="K269" s="6"/>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B270" s="5"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="16"/>
+      <c r="F270" s="16"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="16"/>
+      <c r="I270" s="16"/>
+      <c r="J270" s="16"/>
+      <c r="K270" s="6"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B271" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+      <c r="H271" s="16"/>
+      <c r="I271" s="16"/>
+      <c r="J271" s="16"/>
+      <c r="K271" s="6"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="16"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="16"/>
+      <c r="I272" s="16"/>
+      <c r="J272" s="16"/>
+      <c r="K272" s="6"/>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C273" s="16"/>
+      <c r="D273" s="16"/>
+      <c r="E273" s="16"/>
+      <c r="F273" s="16"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="16"/>
+      <c r="J273" s="16"/>
+      <c r="K273" s="6"/>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="16"/>
+      <c r="I274" s="16"/>
+      <c r="J274" s="16"/>
+      <c r="K274" s="6"/>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B275" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="J275" s="16"/>
+      <c r="K275" s="6"/>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B276" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="16"/>
+      <c r="J276" s="16"/>
+      <c r="K276" s="6"/>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B277" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="16"/>
+      <c r="J277" s="16"/>
+      <c r="K277" s="6"/>
+      <c r="L277" t="s">
+        <v>181</v>
+      </c>
+      <c r="M277" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
+      <c r="K278" s="6"/>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B279" s="5"/>
+      <c r="C279" s="16"/>
+      <c r="D279" s="16"/>
+      <c r="E279" s="16"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="16"/>
+      <c r="J279" s="16"/>
+      <c r="K279" s="6"/>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="16"/>
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+      <c r="K280" s="6"/>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B281" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+      <c r="K281" s="6"/>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+      <c r="K282" s="6"/>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+      <c r="K283" s="6"/>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B284" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+      <c r="K284" s="6"/>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="5"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+      <c r="K285" s="6"/>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B286" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+      <c r="K286" s="6"/>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B287" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
+      <c r="K287" s="6"/>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B288" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
+      <c r="K288" s="6"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B289" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
+      <c r="K289" s="6"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
+      <c r="K290" s="6"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
+      <c r="K291" s="6"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B292" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
+      <c r="K292" s="6"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
+      <c r="K293" s="6"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B294" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
+      <c r="K294" s="6"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B295" s="5"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
+      <c r="K295" s="6"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B296" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
+      <c r="K296" s="6"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C297" s="16"/>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="16"/>
+      <c r="J297" s="16"/>
+      <c r="K297" s="6"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B298" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C298" s="16"/>
+      <c r="D298" s="16"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
+      <c r="H298" s="16"/>
+      <c r="I298" s="16"/>
+      <c r="J298" s="16"/>
+      <c r="K298" s="6"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B299" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="10"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/me/13.Year-2021-Updates.xlsx
+++ b/me/13.Year-2021-Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E7BDF-E171-4BF2-B309-A84947BEA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E0D55-060A-4A18-8362-33AFF00A0CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets in Javascript" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ParseAndFormatTheCalloutRespons" sheetId="5" r:id="rId5"/>
     <sheet name="FinishFormattingtheCalloutRespo" sheetId="6" r:id="rId6"/>
     <sheet name="Stylise Lightning Datatable" sheetId="7" r:id="rId7"/>
+    <sheet name="Add LWC as a Custom Tab" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="431">
   <si>
     <t>構成</t>
   </si>
@@ -1564,6 +1565,52 @@
       </rPr>
       <t xml:space="preserve"> atribute with custom class</t>
     </r>
+  </si>
+  <si>
+    <t>Lightning Tab - Add LWC as a Custom Tab</t>
+  </si>
+  <si>
+    <t>Add component in the utility bar of Salesforce application</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.reference_configuration_tags</t>
+  </si>
+  <si>
+    <t>    &lt;isExposed&gt;true&lt;/isExposed&gt;</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Make it comes after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab</t>
+    </r>
+  </si>
+  <si>
+    <t>Open Sales</t>
+  </si>
+  <si>
+    <t>App</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1710,6 +1757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3506,6 +3554,566 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E69C66-705D-FAAD-30CA-BDA5218E101E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736146" y="1228726"/>
+          <a:ext cx="11210925" cy="5278610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD346F0D-958C-17F2-9628-4FE602365B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2143125" y="4362450"/>
+          <a:ext cx="2552700" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139513</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>14161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEC59FF-C7C9-C9DB-6D0D-4DFB388ABFE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744631" y="9657230"/>
+          <a:ext cx="10943104" cy="5406431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>69418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64F7019-6B4B-4232-2EA6-C1DEB3202CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705972" y="52342677"/>
+          <a:ext cx="10981764" cy="5257741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>18524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514968B0-20B6-CB4C-B5A5-1DA3BCB3DA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="58012854"/>
+          <a:ext cx="11183470" cy="5632670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>29802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB69AA72-376D-B5F7-F822-06890FA3F461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="63907148"/>
+          <a:ext cx="11149853" cy="5464654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>110057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA90606A-72A5-E255-6305-704D22219A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739588" y="69633353"/>
+          <a:ext cx="11116236" cy="5533704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>185891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B716DA9-3390-8F3A-C128-3C526B6626ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="75718148"/>
+          <a:ext cx="11127441" cy="5620743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4065FD-E7D0-6BC4-F633-551C56DE51F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2229971" y="75594882"/>
+          <a:ext cx="7687235" cy="3406589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2151AE49-666D-54C2-5477-B5342283FC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2241176" y="75594882"/>
+          <a:ext cx="4695265" cy="2319618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>100822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C848B805-4394-C709-83E0-B1674CAC39F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="81858972"/>
+          <a:ext cx="11228294" cy="5490850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>3601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DE5233-2F5E-3760-BFE9-088BAEA68A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="87540353"/>
+          <a:ext cx="11194676" cy="5236748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14326,1241 +14934,238 @@
     </row>
     <row r="314" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="16"/>
-      <c r="E314" s="16"/>
-      <c r="F314" s="16"/>
-      <c r="G314" s="16"/>
-      <c r="H314" s="16"/>
-      <c r="I314" s="16"/>
-      <c r="J314" s="16"/>
-      <c r="K314" s="16"/>
-      <c r="L314" s="16"/>
-      <c r="M314" s="16"/>
-      <c r="N314" s="16"/>
-      <c r="O314" s="16"/>
-      <c r="P314" s="16"/>
-      <c r="Q314" s="16"/>
-      <c r="R314" s="16"/>
-      <c r="S314" s="16"/>
       <c r="T314" s="6"/>
     </row>
     <row r="315" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="16"/>
-      <c r="E315" s="16"/>
-      <c r="F315" s="16"/>
-      <c r="G315" s="16"/>
-      <c r="H315" s="16"/>
-      <c r="I315" s="16"/>
-      <c r="J315" s="16"/>
-      <c r="K315" s="16"/>
-      <c r="L315" s="16"/>
-      <c r="M315" s="16"/>
-      <c r="N315" s="16"/>
-      <c r="O315" s="16"/>
-      <c r="P315" s="16"/>
-      <c r="Q315" s="16"/>
-      <c r="R315" s="16"/>
-      <c r="S315" s="16"/>
       <c r="T315" s="6"/>
     </row>
     <row r="316" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B316" s="5"/>
-      <c r="C316" s="16"/>
-      <c r="D316" s="16"/>
-      <c r="E316" s="16"/>
-      <c r="F316" s="16"/>
-      <c r="G316" s="16"/>
-      <c r="H316" s="16"/>
-      <c r="I316" s="16"/>
-      <c r="J316" s="16"/>
-      <c r="K316" s="16"/>
-      <c r="L316" s="16"/>
-      <c r="M316" s="16"/>
-      <c r="N316" s="16"/>
-      <c r="O316" s="16"/>
-      <c r="P316" s="16"/>
-      <c r="Q316" s="16"/>
-      <c r="R316" s="16"/>
-      <c r="S316" s="16"/>
       <c r="T316" s="6"/>
     </row>
     <row r="317" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
-      <c r="C317" s="16"/>
-      <c r="D317" s="16"/>
-      <c r="E317" s="16"/>
-      <c r="F317" s="16"/>
-      <c r="G317" s="16"/>
-      <c r="H317" s="16"/>
-      <c r="I317" s="16"/>
-      <c r="J317" s="16"/>
-      <c r="K317" s="16"/>
-      <c r="L317" s="16"/>
-      <c r="M317" s="16"/>
-      <c r="N317" s="16"/>
-      <c r="O317" s="16"/>
-      <c r="P317" s="16"/>
-      <c r="Q317" s="16"/>
-      <c r="R317" s="16"/>
-      <c r="S317" s="16"/>
       <c r="T317" s="6"/>
     </row>
     <row r="318" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
-      <c r="C318" s="16"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="16"/>
-      <c r="F318" s="16"/>
-      <c r="G318" s="16"/>
-      <c r="H318" s="16"/>
-      <c r="I318" s="16"/>
-      <c r="J318" s="16"/>
-      <c r="K318" s="16"/>
-      <c r="L318" s="16"/>
-      <c r="M318" s="16"/>
-      <c r="N318" s="16"/>
-      <c r="O318" s="16"/>
-      <c r="P318" s="16"/>
-      <c r="Q318" s="16"/>
-      <c r="R318" s="16"/>
-      <c r="S318" s="16"/>
       <c r="T318" s="6"/>
     </row>
     <row r="319" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
-      <c r="C319" s="16"/>
-      <c r="D319" s="16"/>
-      <c r="E319" s="16"/>
-      <c r="F319" s="16"/>
-      <c r="G319" s="16"/>
-      <c r="H319" s="16"/>
-      <c r="I319" s="16"/>
-      <c r="J319" s="16"/>
-      <c r="K319" s="16"/>
-      <c r="L319" s="16"/>
-      <c r="M319" s="16"/>
-      <c r="N319" s="16"/>
-      <c r="O319" s="16"/>
-      <c r="P319" s="16"/>
-      <c r="Q319" s="16"/>
-      <c r="R319" s="16"/>
-      <c r="S319" s="16"/>
       <c r="T319" s="6"/>
     </row>
     <row r="320" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="16"/>
-      <c r="E320" s="16"/>
-      <c r="F320" s="16"/>
-      <c r="G320" s="16"/>
-      <c r="H320" s="16"/>
-      <c r="I320" s="16"/>
-      <c r="J320" s="16"/>
-      <c r="K320" s="16"/>
-      <c r="L320" s="16"/>
-      <c r="M320" s="16"/>
-      <c r="N320" s="16"/>
-      <c r="O320" s="16"/>
-      <c r="P320" s="16"/>
-      <c r="Q320" s="16"/>
-      <c r="R320" s="16"/>
-      <c r="S320" s="16"/>
       <c r="T320" s="6"/>
     </row>
     <row r="321" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B321" s="5"/>
-      <c r="C321" s="16"/>
-      <c r="D321" s="16"/>
-      <c r="E321" s="16"/>
-      <c r="F321" s="16"/>
-      <c r="G321" s="16"/>
-      <c r="H321" s="16"/>
-      <c r="I321" s="16"/>
-      <c r="J321" s="16"/>
-      <c r="K321" s="16"/>
-      <c r="L321" s="16"/>
-      <c r="M321" s="16"/>
-      <c r="N321" s="16"/>
-      <c r="O321" s="16"/>
-      <c r="P321" s="16"/>
-      <c r="Q321" s="16"/>
-      <c r="R321" s="16"/>
-      <c r="S321" s="16"/>
       <c r="T321" s="6"/>
     </row>
     <row r="322" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B322" s="5"/>
-      <c r="C322" s="16"/>
-      <c r="D322" s="16"/>
-      <c r="E322" s="16"/>
-      <c r="F322" s="16"/>
-      <c r="G322" s="16"/>
-      <c r="H322" s="16"/>
-      <c r="I322" s="16"/>
-      <c r="J322" s="16"/>
-      <c r="K322" s="16"/>
-      <c r="L322" s="16"/>
-      <c r="M322" s="16"/>
-      <c r="N322" s="16"/>
-      <c r="O322" s="16"/>
-      <c r="P322" s="16"/>
-      <c r="Q322" s="16"/>
-      <c r="R322" s="16"/>
-      <c r="S322" s="16"/>
       <c r="T322" s="6"/>
     </row>
     <row r="323" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
-      <c r="C323" s="16"/>
-      <c r="D323" s="16"/>
-      <c r="E323" s="16"/>
-      <c r="F323" s="16"/>
-      <c r="G323" s="16"/>
-      <c r="H323" s="16"/>
-      <c r="I323" s="16"/>
-      <c r="J323" s="16"/>
-      <c r="K323" s="16"/>
-      <c r="L323" s="16"/>
-      <c r="M323" s="16"/>
-      <c r="N323" s="16"/>
-      <c r="O323" s="16"/>
-      <c r="P323" s="16"/>
-      <c r="Q323" s="16"/>
-      <c r="R323" s="16"/>
-      <c r="S323" s="16"/>
       <c r="T323" s="6"/>
     </row>
     <row r="324" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
-      <c r="C324" s="16"/>
-      <c r="D324" s="16"/>
-      <c r="E324" s="16"/>
-      <c r="F324" s="16"/>
-      <c r="G324" s="16"/>
-      <c r="H324" s="16"/>
-      <c r="I324" s="16"/>
-      <c r="J324" s="16"/>
-      <c r="K324" s="16"/>
-      <c r="L324" s="16"/>
-      <c r="M324" s="16"/>
-      <c r="N324" s="16"/>
-      <c r="O324" s="16"/>
-      <c r="P324" s="16"/>
-      <c r="Q324" s="16"/>
-      <c r="R324" s="16"/>
-      <c r="S324" s="16"/>
       <c r="T324" s="6"/>
     </row>
     <row r="325" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B325" s="5"/>
-      <c r="C325" s="16"/>
-      <c r="D325" s="16"/>
-      <c r="E325" s="16"/>
-      <c r="F325" s="16"/>
-      <c r="G325" s="16"/>
-      <c r="H325" s="16"/>
-      <c r="I325" s="16"/>
-      <c r="J325" s="16"/>
-      <c r="K325" s="16"/>
-      <c r="L325" s="16"/>
-      <c r="M325" s="16"/>
-      <c r="N325" s="16"/>
-      <c r="O325" s="16"/>
-      <c r="P325" s="16"/>
-      <c r="Q325" s="16"/>
-      <c r="R325" s="16"/>
-      <c r="S325" s="16"/>
       <c r="T325" s="6"/>
     </row>
     <row r="326" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
-      <c r="C326" s="16"/>
-      <c r="D326" s="16"/>
-      <c r="E326" s="16"/>
-      <c r="F326" s="16"/>
-      <c r="G326" s="16"/>
-      <c r="H326" s="16"/>
-      <c r="I326" s="16"/>
-      <c r="J326" s="16"/>
-      <c r="K326" s="16"/>
-      <c r="L326" s="16"/>
-      <c r="M326" s="16"/>
-      <c r="N326" s="16"/>
-      <c r="O326" s="16"/>
-      <c r="P326" s="16"/>
-      <c r="Q326" s="16"/>
-      <c r="R326" s="16"/>
-      <c r="S326" s="16"/>
       <c r="T326" s="6"/>
     </row>
     <row r="327" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B327" s="5"/>
-      <c r="C327" s="16"/>
-      <c r="D327" s="16"/>
-      <c r="E327" s="16"/>
-      <c r="F327" s="16"/>
-      <c r="G327" s="16"/>
-      <c r="H327" s="16"/>
-      <c r="I327" s="16"/>
-      <c r="J327" s="16"/>
-      <c r="K327" s="16"/>
-      <c r="L327" s="16"/>
-      <c r="M327" s="16"/>
-      <c r="N327" s="16"/>
-      <c r="O327" s="16"/>
-      <c r="P327" s="16"/>
-      <c r="Q327" s="16"/>
-      <c r="R327" s="16"/>
-      <c r="S327" s="16"/>
       <c r="T327" s="6"/>
     </row>
     <row r="328" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B328" s="5"/>
-      <c r="C328" s="16"/>
-      <c r="D328" s="16"/>
-      <c r="E328" s="16"/>
-      <c r="F328" s="16"/>
-      <c r="G328" s="16"/>
-      <c r="H328" s="16"/>
-      <c r="I328" s="16"/>
-      <c r="J328" s="16"/>
-      <c r="K328" s="16"/>
-      <c r="L328" s="16"/>
-      <c r="M328" s="16"/>
-      <c r="N328" s="16"/>
-      <c r="O328" s="16"/>
-      <c r="P328" s="16"/>
-      <c r="Q328" s="16"/>
-      <c r="R328" s="16"/>
-      <c r="S328" s="16"/>
       <c r="T328" s="6"/>
     </row>
     <row r="329" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B329" s="5"/>
-      <c r="C329" s="16"/>
-      <c r="D329" s="16"/>
-      <c r="E329" s="16"/>
-      <c r="F329" s="16"/>
-      <c r="G329" s="16"/>
-      <c r="H329" s="16"/>
-      <c r="I329" s="16"/>
-      <c r="J329" s="16"/>
-      <c r="K329" s="16"/>
-      <c r="L329" s="16"/>
-      <c r="M329" s="16"/>
-      <c r="N329" s="16"/>
-      <c r="O329" s="16"/>
-      <c r="P329" s="16"/>
-      <c r="Q329" s="16"/>
-      <c r="R329" s="16"/>
-      <c r="S329" s="16"/>
       <c r="T329" s="6"/>
     </row>
     <row r="330" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B330" s="5"/>
-      <c r="C330" s="16"/>
-      <c r="D330" s="16"/>
-      <c r="E330" s="16"/>
-      <c r="F330" s="16"/>
-      <c r="G330" s="16"/>
-      <c r="H330" s="16"/>
-      <c r="I330" s="16"/>
-      <c r="J330" s="16"/>
-      <c r="K330" s="16"/>
-      <c r="L330" s="16"/>
-      <c r="M330" s="16"/>
-      <c r="N330" s="16"/>
-      <c r="O330" s="16"/>
-      <c r="P330" s="16"/>
-      <c r="Q330" s="16"/>
-      <c r="R330" s="16"/>
-      <c r="S330" s="16"/>
       <c r="T330" s="6"/>
     </row>
     <row r="331" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B331" s="5"/>
-      <c r="C331" s="16"/>
-      <c r="D331" s="16"/>
-      <c r="E331" s="16"/>
-      <c r="F331" s="16"/>
-      <c r="G331" s="16"/>
-      <c r="H331" s="16"/>
-      <c r="I331" s="16"/>
-      <c r="J331" s="16"/>
-      <c r="K331" s="16"/>
-      <c r="L331" s="16"/>
-      <c r="M331" s="16"/>
-      <c r="N331" s="16"/>
-      <c r="O331" s="16"/>
-      <c r="P331" s="16"/>
-      <c r="Q331" s="16"/>
-      <c r="R331" s="16"/>
-      <c r="S331" s="16"/>
       <c r="T331" s="6"/>
     </row>
     <row r="332" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B332" s="5"/>
-      <c r="C332" s="16"/>
-      <c r="D332" s="16"/>
-      <c r="E332" s="16"/>
-      <c r="F332" s="16"/>
-      <c r="G332" s="16"/>
-      <c r="H332" s="16"/>
-      <c r="I332" s="16"/>
-      <c r="J332" s="16"/>
-      <c r="K332" s="16"/>
-      <c r="L332" s="16"/>
-      <c r="M332" s="16"/>
-      <c r="N332" s="16"/>
-      <c r="O332" s="16"/>
-      <c r="P332" s="16"/>
-      <c r="Q332" s="16"/>
-      <c r="R332" s="16"/>
-      <c r="S332" s="16"/>
       <c r="T332" s="6"/>
     </row>
     <row r="333" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B333" s="5"/>
-      <c r="C333" s="16"/>
-      <c r="D333" s="16"/>
-      <c r="E333" s="16"/>
-      <c r="F333" s="16"/>
-      <c r="G333" s="16"/>
-      <c r="H333" s="16"/>
-      <c r="I333" s="16"/>
-      <c r="J333" s="16"/>
-      <c r="K333" s="16"/>
-      <c r="L333" s="16"/>
-      <c r="M333" s="16"/>
-      <c r="N333" s="16"/>
-      <c r="O333" s="16"/>
-      <c r="P333" s="16"/>
-      <c r="Q333" s="16"/>
-      <c r="R333" s="16"/>
-      <c r="S333" s="16"/>
       <c r="T333" s="6"/>
     </row>
     <row r="334" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B334" s="5"/>
-      <c r="C334" s="16"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="16"/>
-      <c r="F334" s="16"/>
-      <c r="G334" s="16"/>
-      <c r="H334" s="16"/>
-      <c r="I334" s="16"/>
-      <c r="J334" s="16"/>
-      <c r="K334" s="16"/>
-      <c r="L334" s="16"/>
-      <c r="M334" s="16"/>
-      <c r="N334" s="16"/>
-      <c r="O334" s="16"/>
-      <c r="P334" s="16"/>
-      <c r="Q334" s="16"/>
-      <c r="R334" s="16"/>
-      <c r="S334" s="16"/>
       <c r="T334" s="6"/>
     </row>
     <row r="335" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B335" s="5"/>
-      <c r="C335" s="16"/>
-      <c r="D335" s="16"/>
-      <c r="E335" s="16"/>
-      <c r="F335" s="16"/>
-      <c r="G335" s="16"/>
-      <c r="H335" s="16"/>
-      <c r="I335" s="16"/>
-      <c r="J335" s="16"/>
-      <c r="K335" s="16"/>
-      <c r="L335" s="16"/>
-      <c r="M335" s="16"/>
-      <c r="N335" s="16"/>
-      <c r="O335" s="16"/>
-      <c r="P335" s="16"/>
-      <c r="Q335" s="16"/>
-      <c r="R335" s="16"/>
-      <c r="S335" s="16"/>
       <c r="T335" s="6"/>
     </row>
     <row r="336" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B336" s="5"/>
-      <c r="C336" s="16"/>
-      <c r="D336" s="16"/>
-      <c r="E336" s="16"/>
-      <c r="F336" s="16"/>
-      <c r="G336" s="16"/>
-      <c r="H336" s="16"/>
-      <c r="I336" s="16"/>
-      <c r="J336" s="16"/>
-      <c r="K336" s="16"/>
-      <c r="L336" s="16"/>
-      <c r="M336" s="16"/>
-      <c r="N336" s="16"/>
-      <c r="O336" s="16"/>
-      <c r="P336" s="16"/>
-      <c r="Q336" s="16"/>
-      <c r="R336" s="16"/>
-      <c r="S336" s="16"/>
       <c r="T336" s="6"/>
     </row>
     <row r="337" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B337" s="5"/>
-      <c r="C337" s="16"/>
-      <c r="D337" s="16"/>
-      <c r="E337" s="16"/>
-      <c r="F337" s="16"/>
-      <c r="G337" s="16"/>
-      <c r="H337" s="16"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="16"/>
-      <c r="L337" s="16"/>
-      <c r="M337" s="16"/>
-      <c r="N337" s="16"/>
-      <c r="O337" s="16"/>
-      <c r="P337" s="16"/>
-      <c r="Q337" s="16"/>
-      <c r="R337" s="16"/>
-      <c r="S337" s="16"/>
       <c r="T337" s="6"/>
     </row>
     <row r="338" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B338" s="5"/>
-      <c r="C338" s="16"/>
-      <c r="D338" s="16"/>
-      <c r="E338" s="16"/>
-      <c r="F338" s="16"/>
-      <c r="G338" s="16"/>
-      <c r="H338" s="16"/>
-      <c r="I338" s="16"/>
-      <c r="J338" s="16"/>
-      <c r="K338" s="16"/>
-      <c r="L338" s="16"/>
-      <c r="M338" s="16"/>
-      <c r="N338" s="16"/>
-      <c r="O338" s="16"/>
-      <c r="P338" s="16"/>
-      <c r="Q338" s="16"/>
-      <c r="R338" s="16"/>
-      <c r="S338" s="16"/>
       <c r="T338" s="6"/>
     </row>
     <row r="339" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B339" s="5"/>
-      <c r="C339" s="16"/>
-      <c r="D339" s="16"/>
-      <c r="E339" s="16"/>
-      <c r="F339" s="16"/>
-      <c r="G339" s="16"/>
-      <c r="H339" s="16"/>
-      <c r="I339" s="16"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="16"/>
-      <c r="L339" s="16"/>
-      <c r="M339" s="16"/>
-      <c r="N339" s="16"/>
-      <c r="O339" s="16"/>
-      <c r="P339" s="16"/>
-      <c r="Q339" s="16"/>
-      <c r="R339" s="16"/>
-      <c r="S339" s="16"/>
       <c r="T339" s="6"/>
     </row>
     <row r="340" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B340" s="5"/>
-      <c r="C340" s="16"/>
-      <c r="D340" s="16"/>
-      <c r="E340" s="16"/>
-      <c r="F340" s="16"/>
-      <c r="G340" s="16"/>
-      <c r="H340" s="16"/>
-      <c r="I340" s="16"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="16"/>
-      <c r="L340" s="16"/>
-      <c r="M340" s="16"/>
-      <c r="N340" s="16"/>
-      <c r="O340" s="16"/>
-      <c r="P340" s="16"/>
-      <c r="Q340" s="16"/>
-      <c r="R340" s="16"/>
-      <c r="S340" s="16"/>
       <c r="T340" s="6"/>
     </row>
     <row r="341" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B341" s="5"/>
-      <c r="C341" s="16"/>
-      <c r="D341" s="16"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="16"/>
-      <c r="G341" s="16"/>
-      <c r="H341" s="16"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="16"/>
-      <c r="L341" s="16"/>
-      <c r="M341" s="16"/>
-      <c r="N341" s="16"/>
-      <c r="O341" s="16"/>
-      <c r="P341" s="16"/>
-      <c r="Q341" s="16"/>
-      <c r="R341" s="16"/>
-      <c r="S341" s="16"/>
       <c r="T341" s="6"/>
     </row>
     <row r="342" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B342" s="5"/>
-      <c r="C342" s="16"/>
-      <c r="D342" s="16"/>
-      <c r="E342" s="16"/>
-      <c r="F342" s="16"/>
-      <c r="G342" s="16"/>
-      <c r="H342" s="16"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="16"/>
-      <c r="L342" s="16"/>
-      <c r="M342" s="16"/>
-      <c r="N342" s="16"/>
-      <c r="O342" s="16"/>
-      <c r="P342" s="16"/>
-      <c r="Q342" s="16"/>
-      <c r="R342" s="16"/>
-      <c r="S342" s="16"/>
       <c r="T342" s="6"/>
     </row>
     <row r="343" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B343" s="5"/>
-      <c r="C343" s="16"/>
-      <c r="D343" s="16"/>
-      <c r="E343" s="16"/>
-      <c r="F343" s="16"/>
-      <c r="G343" s="16"/>
-      <c r="H343" s="16"/>
-      <c r="I343" s="16"/>
-      <c r="J343" s="16"/>
-      <c r="K343" s="16"/>
-      <c r="L343" s="16"/>
-      <c r="M343" s="16"/>
-      <c r="N343" s="16"/>
-      <c r="O343" s="16"/>
-      <c r="P343" s="16"/>
-      <c r="Q343" s="16"/>
-      <c r="R343" s="16"/>
-      <c r="S343" s="16"/>
       <c r="T343" s="6"/>
     </row>
     <row r="344" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B344" s="5"/>
-      <c r="C344" s="16"/>
-      <c r="D344" s="16"/>
-      <c r="E344" s="16"/>
-      <c r="F344" s="16"/>
-      <c r="G344" s="16"/>
-      <c r="H344" s="16"/>
-      <c r="I344" s="16"/>
-      <c r="J344" s="16"/>
-      <c r="K344" s="16"/>
-      <c r="L344" s="16"/>
-      <c r="M344" s="16"/>
-      <c r="N344" s="16"/>
-      <c r="O344" s="16"/>
-      <c r="P344" s="16"/>
-      <c r="Q344" s="16"/>
-      <c r="R344" s="16"/>
-      <c r="S344" s="16"/>
       <c r="T344" s="6"/>
     </row>
     <row r="345" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B345" s="5"/>
-      <c r="C345" s="16"/>
-      <c r="D345" s="16"/>
-      <c r="E345" s="16"/>
-      <c r="F345" s="16"/>
-      <c r="G345" s="16"/>
-      <c r="H345" s="16"/>
-      <c r="I345" s="16"/>
-      <c r="J345" s="16"/>
-      <c r="K345" s="16"/>
-      <c r="L345" s="16"/>
-      <c r="M345" s="16"/>
-      <c r="N345" s="16"/>
-      <c r="O345" s="16"/>
-      <c r="P345" s="16"/>
-      <c r="Q345" s="16"/>
-      <c r="R345" s="16"/>
-      <c r="S345" s="16"/>
       <c r="T345" s="6"/>
     </row>
     <row r="346" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
-      <c r="C346" s="16"/>
-      <c r="D346" s="16"/>
-      <c r="E346" s="16"/>
-      <c r="F346" s="16"/>
-      <c r="G346" s="16"/>
-      <c r="H346" s="16"/>
-      <c r="I346" s="16"/>
-      <c r="J346" s="16"/>
-      <c r="K346" s="16"/>
-      <c r="L346" s="16"/>
-      <c r="M346" s="16"/>
-      <c r="N346" s="16"/>
-      <c r="O346" s="16"/>
-      <c r="P346" s="16"/>
-      <c r="Q346" s="16"/>
-      <c r="R346" s="16"/>
-      <c r="S346" s="16"/>
       <c r="T346" s="6"/>
     </row>
     <row r="347" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B347" s="5"/>
-      <c r="C347" s="16"/>
-      <c r="D347" s="16"/>
-      <c r="E347" s="16"/>
-      <c r="F347" s="16"/>
-      <c r="G347" s="16"/>
-      <c r="H347" s="16"/>
-      <c r="I347" s="16"/>
-      <c r="J347" s="16"/>
-      <c r="K347" s="16"/>
-      <c r="L347" s="16"/>
-      <c r="M347" s="16"/>
-      <c r="N347" s="16"/>
-      <c r="O347" s="16"/>
-      <c r="P347" s="16"/>
-      <c r="Q347" s="16"/>
-      <c r="R347" s="16"/>
-      <c r="S347" s="16"/>
       <c r="T347" s="6"/>
     </row>
     <row r="348" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B348" s="5"/>
-      <c r="C348" s="16"/>
-      <c r="D348" s="16"/>
-      <c r="E348" s="16"/>
-      <c r="F348" s="16"/>
-      <c r="G348" s="16"/>
-      <c r="H348" s="16"/>
-      <c r="I348" s="16"/>
-      <c r="J348" s="16"/>
-      <c r="K348" s="16"/>
-      <c r="L348" s="16"/>
-      <c r="M348" s="16"/>
-      <c r="N348" s="16"/>
-      <c r="O348" s="16"/>
-      <c r="P348" s="16"/>
-      <c r="Q348" s="16"/>
-      <c r="R348" s="16"/>
-      <c r="S348" s="16"/>
       <c r="T348" s="6"/>
     </row>
     <row r="349" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B349" s="5"/>
-      <c r="C349" s="16"/>
-      <c r="D349" s="16"/>
-      <c r="E349" s="16"/>
-      <c r="F349" s="16"/>
-      <c r="G349" s="16"/>
-      <c r="H349" s="16"/>
-      <c r="I349" s="16"/>
-      <c r="J349" s="16"/>
-      <c r="K349" s="16"/>
-      <c r="L349" s="16"/>
-      <c r="M349" s="16"/>
-      <c r="N349" s="16"/>
-      <c r="O349" s="16"/>
-      <c r="P349" s="16"/>
-      <c r="Q349" s="16"/>
-      <c r="R349" s="16"/>
-      <c r="S349" s="16"/>
       <c r="T349" s="6"/>
     </row>
     <row r="350" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B350" s="5"/>
-      <c r="C350" s="16"/>
-      <c r="D350" s="16"/>
-      <c r="E350" s="16"/>
-      <c r="F350" s="16"/>
-      <c r="G350" s="16"/>
-      <c r="H350" s="16"/>
-      <c r="I350" s="16"/>
-      <c r="J350" s="16"/>
-      <c r="K350" s="16"/>
-      <c r="L350" s="16"/>
-      <c r="M350" s="16"/>
-      <c r="N350" s="16"/>
-      <c r="O350" s="16"/>
-      <c r="P350" s="16"/>
-      <c r="Q350" s="16"/>
-      <c r="R350" s="16"/>
-      <c r="S350" s="16"/>
       <c r="T350" s="6"/>
     </row>
     <row r="351" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B351" s="5"/>
-      <c r="C351" s="16"/>
-      <c r="D351" s="16"/>
-      <c r="E351" s="16"/>
-      <c r="F351" s="16"/>
-      <c r="G351" s="16"/>
-      <c r="H351" s="16"/>
-      <c r="I351" s="16"/>
-      <c r="J351" s="16"/>
-      <c r="K351" s="16"/>
-      <c r="L351" s="16"/>
-      <c r="M351" s="16"/>
-      <c r="N351" s="16"/>
-      <c r="O351" s="16"/>
-      <c r="P351" s="16"/>
-      <c r="Q351" s="16"/>
-      <c r="R351" s="16"/>
-      <c r="S351" s="16"/>
       <c r="T351" s="6"/>
     </row>
     <row r="352" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B352" s="5"/>
-      <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="16"/>
-      <c r="H352" s="16"/>
-      <c r="I352" s="16"/>
-      <c r="J352" s="16"/>
-      <c r="K352" s="16"/>
-      <c r="L352" s="16"/>
-      <c r="M352" s="16"/>
-      <c r="N352" s="16"/>
-      <c r="O352" s="16"/>
-      <c r="P352" s="16"/>
-      <c r="Q352" s="16"/>
-      <c r="R352" s="16"/>
-      <c r="S352" s="16"/>
       <c r="T352" s="6"/>
     </row>
     <row r="353" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B353" s="5"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="16"/>
-      <c r="F353" s="16"/>
-      <c r="G353" s="16"/>
-      <c r="H353" s="16"/>
-      <c r="I353" s="16"/>
-      <c r="J353" s="16"/>
-      <c r="K353" s="16"/>
-      <c r="L353" s="16"/>
-      <c r="M353" s="16"/>
-      <c r="N353" s="16"/>
-      <c r="O353" s="16"/>
-      <c r="P353" s="16"/>
-      <c r="Q353" s="16"/>
-      <c r="R353" s="16"/>
-      <c r="S353" s="16"/>
       <c r="T353" s="6"/>
     </row>
     <row r="354" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
-      <c r="C354" s="16"/>
-      <c r="D354" s="16"/>
-      <c r="E354" s="16"/>
-      <c r="F354" s="16"/>
-      <c r="G354" s="16"/>
-      <c r="H354" s="16"/>
-      <c r="I354" s="16"/>
-      <c r="J354" s="16"/>
-      <c r="K354" s="16"/>
-      <c r="L354" s="16"/>
-      <c r="M354" s="16"/>
-      <c r="N354" s="16"/>
-      <c r="O354" s="16"/>
-      <c r="P354" s="16"/>
-      <c r="Q354" s="16"/>
-      <c r="R354" s="16"/>
-      <c r="S354" s="16"/>
       <c r="T354" s="6"/>
     </row>
     <row r="355" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B355" s="5"/>
-      <c r="C355" s="16"/>
-      <c r="D355" s="16"/>
-      <c r="E355" s="16"/>
-      <c r="F355" s="16"/>
-      <c r="G355" s="16"/>
-      <c r="H355" s="16"/>
-      <c r="I355" s="16"/>
-      <c r="J355" s="16"/>
-      <c r="K355" s="16"/>
-      <c r="L355" s="16"/>
-      <c r="M355" s="16"/>
-      <c r="N355" s="16"/>
-      <c r="O355" s="16"/>
-      <c r="P355" s="16"/>
-      <c r="Q355" s="16"/>
-      <c r="R355" s="16"/>
-      <c r="S355" s="16"/>
       <c r="T355" s="6"/>
     </row>
     <row r="356" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
-      <c r="C356" s="16"/>
-      <c r="D356" s="16"/>
-      <c r="E356" s="16"/>
-      <c r="F356" s="16"/>
-      <c r="G356" s="16"/>
-      <c r="H356" s="16"/>
-      <c r="I356" s="16"/>
-      <c r="J356" s="16"/>
-      <c r="K356" s="16"/>
-      <c r="L356" s="16"/>
-      <c r="M356" s="16"/>
-      <c r="N356" s="16"/>
-      <c r="O356" s="16"/>
-      <c r="P356" s="16"/>
-      <c r="Q356" s="16"/>
-      <c r="R356" s="16"/>
-      <c r="S356" s="16"/>
       <c r="T356" s="6"/>
     </row>
     <row r="357" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B357" s="5"/>
-      <c r="C357" s="16"/>
-      <c r="D357" s="16"/>
-      <c r="E357" s="16"/>
-      <c r="F357" s="16"/>
-      <c r="G357" s="16"/>
-      <c r="H357" s="16"/>
-      <c r="I357" s="16"/>
-      <c r="J357" s="16"/>
-      <c r="K357" s="16"/>
-      <c r="L357" s="16"/>
-      <c r="M357" s="16"/>
-      <c r="N357" s="16"/>
-      <c r="O357" s="16"/>
-      <c r="P357" s="16"/>
-      <c r="Q357" s="16"/>
-      <c r="R357" s="16"/>
-      <c r="S357" s="16"/>
       <c r="T357" s="6"/>
     </row>
     <row r="358" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B358" s="5"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
-      <c r="E358" s="16"/>
-      <c r="F358" s="16"/>
-      <c r="G358" s="16"/>
-      <c r="H358" s="16"/>
-      <c r="I358" s="16"/>
-      <c r="J358" s="16"/>
-      <c r="K358" s="16"/>
-      <c r="L358" s="16"/>
-      <c r="M358" s="16"/>
-      <c r="N358" s="16"/>
-      <c r="O358" s="16"/>
-      <c r="P358" s="16"/>
-      <c r="Q358" s="16"/>
-      <c r="R358" s="16"/>
-      <c r="S358" s="16"/>
       <c r="T358" s="6"/>
     </row>
     <row r="359" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B359" s="5"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="16"/>
-      <c r="F359" s="16"/>
-      <c r="G359" s="16"/>
-      <c r="H359" s="16"/>
-      <c r="I359" s="16"/>
-      <c r="J359" s="16"/>
-      <c r="K359" s="16"/>
-      <c r="L359" s="16"/>
-      <c r="M359" s="16"/>
-      <c r="N359" s="16"/>
-      <c r="O359" s="16"/>
-      <c r="P359" s="16"/>
-      <c r="Q359" s="16"/>
-      <c r="R359" s="16"/>
-      <c r="S359" s="16"/>
       <c r="T359" s="6"/>
     </row>
     <row r="360" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="16"/>
-      <c r="E360" s="16"/>
-      <c r="F360" s="16"/>
-      <c r="G360" s="16"/>
-      <c r="H360" s="16"/>
-      <c r="I360" s="16"/>
-      <c r="J360" s="16"/>
-      <c r="K360" s="16"/>
-      <c r="L360" s="16"/>
-      <c r="M360" s="16"/>
-      <c r="N360" s="16"/>
-      <c r="O360" s="16"/>
-      <c r="P360" s="16"/>
-      <c r="Q360" s="16"/>
-      <c r="R360" s="16"/>
-      <c r="S360" s="16"/>
       <c r="T360" s="6"/>
     </row>
     <row r="361" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
-      <c r="C361" s="16"/>
-      <c r="D361" s="16"/>
-      <c r="E361" s="16"/>
-      <c r="F361" s="16"/>
-      <c r="G361" s="16"/>
-      <c r="H361" s="16"/>
-      <c r="I361" s="16"/>
-      <c r="J361" s="16"/>
-      <c r="K361" s="16"/>
-      <c r="L361" s="16"/>
-      <c r="M361" s="16"/>
-      <c r="N361" s="16"/>
-      <c r="O361" s="16"/>
-      <c r="P361" s="16"/>
-      <c r="Q361" s="16"/>
-      <c r="R361" s="16"/>
-      <c r="S361" s="16"/>
       <c r="T361" s="6"/>
     </row>
     <row r="362" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B362" s="5"/>
-      <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
-      <c r="E362" s="16"/>
-      <c r="F362" s="16"/>
-      <c r="G362" s="16"/>
-      <c r="H362" s="16"/>
-      <c r="I362" s="16"/>
-      <c r="J362" s="16"/>
-      <c r="K362" s="16"/>
-      <c r="L362" s="16"/>
-      <c r="M362" s="16"/>
-      <c r="N362" s="16"/>
-      <c r="O362" s="16"/>
-      <c r="P362" s="16"/>
-      <c r="Q362" s="16"/>
-      <c r="R362" s="16"/>
-      <c r="S362" s="16"/>
       <c r="T362" s="6"/>
     </row>
     <row r="363" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="16"/>
-      <c r="F363" s="16"/>
-      <c r="G363" s="16"/>
-      <c r="H363" s="16"/>
-      <c r="I363" s="16"/>
-      <c r="J363" s="16"/>
-      <c r="K363" s="16"/>
-      <c r="L363" s="16"/>
-      <c r="M363" s="16"/>
-      <c r="N363" s="16"/>
-      <c r="O363" s="16"/>
-      <c r="P363" s="16"/>
-      <c r="Q363" s="16"/>
-      <c r="R363" s="16"/>
-      <c r="S363" s="16"/>
       <c r="T363" s="6"/>
     </row>
     <row r="364" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
-      <c r="C364" s="16"/>
-      <c r="D364" s="16"/>
-      <c r="E364" s="16"/>
-      <c r="F364" s="16"/>
-      <c r="G364" s="16"/>
-      <c r="H364" s="16"/>
-      <c r="I364" s="16"/>
-      <c r="J364" s="16"/>
-      <c r="K364" s="16"/>
-      <c r="L364" s="16"/>
-      <c r="M364" s="16"/>
-      <c r="N364" s="16"/>
-      <c r="O364" s="16"/>
-      <c r="P364" s="16"/>
-      <c r="Q364" s="16"/>
-      <c r="R364" s="16"/>
-      <c r="S364" s="16"/>
       <c r="T364" s="6"/>
     </row>
     <row r="365" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B365" s="5"/>
-      <c r="C365" s="16"/>
-      <c r="D365" s="16"/>
-      <c r="E365" s="16"/>
-      <c r="F365" s="16"/>
-      <c r="G365" s="16"/>
-      <c r="H365" s="16"/>
-      <c r="I365" s="16"/>
-      <c r="J365" s="16"/>
-      <c r="K365" s="16"/>
-      <c r="L365" s="16"/>
-      <c r="M365" s="16"/>
-      <c r="N365" s="16"/>
-      <c r="O365" s="16"/>
-      <c r="P365" s="16"/>
-      <c r="Q365" s="16"/>
-      <c r="R365" s="16"/>
-      <c r="S365" s="16"/>
       <c r="T365" s="6"/>
     </row>
     <row r="366" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B366" s="5"/>
-      <c r="C366" s="16"/>
-      <c r="D366" s="16"/>
-      <c r="E366" s="16"/>
-      <c r="F366" s="16"/>
-      <c r="G366" s="16"/>
-      <c r="H366" s="16"/>
-      <c r="I366" s="16"/>
-      <c r="J366" s="16"/>
-      <c r="K366" s="16"/>
-      <c r="L366" s="16"/>
-      <c r="M366" s="16"/>
-      <c r="N366" s="16"/>
-      <c r="O366" s="16"/>
-      <c r="P366" s="16"/>
-      <c r="Q366" s="16"/>
-      <c r="R366" s="16"/>
-      <c r="S366" s="16"/>
       <c r="T366" s="6"/>
     </row>
     <row r="367" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B367" s="5"/>
-      <c r="C367" s="16"/>
-      <c r="D367" s="16"/>
-      <c r="E367" s="16"/>
-      <c r="F367" s="16"/>
-      <c r="G367" s="16"/>
-      <c r="H367" s="16"/>
-      <c r="I367" s="16"/>
-      <c r="J367" s="16"/>
-      <c r="K367" s="16"/>
-      <c r="L367" s="16"/>
-      <c r="M367" s="16"/>
-      <c r="N367" s="16"/>
-      <c r="O367" s="16"/>
-      <c r="P367" s="16"/>
-      <c r="Q367" s="16"/>
-      <c r="R367" s="16"/>
-      <c r="S367" s="16"/>
       <c r="T367" s="6"/>
     </row>
     <row r="368" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B368" s="5"/>
-      <c r="C368" s="16"/>
-      <c r="D368" s="16"/>
-      <c r="E368" s="16"/>
-      <c r="F368" s="16"/>
-      <c r="G368" s="16"/>
-      <c r="H368" s="16"/>
-      <c r="I368" s="16"/>
-      <c r="J368" s="16"/>
-      <c r="K368" s="16"/>
-      <c r="L368" s="16"/>
-      <c r="M368" s="16"/>
-      <c r="N368" s="16"/>
-      <c r="O368" s="16"/>
-      <c r="P368" s="16"/>
-      <c r="Q368" s="16"/>
-      <c r="R368" s="16"/>
-      <c r="S368" s="16"/>
       <c r="T368" s="6"/>
     </row>
     <row r="369" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B369" s="5"/>
-      <c r="C369" s="16"/>
-      <c r="D369" s="16"/>
-      <c r="E369" s="16"/>
-      <c r="F369" s="16"/>
-      <c r="G369" s="16"/>
-      <c r="H369" s="16"/>
-      <c r="I369" s="16"/>
-      <c r="J369" s="16"/>
-      <c r="K369" s="16"/>
-      <c r="L369" s="16"/>
-      <c r="M369" s="16"/>
-      <c r="N369" s="16"/>
-      <c r="O369" s="16"/>
-      <c r="P369" s="16"/>
-      <c r="Q369" s="16"/>
-      <c r="R369" s="16"/>
-      <c r="S369" s="16"/>
       <c r="T369" s="6"/>
     </row>
     <row r="370" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B370" s="5"/>
-      <c r="C370" s="16"/>
-      <c r="D370" s="16"/>
-      <c r="E370" s="16"/>
-      <c r="F370" s="16"/>
-      <c r="G370" s="16"/>
-      <c r="H370" s="16"/>
-      <c r="I370" s="16"/>
-      <c r="J370" s="16"/>
-      <c r="K370" s="16"/>
-      <c r="L370" s="16"/>
-      <c r="M370" s="16"/>
-      <c r="N370" s="16"/>
-      <c r="O370" s="16"/>
-      <c r="P370" s="16"/>
-      <c r="Q370" s="16"/>
-      <c r="R370" s="16"/>
-      <c r="S370" s="16"/>
       <c r="T370" s="6"/>
     </row>
     <row r="371" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
-      <c r="C371" s="16"/>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16"/>
-      <c r="F371" s="16"/>
-      <c r="G371" s="16"/>
-      <c r="H371" s="16"/>
-      <c r="I371" s="16"/>
-      <c r="J371" s="16"/>
-      <c r="K371" s="16"/>
-      <c r="L371" s="16"/>
-      <c r="M371" s="16"/>
-      <c r="N371" s="16"/>
-      <c r="O371" s="16"/>
-      <c r="P371" s="16"/>
-      <c r="Q371" s="16"/>
-      <c r="R371" s="16"/>
-      <c r="S371" s="16"/>
       <c r="T371" s="6"/>
     </row>
     <row r="372" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B372" s="5"/>
-      <c r="C372" s="16"/>
-      <c r="D372" s="16"/>
-      <c r="E372" s="16"/>
-      <c r="F372" s="16"/>
-      <c r="G372" s="16"/>
-      <c r="H372" s="16"/>
-      <c r="I372" s="16"/>
-      <c r="J372" s="16"/>
-      <c r="K372" s="16"/>
-      <c r="L372" s="16"/>
-      <c r="M372" s="16"/>
-      <c r="N372" s="16"/>
-      <c r="O372" s="16"/>
-      <c r="P372" s="16"/>
-      <c r="Q372" s="16"/>
-      <c r="R372" s="16"/>
-      <c r="S372" s="16"/>
       <c r="T372" s="6"/>
     </row>
     <row r="373" spans="2:20" x14ac:dyDescent="0.25">
@@ -15595,8 +15200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0EA440-FB41-4A25-888F-10879DE1E42C}">
   <dimension ref="A4:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K379" sqref="K379"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16999,330 +16604,138 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
-      <c r="C234" s="16"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="16"/>
-      <c r="J234" s="16"/>
       <c r="K234" s="6"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C235" s="16"/>
-      <c r="D235" s="16"/>
-      <c r="E235" s="16"/>
-      <c r="F235" s="16"/>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="16"/>
-      <c r="J235" s="16"/>
       <c r="K235" s="6"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B236" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C236" s="16"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="16"/>
-      <c r="J236" s="16"/>
       <c r="K236" s="6"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B237" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C237" s="16"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="16"/>
-      <c r="J237" s="16"/>
       <c r="K237" s="6"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="16"/>
-      <c r="J238" s="16"/>
       <c r="K238" s="6"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C239" s="16"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="16"/>
-      <c r="J239" s="16"/>
       <c r="K239" s="6"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C240" s="16"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="16"/>
-      <c r="G240" s="16"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="16"/>
-      <c r="J240" s="16"/>
       <c r="K240" s="6"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C241" s="16"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="16"/>
-      <c r="J241" s="16"/>
       <c r="K241" s="6"/>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C242" s="16"/>
-      <c r="D242" s="16"/>
-      <c r="E242" s="16"/>
-      <c r="F242" s="16"/>
-      <c r="G242" s="16"/>
-      <c r="H242" s="16"/>
-      <c r="I242" s="16"/>
-      <c r="J242" s="16"/>
       <c r="K242" s="6"/>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
-      <c r="C243" s="16"/>
-      <c r="D243" s="16"/>
-      <c r="E243" s="16"/>
-      <c r="F243" s="16"/>
-      <c r="G243" s="16"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="16"/>
-      <c r="J243" s="16"/>
       <c r="K243" s="6"/>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C244" s="16"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="16"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="16"/>
-      <c r="H244" s="16"/>
-      <c r="I244" s="16"/>
-      <c r="J244" s="16"/>
       <c r="K244" s="6"/>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="16"/>
-      <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
       <c r="K245" s="6"/>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C246" s="16"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="16"/>
-      <c r="I246" s="16"/>
-      <c r="J246" s="16"/>
       <c r="K246" s="6"/>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B247" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C247" s="16"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
-      <c r="H247" s="16"/>
-      <c r="I247" s="16"/>
-      <c r="J247" s="16"/>
       <c r="K247" s="6"/>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C248" s="16"/>
-      <c r="D248" s="16"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
-      <c r="H248" s="16"/>
-      <c r="I248" s="16"/>
-      <c r="J248" s="16"/>
       <c r="K248" s="6"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
-      <c r="C249" s="16"/>
-      <c r="D249" s="16"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
-      <c r="H249" s="16"/>
-      <c r="I249" s="16"/>
-      <c r="J249" s="16"/>
       <c r="K249" s="6"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C250" s="16"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-      <c r="H250" s="16"/>
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
       <c r="K250" s="6"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C251" s="16"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="16"/>
-      <c r="J251" s="16"/>
       <c r="K251" s="6"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C252" s="16"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-      <c r="H252" s="16"/>
-      <c r="I252" s="16"/>
-      <c r="J252" s="16"/>
       <c r="K252" s="6"/>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C253" s="16"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="16"/>
-      <c r="I253" s="16"/>
-      <c r="J253" s="16"/>
       <c r="K253" s="6"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C254" s="16"/>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
-      <c r="H254" s="16"/>
-      <c r="I254" s="16"/>
-      <c r="J254" s="16"/>
       <c r="K254" s="6"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B255" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C255" s="16"/>
-      <c r="D255" s="16"/>
-      <c r="E255" s="16"/>
-      <c r="F255" s="16"/>
-      <c r="G255" s="16"/>
-      <c r="H255" s="16"/>
-      <c r="I255" s="16"/>
-      <c r="J255" s="16"/>
       <c r="K255" s="6"/>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B256" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C256" s="16"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="16"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-      <c r="H256" s="16"/>
-      <c r="I256" s="16"/>
-      <c r="J256" s="16"/>
       <c r="K256" s="6"/>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="C257" s="16"/>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="16"/>
-      <c r="I257" s="16"/>
-      <c r="J257" s="16"/>
       <c r="K257" s="6"/>
       <c r="L257" t="s">
         <v>181</v>
@@ -17335,272 +16748,112 @@
       <c r="B258" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C258" s="16"/>
-      <c r="D258" s="16"/>
-      <c r="E258" s="16"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="16"/>
-      <c r="H258" s="16"/>
-      <c r="I258" s="16"/>
-      <c r="J258" s="16"/>
       <c r="K258" s="6"/>
     </row>
     <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
-      <c r="C259" s="16"/>
-      <c r="D259" s="16"/>
-      <c r="E259" s="16"/>
-      <c r="F259" s="16"/>
-      <c r="G259" s="16"/>
-      <c r="H259" s="16"/>
-      <c r="I259" s="16"/>
-      <c r="J259" s="16"/>
       <c r="K259" s="6"/>
     </row>
     <row r="260" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B260" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C260" s="16"/>
-      <c r="D260" s="16"/>
-      <c r="E260" s="16"/>
-      <c r="F260" s="16"/>
-      <c r="G260" s="16"/>
-      <c r="H260" s="16"/>
-      <c r="I260" s="16"/>
-      <c r="J260" s="16"/>
       <c r="K260" s="6"/>
     </row>
     <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B261" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C261" s="16"/>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="16"/>
-      <c r="H261" s="16"/>
-      <c r="I261" s="16"/>
-      <c r="J261" s="16"/>
       <c r="K261" s="6"/>
     </row>
     <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
-      <c r="C262" s="16"/>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="16"/>
-      <c r="H262" s="16"/>
-      <c r="I262" s="16"/>
-      <c r="J262" s="16"/>
       <c r="K262" s="6"/>
     </row>
     <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B263" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C263" s="16"/>
-      <c r="D263" s="16"/>
-      <c r="E263" s="16"/>
-      <c r="F263" s="16"/>
-      <c r="G263" s="16"/>
-      <c r="H263" s="16"/>
-      <c r="I263" s="16"/>
-      <c r="J263" s="16"/>
       <c r="K263" s="6"/>
     </row>
     <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B264" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C264" s="16"/>
-      <c r="D264" s="16"/>
-      <c r="E264" s="16"/>
-      <c r="F264" s="16"/>
-      <c r="G264" s="16"/>
-      <c r="H264" s="16"/>
-      <c r="I264" s="16"/>
-      <c r="J264" s="16"/>
       <c r="K264" s="6"/>
     </row>
     <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B265" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C265" s="16"/>
-      <c r="D265" s="16"/>
-      <c r="E265" s="16"/>
-      <c r="F265" s="16"/>
-      <c r="G265" s="16"/>
-      <c r="H265" s="16"/>
-      <c r="I265" s="16"/>
-      <c r="J265" s="16"/>
       <c r="K265" s="6"/>
     </row>
     <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B266" s="5"/>
-      <c r="C266" s="16"/>
-      <c r="D266" s="16"/>
-      <c r="E266" s="16"/>
-      <c r="F266" s="16"/>
-      <c r="G266" s="16"/>
-      <c r="H266" s="16"/>
-      <c r="I266" s="16"/>
-      <c r="J266" s="16"/>
       <c r="K266" s="6"/>
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B267" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
       <c r="K267" s="6"/>
     </row>
     <row r="268" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B268" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C268" s="16"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="16"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="16"/>
-      <c r="H268" s="16"/>
-      <c r="I268" s="16"/>
-      <c r="J268" s="16"/>
       <c r="K268" s="6"/>
     </row>
     <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B269" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="16"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="16"/>
-      <c r="J269" s="16"/>
       <c r="K269" s="6"/>
     </row>
     <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
-      <c r="C270" s="16"/>
-      <c r="D270" s="16"/>
-      <c r="E270" s="16"/>
-      <c r="F270" s="16"/>
-      <c r="G270" s="16"/>
-      <c r="H270" s="16"/>
-      <c r="I270" s="16"/>
-      <c r="J270" s="16"/>
       <c r="K270" s="6"/>
     </row>
     <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B271" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C271" s="16"/>
-      <c r="D271" s="16"/>
-      <c r="E271" s="16"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="16"/>
-      <c r="H271" s="16"/>
-      <c r="I271" s="16"/>
-      <c r="J271" s="16"/>
       <c r="K271" s="6"/>
     </row>
     <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C272" s="16"/>
-      <c r="D272" s="16"/>
-      <c r="E272" s="16"/>
-      <c r="F272" s="16"/>
-      <c r="G272" s="16"/>
-      <c r="H272" s="16"/>
-      <c r="I272" s="16"/>
-      <c r="J272" s="16"/>
       <c r="K272" s="6"/>
     </row>
     <row r="273" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B273" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C273" s="16"/>
-      <c r="D273" s="16"/>
-      <c r="E273" s="16"/>
-      <c r="F273" s="16"/>
-      <c r="G273" s="16"/>
-      <c r="H273" s="16"/>
-      <c r="I273" s="16"/>
-      <c r="J273" s="16"/>
       <c r="K273" s="6"/>
     </row>
     <row r="274" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B274" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C274" s="16"/>
-      <c r="D274" s="16"/>
-      <c r="E274" s="16"/>
-      <c r="F274" s="16"/>
-      <c r="G274" s="16"/>
-      <c r="H274" s="16"/>
-      <c r="I274" s="16"/>
-      <c r="J274" s="16"/>
       <c r="K274" s="6"/>
     </row>
     <row r="275" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B275" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C275" s="16"/>
-      <c r="D275" s="16"/>
-      <c r="E275" s="16"/>
-      <c r="F275" s="16"/>
-      <c r="G275" s="16"/>
-      <c r="H275" s="16"/>
-      <c r="I275" s="16"/>
-      <c r="J275" s="16"/>
       <c r="K275" s="6"/>
     </row>
     <row r="276" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B276" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="C276" s="16"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="16"/>
-      <c r="F276" s="16"/>
-      <c r="G276" s="16"/>
-      <c r="H276" s="16"/>
-      <c r="I276" s="16"/>
-      <c r="J276" s="16"/>
       <c r="K276" s="6"/>
     </row>
     <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C277" s="16"/>
-      <c r="D277" s="16"/>
-      <c r="E277" s="16"/>
-      <c r="F277" s="16"/>
-      <c r="G277" s="16"/>
-      <c r="H277" s="16"/>
-      <c r="I277" s="16"/>
-      <c r="J277" s="16"/>
       <c r="K277" s="6"/>
       <c r="L277" t="s">
         <v>181</v>
@@ -17613,288 +16866,120 @@
       <c r="B278" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C278" s="16"/>
-      <c r="D278" s="16"/>
-      <c r="E278" s="16"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="16"/>
-      <c r="H278" s="16"/>
-      <c r="I278" s="16"/>
-      <c r="J278" s="16"/>
       <c r="K278" s="6"/>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="5"/>
-      <c r="C279" s="16"/>
-      <c r="D279" s="16"/>
-      <c r="E279" s="16"/>
-      <c r="F279" s="16"/>
-      <c r="G279" s="16"/>
-      <c r="H279" s="16"/>
-      <c r="I279" s="16"/>
-      <c r="J279" s="16"/>
       <c r="K279" s="6"/>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B280" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C280" s="16"/>
-      <c r="D280" s="16"/>
-      <c r="E280" s="16"/>
-      <c r="F280" s="16"/>
-      <c r="G280" s="16"/>
-      <c r="H280" s="16"/>
-      <c r="I280" s="16"/>
-      <c r="J280" s="16"/>
       <c r="K280" s="6"/>
     </row>
     <row r="281" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B281" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C281" s="16"/>
-      <c r="D281" s="16"/>
-      <c r="E281" s="16"/>
-      <c r="F281" s="16"/>
-      <c r="G281" s="16"/>
-      <c r="H281" s="16"/>
-      <c r="I281" s="16"/>
-      <c r="J281" s="16"/>
       <c r="K281" s="6"/>
     </row>
     <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C282" s="16"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="16"/>
-      <c r="G282" s="16"/>
-      <c r="H282" s="16"/>
-      <c r="I282" s="16"/>
-      <c r="J282" s="16"/>
       <c r="K282" s="6"/>
     </row>
     <row r="283" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B283" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C283" s="16"/>
-      <c r="D283" s="16"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="16"/>
-      <c r="G283" s="16"/>
-      <c r="H283" s="16"/>
-      <c r="I283" s="16"/>
-      <c r="J283" s="16"/>
       <c r="K283" s="6"/>
     </row>
     <row r="284" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B284" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C284" s="16"/>
-      <c r="D284" s="16"/>
-      <c r="E284" s="16"/>
-      <c r="F284" s="16"/>
-      <c r="G284" s="16"/>
-      <c r="H284" s="16"/>
-      <c r="I284" s="16"/>
-      <c r="J284" s="16"/>
       <c r="K284" s="6"/>
     </row>
     <row r="285" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B285" s="5"/>
-      <c r="C285" s="16"/>
-      <c r="D285" s="16"/>
-      <c r="E285" s="16"/>
-      <c r="F285" s="16"/>
-      <c r="G285" s="16"/>
-      <c r="H285" s="16"/>
-      <c r="I285" s="16"/>
-      <c r="J285" s="16"/>
       <c r="K285" s="6"/>
     </row>
     <row r="286" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B286" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="C286" s="16"/>
-      <c r="D286" s="16"/>
-      <c r="E286" s="16"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="16"/>
-      <c r="H286" s="16"/>
-      <c r="I286" s="16"/>
-      <c r="J286" s="16"/>
       <c r="K286" s="6"/>
     </row>
     <row r="287" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B287" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="16"/>
-      <c r="H287" s="16"/>
-      <c r="I287" s="16"/>
-      <c r="J287" s="16"/>
       <c r="K287" s="6"/>
     </row>
     <row r="288" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C288" s="16"/>
-      <c r="D288" s="16"/>
-      <c r="E288" s="16"/>
-      <c r="F288" s="16"/>
-      <c r="G288" s="16"/>
-      <c r="H288" s="16"/>
-      <c r="I288" s="16"/>
-      <c r="J288" s="16"/>
       <c r="K288" s="6"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C289" s="16"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="16"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="16"/>
-      <c r="J289" s="16"/>
       <c r="K289" s="6"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B290" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C290" s="16"/>
-      <c r="D290" s="16"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="16"/>
-      <c r="G290" s="16"/>
-      <c r="H290" s="16"/>
-      <c r="I290" s="16"/>
-      <c r="J290" s="16"/>
       <c r="K290" s="6"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B291" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C291" s="16"/>
-      <c r="D291" s="16"/>
-      <c r="E291" s="16"/>
-      <c r="F291" s="16"/>
-      <c r="G291" s="16"/>
-      <c r="H291" s="16"/>
-      <c r="I291" s="16"/>
-      <c r="J291" s="16"/>
       <c r="K291" s="6"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B292" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C292" s="16"/>
-      <c r="D292" s="16"/>
-      <c r="E292" s="16"/>
-      <c r="F292" s="16"/>
-      <c r="G292" s="16"/>
-      <c r="H292" s="16"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="16"/>
       <c r="K292" s="6"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B293" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
-      <c r="F293" s="16"/>
-      <c r="G293" s="16"/>
-      <c r="H293" s="16"/>
-      <c r="I293" s="16"/>
-      <c r="J293" s="16"/>
       <c r="K293" s="6"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C294" s="16"/>
-      <c r="D294" s="16"/>
-      <c r="E294" s="16"/>
-      <c r="F294" s="16"/>
-      <c r="G294" s="16"/>
-      <c r="H294" s="16"/>
-      <c r="I294" s="16"/>
-      <c r="J294" s="16"/>
       <c r="K294" s="6"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B295" s="5"/>
-      <c r="C295" s="16"/>
-      <c r="D295" s="16"/>
-      <c r="E295" s="16"/>
-      <c r="F295" s="16"/>
-      <c r="G295" s="16"/>
-      <c r="H295" s="16"/>
-      <c r="I295" s="16"/>
-      <c r="J295" s="16"/>
       <c r="K295" s="6"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="16"/>
-      <c r="D296" s="16"/>
-      <c r="E296" s="16"/>
-      <c r="F296" s="16"/>
-      <c r="G296" s="16"/>
-      <c r="H296" s="16"/>
-      <c r="I296" s="16"/>
-      <c r="J296" s="16"/>
       <c r="K296" s="6"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B297" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C297" s="16"/>
-      <c r="D297" s="16"/>
-      <c r="E297" s="16"/>
-      <c r="F297" s="16"/>
-      <c r="G297" s="16"/>
-      <c r="H297" s="16"/>
-      <c r="I297" s="16"/>
-      <c r="J297" s="16"/>
       <c r="K297" s="6"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B298" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C298" s="16"/>
-      <c r="D298" s="16"/>
-      <c r="E298" s="16"/>
-      <c r="F298" s="16"/>
-      <c r="G298" s="16"/>
-      <c r="H298" s="16"/>
-      <c r="I298" s="16"/>
-      <c r="J298" s="16"/>
       <c r="K298" s="6"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -17921,4 +17006,1583 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3BEE62-B343-4535-92D2-143F8CAE2485}">
+  <dimension ref="A2:L431"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V349" sqref="V349"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="G75" t="s">
+        <v>39</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="H78" t="s">
+        <v>42</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="G86" t="s">
+        <v>50</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" t="s">
+        <v>52</v>
+      </c>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="H90" t="s">
+        <v>54</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="G91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
+        <v>56</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="H93" t="s">
+        <v>57</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="H94" t="s">
+        <v>58</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="G95" t="s">
+        <v>59</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" t="s">
+        <v>60</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="H97" t="s">
+        <v>61</v>
+      </c>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
+        <v>62</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="G99" t="s">
+        <v>63</v>
+      </c>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="H100" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+      <c r="H101" t="s">
+        <v>65</v>
+      </c>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+      <c r="H102" t="s">
+        <v>66</v>
+      </c>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="G103" t="s">
+        <v>67</v>
+      </c>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="H104" t="s">
+        <v>68</v>
+      </c>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+      <c r="H105" t="s">
+        <v>69</v>
+      </c>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="G106" t="s">
+        <v>70</v>
+      </c>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+      <c r="H107" t="s">
+        <v>71</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" t="s">
+        <v>76</v>
+      </c>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+      <c r="H115" t="s">
+        <v>79</v>
+      </c>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="H116" t="s">
+        <v>80</v>
+      </c>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+      <c r="G117" t="s">
+        <v>81</v>
+      </c>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+      <c r="H118" t="s">
+        <v>82</v>
+      </c>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="H119" t="s">
+        <v>83</v>
+      </c>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+      <c r="H122" t="s">
+        <v>86</v>
+      </c>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="H123" t="s">
+        <v>87</v>
+      </c>
+      <c r="L123" s="6"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L124" s="6"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" t="s">
+        <v>89</v>
+      </c>
+      <c r="L125" s="6"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="H126" t="s">
+        <v>90</v>
+      </c>
+      <c r="L126" s="6"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+      <c r="H127" t="s">
+        <v>91</v>
+      </c>
+      <c r="L127" s="6"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+      <c r="G128" t="s">
+        <v>92</v>
+      </c>
+      <c r="L128" s="6"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+      <c r="H129" t="s">
+        <v>93</v>
+      </c>
+      <c r="L129" s="6"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+      <c r="H130" t="s">
+        <v>94</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+      <c r="H131" t="s">
+        <v>95</v>
+      </c>
+      <c r="L131" s="6"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="G132" t="s">
+        <v>96</v>
+      </c>
+      <c r="L132" s="6"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+      <c r="H133" t="s">
+        <v>97</v>
+      </c>
+      <c r="L133" s="6"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+      <c r="H134" t="s">
+        <v>98</v>
+      </c>
+      <c r="L134" s="6"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="H135" t="s">
+        <v>99</v>
+      </c>
+      <c r="L135" s="6"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+      <c r="H136" t="s">
+        <v>100</v>
+      </c>
+      <c r="L136" s="6"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="G137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L137" s="6"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="H138" t="s">
+        <v>102</v>
+      </c>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="H139" t="s">
+        <v>103</v>
+      </c>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="H140" t="s">
+        <v>104</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="G141" t="s">
+        <v>105</v>
+      </c>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="H142" t="s">
+        <v>106</v>
+      </c>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="H143" t="s">
+        <v>107</v>
+      </c>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="H144" t="s">
+        <v>108</v>
+      </c>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="G145" t="s">
+        <v>109</v>
+      </c>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="H146" t="s">
+        <v>110</v>
+      </c>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="I147" t="s">
+        <v>111</v>
+      </c>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="H148" t="s">
+        <v>112</v>
+      </c>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="H149" t="s">
+        <v>113</v>
+      </c>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="G150" t="s">
+        <v>114</v>
+      </c>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="H151" t="s">
+        <v>115</v>
+      </c>
+      <c r="L151" s="6"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="H152" t="s">
+        <v>116</v>
+      </c>
+      <c r="L152" s="6"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="H153" t="s">
+        <v>117</v>
+      </c>
+      <c r="L153" s="6"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="H154" t="s">
+        <v>118</v>
+      </c>
+      <c r="L154" s="6"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="G155" t="s">
+        <v>119</v>
+      </c>
+      <c r="L155" s="6"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="H156" t="s">
+        <v>120</v>
+      </c>
+      <c r="L156" s="6"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="H157" t="s">
+        <v>121</v>
+      </c>
+      <c r="L157" s="6"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="H158" t="s">
+        <v>122</v>
+      </c>
+      <c r="L158" s="6"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="G159" t="s">
+        <v>123</v>
+      </c>
+      <c r="L159" s="6"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="H160" t="s">
+        <v>124</v>
+      </c>
+      <c r="L160" s="6"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="H161" t="s">
+        <v>125</v>
+      </c>
+      <c r="L161" s="6"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="H162" t="s">
+        <v>126</v>
+      </c>
+      <c r="L162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="H163" t="s">
+        <v>127</v>
+      </c>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="G164" t="s">
+        <v>128</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="H165" t="s">
+        <v>129</v>
+      </c>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="H166" t="s">
+        <v>130</v>
+      </c>
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+      <c r="H167" t="s">
+        <v>131</v>
+      </c>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+      <c r="H168" t="s">
+        <v>132</v>
+      </c>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="G169" t="s">
+        <v>133</v>
+      </c>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+      <c r="H170" t="s">
+        <v>134</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="H171" t="s">
+        <v>135</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="G172" t="s">
+        <v>136</v>
+      </c>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="G173" t="s">
+        <v>137</v>
+      </c>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="H174" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="H175" t="s">
+        <v>139</v>
+      </c>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="G176" t="s">
+        <v>140</v>
+      </c>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="H177" t="s">
+        <v>141</v>
+      </c>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="H178" t="s">
+        <v>142</v>
+      </c>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="H179" t="s">
+        <v>143</v>
+      </c>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="G180" t="s">
+        <v>144</v>
+      </c>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="H181" t="s">
+        <v>145</v>
+      </c>
+      <c r="L181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="H182" t="s">
+        <v>146</v>
+      </c>
+      <c r="L182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="H183" t="s">
+        <v>147</v>
+      </c>
+      <c r="L183" s="6"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="G184" t="s">
+        <v>148</v>
+      </c>
+      <c r="L184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="H185" t="s">
+        <v>149</v>
+      </c>
+      <c r="L185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="H186" t="s">
+        <v>150</v>
+      </c>
+      <c r="L186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="H187" t="s">
+        <v>151</v>
+      </c>
+      <c r="L187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="H188" t="s">
+        <v>152</v>
+      </c>
+      <c r="L188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="G189" t="s">
+        <v>230</v>
+      </c>
+      <c r="L189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="H190" t="s">
+        <v>231</v>
+      </c>
+      <c r="L190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="H191" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="H192" t="s">
+        <v>233</v>
+      </c>
+      <c r="L192" s="6"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="F193" t="s">
+        <v>153</v>
+      </c>
+      <c r="L193" s="6"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="G194" t="s">
+        <v>154</v>
+      </c>
+      <c r="L194" s="6"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+      <c r="F195" t="s">
+        <v>155</v>
+      </c>
+      <c r="L195" s="6"/>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+      <c r="G196" t="s">
+        <v>156</v>
+      </c>
+      <c r="L196" s="6"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B197" s="5"/>
+      <c r="G197" t="s">
+        <v>157</v>
+      </c>
+      <c r="L197" s="6"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="G198" t="s">
+        <v>158</v>
+      </c>
+      <c r="L198" s="6"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="F199" t="s">
+        <v>159</v>
+      </c>
+      <c r="L199" s="6"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+      <c r="G200" t="s">
+        <v>160</v>
+      </c>
+      <c r="L200" s="6"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="H201" t="s">
+        <v>161</v>
+      </c>
+      <c r="L201" s="6"/>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="H202" t="s">
+        <v>162</v>
+      </c>
+      <c r="L202" s="6"/>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+      <c r="H203" t="s">
+        <v>163</v>
+      </c>
+      <c r="L203" s="6"/>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="H204" t="s">
+        <v>164</v>
+      </c>
+      <c r="L204" s="6"/>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="G205" t="s">
+        <v>165</v>
+      </c>
+      <c r="L205" s="6"/>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="H206" t="s">
+        <v>166</v>
+      </c>
+      <c r="L206" s="6"/>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="H207" t="s">
+        <v>167</v>
+      </c>
+      <c r="L207" s="6"/>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="H208" t="s">
+        <v>168</v>
+      </c>
+      <c r="L208" s="6"/>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="H209" t="s">
+        <v>169</v>
+      </c>
+      <c r="L209" s="6"/>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="H210" t="s">
+        <v>170</v>
+      </c>
+      <c r="L210" s="6"/>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="H211" t="s">
+        <v>171</v>
+      </c>
+      <c r="L211" s="6"/>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="F212" t="s">
+        <v>172</v>
+      </c>
+      <c r="L212" s="6"/>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="G213" t="s">
+        <v>173</v>
+      </c>
+      <c r="L213" s="6"/>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="G214" t="s">
+        <v>174</v>
+      </c>
+      <c r="L214" s="6"/>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="G215" t="s">
+        <v>175</v>
+      </c>
+      <c r="L215" s="6"/>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="D216" t="s">
+        <v>176</v>
+      </c>
+      <c r="L216" s="6"/>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="C217" t="s">
+        <v>177</v>
+      </c>
+      <c r="L217" s="6"/>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="D218" t="s">
+        <v>207</v>
+      </c>
+      <c r="L218" s="6"/>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="E219" t="s">
+        <v>178</v>
+      </c>
+      <c r="L219" s="6"/>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="E220" t="s">
+        <v>179</v>
+      </c>
+      <c r="L220" s="6"/>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="D221" t="s">
+        <v>212</v>
+      </c>
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="E222" t="s">
+        <v>178</v>
+      </c>
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="E223" t="s">
+        <v>179</v>
+      </c>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="D224" t="s">
+        <v>312</v>
+      </c>
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="E225" t="s">
+        <v>313</v>
+      </c>
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="F226" t="s">
+        <v>314</v>
+      </c>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B227" s="8"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
+      <c r="L227" s="10"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="16"/>
+      <c r="I232" s="16"/>
+      <c r="J232" s="6"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="J233" s="6"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
+      <c r="F234" s="16"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="16"/>
+      <c r="I234" s="16"/>
+      <c r="J234" s="6"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="16"/>
+      <c r="I235" s="16"/>
+      <c r="J235" s="6"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="J236" s="6"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+      <c r="I237" s="16"/>
+      <c r="J237" s="6"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+      <c r="I238" s="16"/>
+      <c r="J238" s="6"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+      <c r="I239" s="16"/>
+      <c r="J239" s="6"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="F240" s="16"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
+      <c r="I240" s="16"/>
+      <c r="J240" s="6"/>
+      <c r="K240" t="s">
+        <v>181</v>
+      </c>
+      <c r="L240" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="16"/>
+      <c r="I241" s="16"/>
+      <c r="J241" s="6"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="16"/>
+      <c r="I243" s="16"/>
+      <c r="J243" s="16"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>